--- a/librelink/Librelink.xlsx
+++ b/librelink/Librelink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc6084b92ffa451/Sprague 2019/Health 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1DF15EB1-8D61-6642-9AC4-0A049F576367}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E16C611F-EF94-BE4F-980F-8AB408E65BDC}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{1DF15EB1-8D61-6642-9AC4-0A049F576367}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6C5D4BB0-A8BA-FB40-A653-F5830FB7DCB3}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="1140" windowWidth="17400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15280" yWindow="1640" windowWidth="17400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Librelink" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="60">
   <si>
     <t>Meter</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Apple juice + donut</t>
+  </si>
+  <si>
+    <t>CBD</t>
   </si>
 </sst>
 </file>
@@ -769,8 +772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF602BB5-9469-1B45-BB1A-DFBEABAFCD1B}" name="Table1" displayName="Table1" ref="A1:S2445" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:S2445" xr:uid="{A8E95FAB-7D33-F24D-8350-CC174D759A60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF602BB5-9469-1B45-BB1A-DFBEABAFCD1B}" name="Table1" displayName="Table1" ref="A1:S3180" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:S3180" xr:uid="{A8E95FAB-7D33-F24D-8350-CC174D759A60}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{374D21D6-0283-C44B-8028-4060CB201675}" name="Meter"/>
     <tableColumn id="2" xr3:uid="{48610F22-94E8-1142-AF15-100D6756BE81}" name="Serial Number"/>
@@ -1093,12 +1096,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2445"/>
+  <dimension ref="A1:S3180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2417" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3156" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2425" sqref="E2425"/>
+      <selection pane="bottomLeft" activeCell="D3178" sqref="D3178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29635,6 +29638,8094 @@
         <v>102</v>
       </c>
     </row>
+    <row r="2446" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2446" s="1">
+        <v>43481.317361111112</v>
+      </c>
+      <c r="D2446">
+        <v>0</v>
+      </c>
+      <c r="E2446">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2447" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2447" s="1">
+        <v>43481.327777777777</v>
+      </c>
+      <c r="D2447">
+        <v>0</v>
+      </c>
+      <c r="E2447">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2448" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2448" s="1">
+        <v>43481.335416666669</v>
+      </c>
+      <c r="D2448">
+        <v>1</v>
+      </c>
+      <c r="F2448">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2449" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2449" s="1">
+        <v>43481.338194444441</v>
+      </c>
+      <c r="D2449">
+        <v>0</v>
+      </c>
+      <c r="E2449">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2450" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2450" s="1">
+        <v>43481.348611111112</v>
+      </c>
+      <c r="D2450">
+        <v>0</v>
+      </c>
+      <c r="E2450">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2451" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2451" s="1">
+        <v>43481.359027777777</v>
+      </c>
+      <c r="D2451">
+        <v>0</v>
+      </c>
+      <c r="E2451">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2452" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2452" s="1">
+        <v>43481.369444444441</v>
+      </c>
+      <c r="D2452">
+        <v>0</v>
+      </c>
+      <c r="E2452">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2453" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2453" s="1">
+        <v>43481.379861111112</v>
+      </c>
+      <c r="D2453">
+        <v>0</v>
+      </c>
+      <c r="E2453">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2454" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2454" s="1">
+        <v>43481.390277777777</v>
+      </c>
+      <c r="D2454">
+        <v>0</v>
+      </c>
+      <c r="E2454">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2455" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2455" s="1">
+        <v>43481.400694444441</v>
+      </c>
+      <c r="D2455">
+        <v>0</v>
+      </c>
+      <c r="E2455">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2456" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2456" s="1">
+        <v>43481.412499999999</v>
+      </c>
+      <c r="D2456">
+        <v>0</v>
+      </c>
+      <c r="E2456">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2457" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2457" s="1">
+        <v>43481.413194444445</v>
+      </c>
+      <c r="D2457">
+        <v>1</v>
+      </c>
+      <c r="F2457">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2458" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2458" s="1">
+        <v>43481.42291666667</v>
+      </c>
+      <c r="D2458">
+        <v>0</v>
+      </c>
+      <c r="E2458">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2459" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2459" s="1">
+        <v>43481.433333333334</v>
+      </c>
+      <c r="D2459">
+        <v>0</v>
+      </c>
+      <c r="E2459">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2460" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2460" s="1">
+        <v>43481.443749999999</v>
+      </c>
+      <c r="D2460">
+        <v>0</v>
+      </c>
+      <c r="E2460">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2461" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2461" s="1">
+        <v>43481.45416666667</v>
+      </c>
+      <c r="D2461">
+        <v>0</v>
+      </c>
+      <c r="E2461">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2462" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2462" s="1">
+        <v>43481.464583333334</v>
+      </c>
+      <c r="D2462">
+        <v>0</v>
+      </c>
+      <c r="E2462">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2463" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2463" s="1">
+        <v>43481.474999999999</v>
+      </c>
+      <c r="D2463">
+        <v>0</v>
+      </c>
+      <c r="E2463">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2464" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2464" s="1">
+        <v>43481.48541666667</v>
+      </c>
+      <c r="D2464">
+        <v>0</v>
+      </c>
+      <c r="E2464">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2465" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2465" s="1">
+        <v>43481.495833333334</v>
+      </c>
+      <c r="D2465">
+        <v>0</v>
+      </c>
+      <c r="E2465">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2466" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2466" s="1">
+        <v>43481.506249999999</v>
+      </c>
+      <c r="D2466">
+        <v>0</v>
+      </c>
+      <c r="E2466">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2467" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2467" s="1">
+        <v>43481.51666666667</v>
+      </c>
+      <c r="D2467">
+        <v>0</v>
+      </c>
+      <c r="E2467">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2468" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2468" s="1">
+        <v>43481.527083333334</v>
+      </c>
+      <c r="D2468">
+        <v>0</v>
+      </c>
+      <c r="E2468">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2469" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2469" s="1">
+        <v>43481.537499999999</v>
+      </c>
+      <c r="D2469">
+        <v>0</v>
+      </c>
+      <c r="E2469">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2470" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2470" s="1">
+        <v>43481.54791666667</v>
+      </c>
+      <c r="D2470">
+        <v>0</v>
+      </c>
+      <c r="E2470">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2471" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2471" s="1">
+        <v>43481.558333333334</v>
+      </c>
+      <c r="D2471">
+        <v>0</v>
+      </c>
+      <c r="E2471">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2472" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2472" s="1">
+        <v>43481.568749999999</v>
+      </c>
+      <c r="D2472">
+        <v>0</v>
+      </c>
+      <c r="E2472">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2473" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2473" s="1">
+        <v>43481.57916666667</v>
+      </c>
+      <c r="D2473">
+        <v>0</v>
+      </c>
+      <c r="E2473">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2474" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2474" s="1">
+        <v>43481.590277777781</v>
+      </c>
+      <c r="D2474">
+        <v>0</v>
+      </c>
+      <c r="E2474">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2475" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2475" s="1">
+        <v>43481.59375</v>
+      </c>
+      <c r="D2475">
+        <v>1</v>
+      </c>
+      <c r="F2475">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2476" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2476" s="1">
+        <v>43481.600694444445</v>
+      </c>
+      <c r="D2476">
+        <v>0</v>
+      </c>
+      <c r="E2476">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2477" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2477" s="1">
+        <v>43481.611111111109</v>
+      </c>
+      <c r="D2477">
+        <v>0</v>
+      </c>
+      <c r="E2477">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2478" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2478" s="1">
+        <v>43481.621527777781</v>
+      </c>
+      <c r="D2478">
+        <v>0</v>
+      </c>
+      <c r="E2478">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2479" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2479" s="1">
+        <v>43481.631944444445</v>
+      </c>
+      <c r="D2479">
+        <v>0</v>
+      </c>
+      <c r="E2479">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2480" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2480" s="1">
+        <v>43481.642361111109</v>
+      </c>
+      <c r="D2480">
+        <v>0</v>
+      </c>
+      <c r="E2480">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2481" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2481" s="1">
+        <v>43481.652777777781</v>
+      </c>
+      <c r="D2481">
+        <v>0</v>
+      </c>
+      <c r="E2481">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2482" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2482" s="1">
+        <v>43481.663194444445</v>
+      </c>
+      <c r="D2482">
+        <v>0</v>
+      </c>
+      <c r="E2482">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2483" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2483" s="1">
+        <v>43481.673611111109</v>
+      </c>
+      <c r="D2483">
+        <v>0</v>
+      </c>
+      <c r="E2483">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2484" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2484" s="1">
+        <v>43481.684027777781</v>
+      </c>
+      <c r="D2484">
+        <v>0</v>
+      </c>
+      <c r="E2484">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2485" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2485" s="1">
+        <v>43481.694444444445</v>
+      </c>
+      <c r="D2485">
+        <v>0</v>
+      </c>
+      <c r="E2485">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2486" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2486" s="1">
+        <v>43481.704861111109</v>
+      </c>
+      <c r="D2486">
+        <v>0</v>
+      </c>
+      <c r="E2486">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2487" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2487" s="1">
+        <v>43481.715277777781</v>
+      </c>
+      <c r="D2487">
+        <v>0</v>
+      </c>
+      <c r="E2487">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2488" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2488" s="1">
+        <v>43481.725694444445</v>
+      </c>
+      <c r="D2488">
+        <v>0</v>
+      </c>
+      <c r="E2488">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2489" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2489" s="1">
+        <v>43481.736111111109</v>
+      </c>
+      <c r="D2489">
+        <v>0</v>
+      </c>
+      <c r="E2489">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2490" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2490" s="1">
+        <v>43481.746527777781</v>
+      </c>
+      <c r="D2490">
+        <v>0</v>
+      </c>
+      <c r="E2490">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2491" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2491" s="1">
+        <v>43481.756944444445</v>
+      </c>
+      <c r="D2491">
+        <v>0</v>
+      </c>
+      <c r="E2491">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2492" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2492" s="1">
+        <v>43481.767361111109</v>
+      </c>
+      <c r="D2492">
+        <v>0</v>
+      </c>
+      <c r="E2492">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2493" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2493" s="1">
+        <v>43481.777777777781</v>
+      </c>
+      <c r="D2493">
+        <v>0</v>
+      </c>
+      <c r="E2493">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2494" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2494" s="1">
+        <v>43481.786805555559</v>
+      </c>
+      <c r="D2494">
+        <v>1</v>
+      </c>
+      <c r="F2494">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2495" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2495" s="1">
+        <v>43481.788194444445</v>
+      </c>
+      <c r="D2495">
+        <v>0</v>
+      </c>
+      <c r="E2495">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2496" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2496" s="1">
+        <v>43481.798611111109</v>
+      </c>
+      <c r="D2496">
+        <v>0</v>
+      </c>
+      <c r="E2496">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2497" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2497" s="1">
+        <v>43481.809027777781</v>
+      </c>
+      <c r="D2497">
+        <v>0</v>
+      </c>
+      <c r="E2497">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2498" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2498" s="1">
+        <v>43481.819444444445</v>
+      </c>
+      <c r="D2498">
+        <v>0</v>
+      </c>
+      <c r="E2498">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2499" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2499" s="1">
+        <v>43481.829861111109</v>
+      </c>
+      <c r="D2499">
+        <v>0</v>
+      </c>
+      <c r="E2499">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2500" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2500" s="1">
+        <v>43481.84097222222</v>
+      </c>
+      <c r="D2500">
+        <v>0</v>
+      </c>
+      <c r="E2500">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2501" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2501" s="1">
+        <v>43481.84375</v>
+      </c>
+      <c r="D2501">
+        <v>1</v>
+      </c>
+      <c r="F2501">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2502" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2502" s="1">
+        <v>43481.851388888892</v>
+      </c>
+      <c r="D2502">
+        <v>0</v>
+      </c>
+      <c r="E2502">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2503" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2503" s="1">
+        <v>43481.861805555556</v>
+      </c>
+      <c r="D2503">
+        <v>0</v>
+      </c>
+      <c r="E2503">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2504" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2504" s="1">
+        <v>43481.87222222222</v>
+      </c>
+      <c r="D2504">
+        <v>0</v>
+      </c>
+      <c r="E2504">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2505" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2505" s="1">
+        <v>43481.882638888892</v>
+      </c>
+      <c r="D2505">
+        <v>0</v>
+      </c>
+      <c r="E2505">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2506" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2506" s="1">
+        <v>43481.893055555556</v>
+      </c>
+      <c r="D2506">
+        <v>0</v>
+      </c>
+      <c r="E2506">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2507" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2507" s="1">
+        <v>43481.90347222222</v>
+      </c>
+      <c r="D2507">
+        <v>0</v>
+      </c>
+      <c r="E2507">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2508" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2508" s="1">
+        <v>43481.913888888892</v>
+      </c>
+      <c r="D2508">
+        <v>0</v>
+      </c>
+      <c r="E2508">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2509" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2509" s="1">
+        <v>43481.924305555556</v>
+      </c>
+      <c r="D2509">
+        <v>0</v>
+      </c>
+      <c r="E2509">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2510" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2510" s="1">
+        <v>43481.93472222222</v>
+      </c>
+      <c r="D2510">
+        <v>0</v>
+      </c>
+      <c r="E2510">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2511" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2511" s="1">
+        <v>43481.94027777778</v>
+      </c>
+      <c r="D2511">
+        <v>1</v>
+      </c>
+      <c r="F2511">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2512" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2512" s="1">
+        <v>43481.945138888892</v>
+      </c>
+      <c r="D2512">
+        <v>0</v>
+      </c>
+      <c r="E2512">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2513" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2513" s="1">
+        <v>43481.955555555556</v>
+      </c>
+      <c r="D2513">
+        <v>0</v>
+      </c>
+      <c r="E2513">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2514" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2514" s="1">
+        <v>43481.96597222222</v>
+      </c>
+      <c r="D2514">
+        <v>0</v>
+      </c>
+      <c r="E2514">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2515" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2515" s="1">
+        <v>43481.976388888892</v>
+      </c>
+      <c r="D2515">
+        <v>0</v>
+      </c>
+      <c r="E2515">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2516" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2516" s="1">
+        <v>43481.986805555556</v>
+      </c>
+      <c r="D2516">
+        <v>0</v>
+      </c>
+      <c r="E2516">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2517" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2517" s="1">
+        <v>43481.99722222222</v>
+      </c>
+      <c r="D2517">
+        <v>0</v>
+      </c>
+      <c r="E2517">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2518" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2518" s="1">
+        <v>43482.007638888892</v>
+      </c>
+      <c r="D2518">
+        <v>0</v>
+      </c>
+      <c r="E2518">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2519" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2519" s="1">
+        <v>43482.018055555556</v>
+      </c>
+      <c r="D2519">
+        <v>0</v>
+      </c>
+      <c r="E2519">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2520" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2520" s="1">
+        <v>43482.02847222222</v>
+      </c>
+      <c r="D2520">
+        <v>0</v>
+      </c>
+      <c r="E2520">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2521" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2521" s="1">
+        <v>43482.038888888892</v>
+      </c>
+      <c r="D2521">
+        <v>0</v>
+      </c>
+      <c r="E2521">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2522" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2522" s="1">
+        <v>43482.049305555556</v>
+      </c>
+      <c r="D2522">
+        <v>0</v>
+      </c>
+      <c r="E2522">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2523" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2523" s="1">
+        <v>43482.05972222222</v>
+      </c>
+      <c r="D2523">
+        <v>0</v>
+      </c>
+      <c r="E2523">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2524" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2524" s="1">
+        <v>43482.070138888892</v>
+      </c>
+      <c r="D2524">
+        <v>0</v>
+      </c>
+      <c r="E2524">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2525" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2525" s="1">
+        <v>43482.080555555556</v>
+      </c>
+      <c r="D2525">
+        <v>0</v>
+      </c>
+      <c r="E2525">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2526" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2526" s="1">
+        <v>43482.09097222222</v>
+      </c>
+      <c r="D2526">
+        <v>0</v>
+      </c>
+      <c r="E2526">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2527" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2527" s="1">
+        <v>43482.101388888892</v>
+      </c>
+      <c r="D2527">
+        <v>0</v>
+      </c>
+      <c r="E2527">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2528" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2528" s="1">
+        <v>43482.112500000003</v>
+      </c>
+      <c r="D2528">
+        <v>0</v>
+      </c>
+      <c r="E2528">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2529" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2529" s="1">
+        <v>43482.120138888888</v>
+      </c>
+      <c r="D2529">
+        <v>1</v>
+      </c>
+      <c r="F2529">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2530" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2530" s="1">
+        <v>43482.122916666667</v>
+      </c>
+      <c r="D2530">
+        <v>0</v>
+      </c>
+      <c r="E2530">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2531" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2531" s="1">
+        <v>43482.133333333331</v>
+      </c>
+      <c r="D2531">
+        <v>0</v>
+      </c>
+      <c r="E2531">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2532" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2532" s="1">
+        <v>43482.143750000003</v>
+      </c>
+      <c r="D2532">
+        <v>0</v>
+      </c>
+      <c r="E2532">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2533" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2533" s="1">
+        <v>43482.154166666667</v>
+      </c>
+      <c r="D2533">
+        <v>0</v>
+      </c>
+      <c r="E2533">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2534" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2534" s="1">
+        <v>43482.164583333331</v>
+      </c>
+      <c r="D2534">
+        <v>0</v>
+      </c>
+      <c r="E2534">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2535" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2535" s="1">
+        <v>43482.175000000003</v>
+      </c>
+      <c r="D2535">
+        <v>0</v>
+      </c>
+      <c r="E2535">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2536" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2536" s="1">
+        <v>43482.185416666667</v>
+      </c>
+      <c r="D2536">
+        <v>0</v>
+      </c>
+      <c r="E2536">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2537" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2537" s="1">
+        <v>43482.195833333331</v>
+      </c>
+      <c r="D2537">
+        <v>0</v>
+      </c>
+      <c r="E2537">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2538" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2538" s="1">
+        <v>43482.206250000003</v>
+      </c>
+      <c r="D2538">
+        <v>0</v>
+      </c>
+      <c r="E2538">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2539" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2539" s="1">
+        <v>43482.216666666667</v>
+      </c>
+      <c r="D2539">
+        <v>0</v>
+      </c>
+      <c r="E2539">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2540" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2540" s="1">
+        <v>43482.227083333331</v>
+      </c>
+      <c r="D2540">
+        <v>0</v>
+      </c>
+      <c r="E2540">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2541" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2541" s="1">
+        <v>43482.237500000003</v>
+      </c>
+      <c r="D2541">
+        <v>0</v>
+      </c>
+      <c r="E2541">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2542" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2542" s="1">
+        <v>43482.247916666667</v>
+      </c>
+      <c r="D2542">
+        <v>0</v>
+      </c>
+      <c r="E2542">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2543" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2543" s="1">
+        <v>43482.262499999997</v>
+      </c>
+      <c r="D2543">
+        <v>1</v>
+      </c>
+      <c r="F2543">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2544" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2544" s="1">
+        <v>43482.268750000003</v>
+      </c>
+      <c r="D2544">
+        <v>0</v>
+      </c>
+      <c r="E2544">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2545" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2545" s="1">
+        <v>43482.279166666667</v>
+      </c>
+      <c r="D2545">
+        <v>0</v>
+      </c>
+      <c r="E2545">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2546" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2546" s="1">
+        <v>43482.289583333331</v>
+      </c>
+      <c r="D2546">
+        <v>0</v>
+      </c>
+      <c r="E2546">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2547" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2547" s="1">
+        <v>43482.29583333333</v>
+      </c>
+      <c r="D2547">
+        <v>1</v>
+      </c>
+      <c r="F2547">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2548" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2548" s="1">
+        <v>43482.3</v>
+      </c>
+      <c r="D2548">
+        <v>0</v>
+      </c>
+      <c r="E2548">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2549" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2549" s="1">
+        <v>43482.306944444441</v>
+      </c>
+      <c r="D2549">
+        <v>1</v>
+      </c>
+      <c r="F2549">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2550" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2550" s="1">
+        <v>43482.310416666667</v>
+      </c>
+      <c r="D2550">
+        <v>0</v>
+      </c>
+      <c r="E2550">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2551" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2551" s="1">
+        <v>43482.320833333331</v>
+      </c>
+      <c r="D2551">
+        <v>0</v>
+      </c>
+      <c r="E2551">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2552" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2552" s="1">
+        <v>43482.331250000003</v>
+      </c>
+      <c r="D2552">
+        <v>0</v>
+      </c>
+      <c r="E2552">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2553" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2553" s="1">
+        <v>43482.341666666667</v>
+      </c>
+      <c r="D2553">
+        <v>0</v>
+      </c>
+      <c r="E2553">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2554" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2554" s="1">
+        <v>43482.352083333331</v>
+      </c>
+      <c r="D2554">
+        <v>0</v>
+      </c>
+      <c r="E2554">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2555" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2555" s="1">
+        <v>43482.363194444442</v>
+      </c>
+      <c r="D2555">
+        <v>0</v>
+      </c>
+      <c r="E2555">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2556" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2556" s="1">
+        <v>43482.366666666669</v>
+      </c>
+      <c r="D2556">
+        <v>1</v>
+      </c>
+      <c r="F2556">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2557" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2557" s="1">
+        <v>43482.373611111114</v>
+      </c>
+      <c r="D2557">
+        <v>0</v>
+      </c>
+      <c r="E2557">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2558" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2558" s="1">
+        <v>43482.384027777778</v>
+      </c>
+      <c r="D2558">
+        <v>0</v>
+      </c>
+      <c r="E2558">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2559" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2559" s="1">
+        <v>43482.394444444442</v>
+      </c>
+      <c r="D2559">
+        <v>0</v>
+      </c>
+      <c r="E2559">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2560" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2560" s="1">
+        <v>43482.404861111114</v>
+      </c>
+      <c r="D2560">
+        <v>0</v>
+      </c>
+      <c r="E2560">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2561" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2561" s="1">
+        <v>43482.415277777778</v>
+      </c>
+      <c r="D2561">
+        <v>0</v>
+      </c>
+      <c r="E2561">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2562" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2562" s="1">
+        <v>43482.425694444442</v>
+      </c>
+      <c r="D2562">
+        <v>0</v>
+      </c>
+      <c r="E2562">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2563" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2563" s="1">
+        <v>43482.436111111114</v>
+      </c>
+      <c r="D2563">
+        <v>0</v>
+      </c>
+      <c r="E2563">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2564" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2564" s="1">
+        <v>43482.446527777778</v>
+      </c>
+      <c r="D2564">
+        <v>0</v>
+      </c>
+      <c r="E2564">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2565" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2565" s="1">
+        <v>43482.456944444442</v>
+      </c>
+      <c r="D2565">
+        <v>0</v>
+      </c>
+      <c r="E2565">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2566" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2566" s="1">
+        <v>43482.467361111114</v>
+      </c>
+      <c r="D2566">
+        <v>0</v>
+      </c>
+      <c r="E2566">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2567" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2567" s="1">
+        <v>43482.477777777778</v>
+      </c>
+      <c r="D2567">
+        <v>0</v>
+      </c>
+      <c r="E2567">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2568" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2568" s="1">
+        <v>43482.488194444442</v>
+      </c>
+      <c r="D2568">
+        <v>0</v>
+      </c>
+      <c r="E2568">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2569" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2569" s="1">
+        <v>43482.498611111114</v>
+      </c>
+      <c r="D2569">
+        <v>0</v>
+      </c>
+      <c r="E2569">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2570" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2570" s="1">
+        <v>43482.509722222225</v>
+      </c>
+      <c r="D2570">
+        <v>0</v>
+      </c>
+      <c r="E2570">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2571" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2571" s="1">
+        <v>43482.515972222223</v>
+      </c>
+      <c r="D2571">
+        <v>1</v>
+      </c>
+      <c r="F2571">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2572" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2572" s="1">
+        <v>43482.519444444442</v>
+      </c>
+      <c r="D2572">
+        <v>0</v>
+      </c>
+      <c r="E2572">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2573" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2573" s="1">
+        <v>43482.525694444441</v>
+      </c>
+      <c r="D2573">
+        <v>1</v>
+      </c>
+      <c r="F2573">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2574" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2574" s="1">
+        <v>43482.529861111114</v>
+      </c>
+      <c r="D2574">
+        <v>0</v>
+      </c>
+      <c r="E2574">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2575" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2575" s="1">
+        <v>43482.540277777778</v>
+      </c>
+      <c r="D2575">
+        <v>0</v>
+      </c>
+      <c r="E2575">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2576" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2576" s="1">
+        <v>43482.550694444442</v>
+      </c>
+      <c r="D2576">
+        <v>0</v>
+      </c>
+      <c r="E2576">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2577" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2577" s="1">
+        <v>43482.561111111114</v>
+      </c>
+      <c r="D2577">
+        <v>0</v>
+      </c>
+      <c r="E2577">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2578" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2578" s="1">
+        <v>43482.571527777778</v>
+      </c>
+      <c r="D2578">
+        <v>0</v>
+      </c>
+      <c r="E2578">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2579" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2579" s="1">
+        <v>43482.582638888889</v>
+      </c>
+      <c r="D2579">
+        <v>0</v>
+      </c>
+      <c r="E2579">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2580" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2580" s="1">
+        <v>43482.584722222222</v>
+      </c>
+      <c r="D2580">
+        <v>1</v>
+      </c>
+      <c r="F2580">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2581" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2581" s="1">
+        <v>43482.593055555553</v>
+      </c>
+      <c r="D2581">
+        <v>0</v>
+      </c>
+      <c r="E2581">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2582" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2582" s="1">
+        <v>43482.603472222225</v>
+      </c>
+      <c r="D2582">
+        <v>0</v>
+      </c>
+      <c r="E2582">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2583" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2583" s="1">
+        <v>43482.613888888889</v>
+      </c>
+      <c r="D2583">
+        <v>0</v>
+      </c>
+      <c r="E2583">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2584" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2584" s="1">
+        <v>43482.624305555553</v>
+      </c>
+      <c r="D2584">
+        <v>0</v>
+      </c>
+      <c r="E2584">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2585" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2585" s="1">
+        <v>43482.634722222225</v>
+      </c>
+      <c r="D2585">
+        <v>0</v>
+      </c>
+      <c r="E2585">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2586" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2586" s="1">
+        <v>43482.645138888889</v>
+      </c>
+      <c r="D2586">
+        <v>0</v>
+      </c>
+      <c r="E2586">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2587" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2587" s="1">
+        <v>43482.655555555553</v>
+      </c>
+      <c r="D2587">
+        <v>0</v>
+      </c>
+      <c r="E2587">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2588" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2588" s="1">
+        <v>43482.665972222225</v>
+      </c>
+      <c r="D2588">
+        <v>0</v>
+      </c>
+      <c r="E2588">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2589" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2589" s="1">
+        <v>43482.676388888889</v>
+      </c>
+      <c r="D2589">
+        <v>0</v>
+      </c>
+      <c r="E2589">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2590" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2590" s="1">
+        <v>43482.686805555553</v>
+      </c>
+      <c r="D2590">
+        <v>0</v>
+      </c>
+      <c r="E2590">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2591" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2591" s="1">
+        <v>43482.697222222225</v>
+      </c>
+      <c r="D2591">
+        <v>0</v>
+      </c>
+      <c r="E2591">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2592" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2592" s="1">
+        <v>43482.706250000003</v>
+      </c>
+      <c r="D2592">
+        <v>1</v>
+      </c>
+      <c r="F2592">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2593" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2593" s="1">
+        <v>43482.707638888889</v>
+      </c>
+      <c r="D2593">
+        <v>0</v>
+      </c>
+      <c r="E2593">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2594" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2594" s="1">
+        <v>43482.718055555553</v>
+      </c>
+      <c r="D2594">
+        <v>0</v>
+      </c>
+      <c r="E2594">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2595" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2595" s="1">
+        <v>43482.728472222225</v>
+      </c>
+      <c r="D2595">
+        <v>0</v>
+      </c>
+      <c r="E2595">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2596" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2596" s="1">
+        <v>43482.745833333334</v>
+      </c>
+      <c r="D2596">
+        <v>1</v>
+      </c>
+      <c r="F2596">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2597" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2597" s="1">
+        <v>43482.75</v>
+      </c>
+      <c r="D2597">
+        <v>0</v>
+      </c>
+      <c r="E2597">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2598" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2598" s="1">
+        <v>43482.760416666664</v>
+      </c>
+      <c r="D2598">
+        <v>0</v>
+      </c>
+      <c r="E2598">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2599" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2599" s="1">
+        <v>43482.770833333336</v>
+      </c>
+      <c r="D2599">
+        <v>0</v>
+      </c>
+      <c r="E2599">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2600" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2600" s="1">
+        <v>43482.78125</v>
+      </c>
+      <c r="D2600">
+        <v>0</v>
+      </c>
+      <c r="E2600">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2601" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2601" s="1">
+        <v>43482.789583333331</v>
+      </c>
+      <c r="D2601">
+        <v>1</v>
+      </c>
+      <c r="F2601">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2602" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2602" s="1">
+        <v>43482.791666666664</v>
+      </c>
+      <c r="D2602">
+        <v>0</v>
+      </c>
+      <c r="E2602">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2603" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2603" s="1">
+        <v>43482.802083333336</v>
+      </c>
+      <c r="D2603">
+        <v>0</v>
+      </c>
+      <c r="E2603">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2604" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2604" s="1">
+        <v>43482.8125</v>
+      </c>
+      <c r="D2604">
+        <v>0</v>
+      </c>
+      <c r="E2604">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2605" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2605" s="1">
+        <v>43482.822916666664</v>
+      </c>
+      <c r="D2605">
+        <v>0</v>
+      </c>
+      <c r="E2605">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2606" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2606" s="1">
+        <v>43482.823611111111</v>
+      </c>
+      <c r="D2606">
+        <v>1</v>
+      </c>
+      <c r="F2606">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2607" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2607" s="1">
+        <v>43482.833333333336</v>
+      </c>
+      <c r="D2607">
+        <v>0</v>
+      </c>
+      <c r="E2607">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2608" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2608" s="1">
+        <v>43482.84375</v>
+      </c>
+      <c r="D2608">
+        <v>0</v>
+      </c>
+      <c r="E2608">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2609" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2609" s="1">
+        <v>43482.851388888892</v>
+      </c>
+      <c r="D2609">
+        <v>1</v>
+      </c>
+      <c r="F2609">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2610" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2610" s="1">
+        <v>43482.854166666664</v>
+      </c>
+      <c r="D2610">
+        <v>0</v>
+      </c>
+      <c r="E2610">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2611" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2611" s="1">
+        <v>43482.864583333336</v>
+      </c>
+      <c r="D2611">
+        <v>0</v>
+      </c>
+      <c r="E2611">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2612" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2612" s="1">
+        <v>43482.869444444441</v>
+      </c>
+      <c r="D2612">
+        <v>1</v>
+      </c>
+      <c r="F2612">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2613" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2613" s="1">
+        <v>43482.875</v>
+      </c>
+      <c r="D2613">
+        <v>0</v>
+      </c>
+      <c r="E2613">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2614" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2614" s="1">
+        <v>43482.885416666664</v>
+      </c>
+      <c r="D2614">
+        <v>0</v>
+      </c>
+      <c r="E2614">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2615" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2615" s="1">
+        <v>43482.893055555556</v>
+      </c>
+      <c r="D2615">
+        <v>1</v>
+      </c>
+      <c r="F2615">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2616" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2616" s="1">
+        <v>43482.895833333336</v>
+      </c>
+      <c r="D2616">
+        <v>0</v>
+      </c>
+      <c r="E2616">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2617" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2617" s="1">
+        <v>43482.912499999999</v>
+      </c>
+      <c r="D2617">
+        <v>1</v>
+      </c>
+      <c r="F2617">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2618" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2618" s="1">
+        <v>43482.916666666664</v>
+      </c>
+      <c r="D2618">
+        <v>0</v>
+      </c>
+      <c r="E2618">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2619" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2619" s="1">
+        <v>43482.927083333336</v>
+      </c>
+      <c r="D2619">
+        <v>0</v>
+      </c>
+      <c r="E2619">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2620" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2620" s="1">
+        <v>43482.9375</v>
+      </c>
+      <c r="D2620">
+        <v>1</v>
+      </c>
+      <c r="F2620">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2621" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2621" s="1">
+        <v>43482.938194444447</v>
+      </c>
+      <c r="D2621">
+        <v>0</v>
+      </c>
+      <c r="E2621">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2622" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2622" s="1">
+        <v>43482.948611111111</v>
+      </c>
+      <c r="D2622">
+        <v>0</v>
+      </c>
+      <c r="E2622">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2623" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2623" s="1">
+        <v>43482.959027777775</v>
+      </c>
+      <c r="D2623">
+        <v>0</v>
+      </c>
+      <c r="E2623">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2624" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2624" s="1">
+        <v>43482.969444444447</v>
+      </c>
+      <c r="D2624">
+        <v>0</v>
+      </c>
+      <c r="E2624">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2625" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2625" s="1">
+        <v>43482.979861111111</v>
+      </c>
+      <c r="D2625">
+        <v>0</v>
+      </c>
+      <c r="E2625">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2626" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2626" s="1">
+        <v>43482.990277777775</v>
+      </c>
+      <c r="D2626">
+        <v>0</v>
+      </c>
+      <c r="E2626">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2627" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2627" s="1">
+        <v>43483.000694444447</v>
+      </c>
+      <c r="D2627">
+        <v>0</v>
+      </c>
+      <c r="E2627">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2628" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2628" s="1">
+        <v>43483.011111111111</v>
+      </c>
+      <c r="D2628">
+        <v>0</v>
+      </c>
+      <c r="E2628">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2629" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2629" s="1">
+        <v>43483.021527777775</v>
+      </c>
+      <c r="D2629">
+        <v>0</v>
+      </c>
+      <c r="E2629">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2630" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2630" s="1">
+        <v>43483.031944444447</v>
+      </c>
+      <c r="D2630">
+        <v>0</v>
+      </c>
+      <c r="E2630">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2631" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2631" s="1">
+        <v>43483.042361111111</v>
+      </c>
+      <c r="D2631">
+        <v>0</v>
+      </c>
+      <c r="E2631">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2632" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2632" s="1">
+        <v>43483.052777777775</v>
+      </c>
+      <c r="D2632">
+        <v>0</v>
+      </c>
+      <c r="E2632">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2633" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2633" s="1">
+        <v>43483.063194444447</v>
+      </c>
+      <c r="D2633">
+        <v>0</v>
+      </c>
+      <c r="E2633">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2634" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2634" s="1">
+        <v>43483.073611111111</v>
+      </c>
+      <c r="D2634">
+        <v>0</v>
+      </c>
+      <c r="E2634">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2635" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2635" s="1">
+        <v>43483.074305555558</v>
+      </c>
+      <c r="D2635">
+        <v>1</v>
+      </c>
+      <c r="F2635">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2636" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2636" s="1">
+        <v>43483.084027777775</v>
+      </c>
+      <c r="D2636">
+        <v>0</v>
+      </c>
+      <c r="E2636">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2637" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2637" s="1">
+        <v>43483.094444444447</v>
+      </c>
+      <c r="D2637">
+        <v>0</v>
+      </c>
+      <c r="E2637">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2638" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2638" s="1">
+        <v>43483.104861111111</v>
+      </c>
+      <c r="D2638">
+        <v>0</v>
+      </c>
+      <c r="E2638">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2639" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2639" s="1">
+        <v>43483.115277777775</v>
+      </c>
+      <c r="D2639">
+        <v>0</v>
+      </c>
+      <c r="E2639">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2640" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2640" s="1">
+        <v>43483.125694444447</v>
+      </c>
+      <c r="D2640">
+        <v>0</v>
+      </c>
+      <c r="E2640">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2641" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2641" s="1">
+        <v>43483.136111111111</v>
+      </c>
+      <c r="D2641">
+        <v>0</v>
+      </c>
+      <c r="E2641">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2642" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2642" s="1">
+        <v>43483.146527777775</v>
+      </c>
+      <c r="D2642">
+        <v>0</v>
+      </c>
+      <c r="E2642">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2643" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2643" s="1">
+        <v>43483.156944444447</v>
+      </c>
+      <c r="D2643">
+        <v>0</v>
+      </c>
+      <c r="E2643">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2644" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2644" s="1">
+        <v>43483.167361111111</v>
+      </c>
+      <c r="D2644">
+        <v>0</v>
+      </c>
+      <c r="E2644">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2645" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2645" s="1">
+        <v>43483.177777777775</v>
+      </c>
+      <c r="D2645">
+        <v>0</v>
+      </c>
+      <c r="E2645">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2646" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2646" s="1">
+        <v>43483.188888888886</v>
+      </c>
+      <c r="D2646">
+        <v>0</v>
+      </c>
+      <c r="E2646">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2647" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2647" s="1">
+        <v>43483.188888888886</v>
+      </c>
+      <c r="D2647">
+        <v>1</v>
+      </c>
+      <c r="F2647">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2648" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2648" s="1">
+        <v>43483.199305555558</v>
+      </c>
+      <c r="D2648">
+        <v>0</v>
+      </c>
+      <c r="E2648">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2649" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2649" s="1">
+        <v>43483.209722222222</v>
+      </c>
+      <c r="D2649">
+        <v>0</v>
+      </c>
+      <c r="E2649">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2650" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2650" s="1">
+        <v>43483.21597222222</v>
+      </c>
+      <c r="D2650">
+        <v>1</v>
+      </c>
+      <c r="F2650">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2651" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2651" s="1">
+        <v>43483.220138888886</v>
+      </c>
+      <c r="D2651">
+        <v>0</v>
+      </c>
+      <c r="E2651">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2652" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2652" s="1">
+        <v>43483.230555555558</v>
+      </c>
+      <c r="D2652">
+        <v>0</v>
+      </c>
+      <c r="E2652">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2653" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2653" s="1">
+        <v>43483.240972222222</v>
+      </c>
+      <c r="D2653">
+        <v>0</v>
+      </c>
+      <c r="E2653">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2654" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2654" s="1">
+        <v>43483.243055555555</v>
+      </c>
+      <c r="D2654">
+        <v>1</v>
+      </c>
+      <c r="F2654">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2655" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2655" s="1">
+        <v>43483.251388888886</v>
+      </c>
+      <c r="D2655">
+        <v>0</v>
+      </c>
+      <c r="E2655">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2656" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2656" s="1">
+        <v>43483.261805555558</v>
+      </c>
+      <c r="D2656">
+        <v>0</v>
+      </c>
+      <c r="E2656">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2657" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2657" s="1">
+        <v>43483.272222222222</v>
+      </c>
+      <c r="D2657">
+        <v>0</v>
+      </c>
+      <c r="E2657">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2658" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2658" s="1">
+        <v>43483.282638888886</v>
+      </c>
+      <c r="D2658">
+        <v>0</v>
+      </c>
+      <c r="E2658">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2659" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2659" s="1">
+        <v>43483.293055555558</v>
+      </c>
+      <c r="D2659">
+        <v>0</v>
+      </c>
+      <c r="E2659">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2660" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2660" s="1">
+        <v>43483.303472222222</v>
+      </c>
+      <c r="D2660">
+        <v>0</v>
+      </c>
+      <c r="E2660">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2661" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2661" s="1">
+        <v>43483.313888888886</v>
+      </c>
+      <c r="D2661">
+        <v>0</v>
+      </c>
+      <c r="E2661">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2662" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2662" s="1">
+        <v>43483.324305555558</v>
+      </c>
+      <c r="D2662">
+        <v>0</v>
+      </c>
+      <c r="E2662">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2663" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2663" s="1">
+        <v>43483.335416666669</v>
+      </c>
+      <c r="D2663">
+        <v>0</v>
+      </c>
+      <c r="E2663">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2664" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2664" s="1">
+        <v>43483.340277777781</v>
+      </c>
+      <c r="D2664">
+        <v>1</v>
+      </c>
+      <c r="F2664">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2665" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2665" s="1">
+        <v>43483.345833333333</v>
+      </c>
+      <c r="D2665">
+        <v>0</v>
+      </c>
+      <c r="E2665">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2666" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2666" s="1">
+        <v>43483.356249999997</v>
+      </c>
+      <c r="D2666">
+        <v>0</v>
+      </c>
+      <c r="E2666">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2667" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2667" s="1">
+        <v>43483.366666666669</v>
+      </c>
+      <c r="D2667">
+        <v>0</v>
+      </c>
+      <c r="E2667">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2668" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2668" s="1">
+        <v>43483.377083333333</v>
+      </c>
+      <c r="D2668">
+        <v>0</v>
+      </c>
+      <c r="E2668">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2669" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2669" s="1">
+        <v>43483.387499999997</v>
+      </c>
+      <c r="D2669">
+        <v>0</v>
+      </c>
+      <c r="E2669">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2670" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2670" s="1">
+        <v>43483.397916666669</v>
+      </c>
+      <c r="D2670">
+        <v>0</v>
+      </c>
+      <c r="E2670">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2671" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2671" s="1">
+        <v>43483.408333333333</v>
+      </c>
+      <c r="D2671">
+        <v>0</v>
+      </c>
+      <c r="E2671">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2672" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2672" s="1">
+        <v>43483.418749999997</v>
+      </c>
+      <c r="D2672">
+        <v>0</v>
+      </c>
+      <c r="E2672">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2673" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2673" s="1">
+        <v>43483.429166666669</v>
+      </c>
+      <c r="D2673">
+        <v>0</v>
+      </c>
+      <c r="E2673">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2674" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2674" s="1">
+        <v>43483.439583333333</v>
+      </c>
+      <c r="D2674">
+        <v>0</v>
+      </c>
+      <c r="E2674">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2675" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2675" s="1">
+        <v>43483.45</v>
+      </c>
+      <c r="D2675">
+        <v>0</v>
+      </c>
+      <c r="E2675">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2676" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2676" s="1">
+        <v>43483.460416666669</v>
+      </c>
+      <c r="D2676">
+        <v>0</v>
+      </c>
+      <c r="E2676">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2677" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2677" s="1">
+        <v>43483.470833333333</v>
+      </c>
+      <c r="D2677">
+        <v>0</v>
+      </c>
+      <c r="E2677">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2678" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2678" s="1">
+        <v>43483.481249999997</v>
+      </c>
+      <c r="D2678">
+        <v>0</v>
+      </c>
+      <c r="E2678">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2679" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2679" s="1">
+        <v>43483.491666666669</v>
+      </c>
+      <c r="D2679">
+        <v>0</v>
+      </c>
+      <c r="E2679">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2680" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2680" s="1">
+        <v>43483.502083333333</v>
+      </c>
+      <c r="D2680">
+        <v>0</v>
+      </c>
+      <c r="E2680">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2681" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2681" s="1">
+        <v>43483.512499999997</v>
+      </c>
+      <c r="D2681">
+        <v>0</v>
+      </c>
+      <c r="E2681">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2682" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2682" s="1">
+        <v>43483.522916666669</v>
+      </c>
+      <c r="D2682">
+        <v>0</v>
+      </c>
+      <c r="E2682">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2683" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2683" s="1">
+        <v>43483.534722222219</v>
+      </c>
+      <c r="D2683">
+        <v>1</v>
+      </c>
+      <c r="F2683">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2684" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2684" s="1">
+        <v>43483.544444444444</v>
+      </c>
+      <c r="D2684">
+        <v>0</v>
+      </c>
+      <c r="E2684">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2685" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2685" s="1">
+        <v>43483.554861111108</v>
+      </c>
+      <c r="D2685">
+        <v>0</v>
+      </c>
+      <c r="E2685">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2686" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2686" s="1">
+        <v>43483.56527777778</v>
+      </c>
+      <c r="D2686">
+        <v>0</v>
+      </c>
+      <c r="E2686">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2687" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2687" s="1">
+        <v>43483.565972222219</v>
+      </c>
+      <c r="D2687">
+        <v>1</v>
+      </c>
+      <c r="F2687">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2688" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2688" s="1">
+        <v>43483.575694444444</v>
+      </c>
+      <c r="D2688">
+        <v>0</v>
+      </c>
+      <c r="E2688">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2689" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2689" s="1">
+        <v>43483.583333333336</v>
+      </c>
+      <c r="D2689">
+        <v>1</v>
+      </c>
+      <c r="F2689">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2690" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2690" s="1">
+        <v>43483.586111111108</v>
+      </c>
+      <c r="D2690">
+        <v>0</v>
+      </c>
+      <c r="E2690">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2691" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2691" s="1">
+        <v>43483.59652777778</v>
+      </c>
+      <c r="D2691">
+        <v>0</v>
+      </c>
+      <c r="E2691">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2692" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2692" s="1">
+        <v>43483.606944444444</v>
+      </c>
+      <c r="D2692">
+        <v>0</v>
+      </c>
+      <c r="E2692">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2693" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2693" s="1">
+        <v>43483.618055555555</v>
+      </c>
+      <c r="D2693">
+        <v>1</v>
+      </c>
+      <c r="F2693">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2694" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2694" s="1">
+        <v>43483.62777777778</v>
+      </c>
+      <c r="D2694">
+        <v>0</v>
+      </c>
+      <c r="E2694">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2695" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2695" s="1">
+        <v>43483.638194444444</v>
+      </c>
+      <c r="D2695">
+        <v>0</v>
+      </c>
+      <c r="E2695">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2696" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2696" s="1">
+        <v>43483.648611111108</v>
+      </c>
+      <c r="D2696">
+        <v>0</v>
+      </c>
+      <c r="E2696">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2697" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2697" s="1">
+        <v>43483.65902777778</v>
+      </c>
+      <c r="D2697">
+        <v>0</v>
+      </c>
+      <c r="E2697">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2698" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2698" s="1">
+        <v>43483.669444444444</v>
+      </c>
+      <c r="D2698">
+        <v>0</v>
+      </c>
+      <c r="E2698">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2699" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2699" s="1">
+        <v>43483.679861111108</v>
+      </c>
+      <c r="D2699">
+        <v>0</v>
+      </c>
+      <c r="E2699">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2700" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2700" s="1">
+        <v>43483.69027777778</v>
+      </c>
+      <c r="D2700">
+        <v>0</v>
+      </c>
+      <c r="E2700">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2701" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2701" s="1">
+        <v>43483.700694444444</v>
+      </c>
+      <c r="D2701">
+        <v>0</v>
+      </c>
+      <c r="E2701">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2702" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2702" s="1">
+        <v>43483.711111111108</v>
+      </c>
+      <c r="D2702">
+        <v>0</v>
+      </c>
+      <c r="E2702">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2703" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2703" s="1">
+        <v>43483.72152777778</v>
+      </c>
+      <c r="D2703">
+        <v>0</v>
+      </c>
+      <c r="E2703">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2704" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2704" s="1">
+        <v>43483.728472222225</v>
+      </c>
+      <c r="D2704">
+        <v>1</v>
+      </c>
+      <c r="F2704">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2705" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2705" s="1">
+        <v>43483.729861111111</v>
+      </c>
+      <c r="D2705">
+        <v>1</v>
+      </c>
+      <c r="F2705">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2706" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2706" s="1">
+        <v>43483.732638888891</v>
+      </c>
+      <c r="D2706">
+        <v>0</v>
+      </c>
+      <c r="E2706">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2707" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2707" s="1">
+        <v>43483.734027777777</v>
+      </c>
+      <c r="D2707">
+        <v>1</v>
+      </c>
+      <c r="F2707">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2708" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2708" s="1">
+        <v>43483.740972222222</v>
+      </c>
+      <c r="D2708">
+        <v>1</v>
+      </c>
+      <c r="F2708">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2709" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2709" s="1">
+        <v>43483.742361111108</v>
+      </c>
+      <c r="D2709">
+        <v>0</v>
+      </c>
+      <c r="E2709">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2710" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2710" s="1">
+        <v>43483.751388888886</v>
+      </c>
+      <c r="D2710">
+        <v>1</v>
+      </c>
+      <c r="F2710">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2711" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2711" s="1">
+        <v>43483.753472222219</v>
+      </c>
+      <c r="D2711">
+        <v>0</v>
+      </c>
+      <c r="E2711">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2712" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2712" s="1">
+        <v>43483.761805555558</v>
+      </c>
+      <c r="D2712">
+        <v>1</v>
+      </c>
+      <c r="F2712">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2713" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2713" s="1">
+        <v>43483.763888888891</v>
+      </c>
+      <c r="D2713">
+        <v>0</v>
+      </c>
+      <c r="E2713">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2714" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2714" s="1">
+        <v>43483.773611111108</v>
+      </c>
+      <c r="D2714">
+        <v>1</v>
+      </c>
+      <c r="F2714">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2715" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2715" s="1">
+        <v>43483.774305555555</v>
+      </c>
+      <c r="D2715">
+        <v>0</v>
+      </c>
+      <c r="E2715">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2716" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2716" s="1">
+        <v>43483.784722222219</v>
+      </c>
+      <c r="D2716">
+        <v>0</v>
+      </c>
+      <c r="E2716">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2717" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2717" s="1">
+        <v>43483.793749999997</v>
+      </c>
+      <c r="D2717">
+        <v>1</v>
+      </c>
+      <c r="F2717">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2718" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2718" s="1">
+        <v>43483.795138888891</v>
+      </c>
+      <c r="D2718">
+        <v>0</v>
+      </c>
+      <c r="E2718">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2719" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2719" s="1">
+        <v>43483.8</v>
+      </c>
+      <c r="D2719">
+        <v>1</v>
+      </c>
+      <c r="F2719">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2720" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2720" s="1">
+        <v>43483.805555555555</v>
+      </c>
+      <c r="D2720">
+        <v>0</v>
+      </c>
+      <c r="E2720">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2721" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2721" s="1">
+        <v>43483.80972222222</v>
+      </c>
+      <c r="D2721">
+        <v>1</v>
+      </c>
+      <c r="F2721">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2722" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2722" s="1">
+        <v>43483.815972222219</v>
+      </c>
+      <c r="D2722">
+        <v>0</v>
+      </c>
+      <c r="E2722">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2723" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2723" s="1">
+        <v>43483.826388888891</v>
+      </c>
+      <c r="D2723">
+        <v>0</v>
+      </c>
+      <c r="E2723">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2724" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2724" s="1">
+        <v>43483.836805555555</v>
+      </c>
+      <c r="D2724">
+        <v>0</v>
+      </c>
+      <c r="E2724">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2725" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2725" s="1">
+        <v>43483.847222222219</v>
+      </c>
+      <c r="D2725">
+        <v>0</v>
+      </c>
+      <c r="E2725">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2726" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2726" s="1">
+        <v>43483.857638888891</v>
+      </c>
+      <c r="D2726">
+        <v>0</v>
+      </c>
+      <c r="E2726">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2727" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2727" s="1">
+        <v>43483.868055555555</v>
+      </c>
+      <c r="D2727">
+        <v>0</v>
+      </c>
+      <c r="E2727">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2728" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2728" s="1">
+        <v>43483.878472222219</v>
+      </c>
+      <c r="D2728">
+        <v>0</v>
+      </c>
+      <c r="E2728">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2729" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2729" s="1">
+        <v>43483.888888888891</v>
+      </c>
+      <c r="D2729">
+        <v>0</v>
+      </c>
+      <c r="E2729">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2730" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2730" s="1">
+        <v>43483.899305555555</v>
+      </c>
+      <c r="D2730">
+        <v>0</v>
+      </c>
+      <c r="E2730">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2731" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2731" s="1">
+        <v>43483.910416666666</v>
+      </c>
+      <c r="D2731">
+        <v>0</v>
+      </c>
+      <c r="E2731">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2732" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2732" s="1">
+        <v>43483.911805555559</v>
+      </c>
+      <c r="D2732">
+        <v>1</v>
+      </c>
+      <c r="F2732">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2733" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2733" s="1">
+        <v>43483.92083333333</v>
+      </c>
+      <c r="D2733">
+        <v>0</v>
+      </c>
+      <c r="E2733">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2734" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2734" s="1">
+        <v>43483.931250000001</v>
+      </c>
+      <c r="D2734">
+        <v>0</v>
+      </c>
+      <c r="E2734">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2735" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2735" s="1">
+        <v>43483.941666666666</v>
+      </c>
+      <c r="D2735">
+        <v>0</v>
+      </c>
+      <c r="E2735">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2736" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2736" s="1">
+        <v>43483.95208333333</v>
+      </c>
+      <c r="D2736">
+        <v>0</v>
+      </c>
+      <c r="E2736">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2737" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2737" s="1">
+        <v>43483.962500000001</v>
+      </c>
+      <c r="D2737">
+        <v>0</v>
+      </c>
+      <c r="E2737">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2738" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2738" s="1">
+        <v>43483.972916666666</v>
+      </c>
+      <c r="D2738">
+        <v>0</v>
+      </c>
+      <c r="E2738">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2739" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2739" s="1">
+        <v>43483.98333333333</v>
+      </c>
+      <c r="D2739">
+        <v>0</v>
+      </c>
+      <c r="E2739">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2740" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2740" s="1">
+        <v>43483.993750000001</v>
+      </c>
+      <c r="D2740">
+        <v>0</v>
+      </c>
+      <c r="E2740">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2741" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2741" s="1">
+        <v>43484.004166666666</v>
+      </c>
+      <c r="D2741">
+        <v>0</v>
+      </c>
+      <c r="E2741">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2742" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2742" s="1">
+        <v>43484.01458333333</v>
+      </c>
+      <c r="D2742">
+        <v>0</v>
+      </c>
+      <c r="E2742">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2743" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2743" s="1">
+        <v>43484.025000000001</v>
+      </c>
+      <c r="D2743">
+        <v>0</v>
+      </c>
+      <c r="E2743">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2744" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2744" s="1">
+        <v>43484.035416666666</v>
+      </c>
+      <c r="D2744">
+        <v>0</v>
+      </c>
+      <c r="E2744">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2745" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2745" s="1">
+        <v>43484.04583333333</v>
+      </c>
+      <c r="D2745">
+        <v>0</v>
+      </c>
+      <c r="E2745">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2746" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2746" s="1">
+        <v>43484.056250000001</v>
+      </c>
+      <c r="D2746">
+        <v>0</v>
+      </c>
+      <c r="E2746">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2747" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2747" s="1">
+        <v>43484.066666666666</v>
+      </c>
+      <c r="D2747">
+        <v>0</v>
+      </c>
+      <c r="E2747">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2748" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2748" s="1">
+        <v>43484.07708333333</v>
+      </c>
+      <c r="D2748">
+        <v>0</v>
+      </c>
+      <c r="E2748">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2749" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2749" s="1">
+        <v>43484.087500000001</v>
+      </c>
+      <c r="D2749">
+        <v>0</v>
+      </c>
+      <c r="E2749">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2750" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2750" s="1">
+        <v>43484.097916666666</v>
+      </c>
+      <c r="D2750">
+        <v>0</v>
+      </c>
+      <c r="E2750">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2751" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2751" s="1">
+        <v>43484.10833333333</v>
+      </c>
+      <c r="D2751">
+        <v>0</v>
+      </c>
+      <c r="E2751">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2752" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2752" s="1">
+        <v>43484.118750000001</v>
+      </c>
+      <c r="D2752">
+        <v>0</v>
+      </c>
+      <c r="E2752">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2753" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2753" s="1">
+        <v>43484.129166666666</v>
+      </c>
+      <c r="D2753">
+        <v>0</v>
+      </c>
+      <c r="E2753">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2754" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2754" s="1">
+        <v>43484.140277777777</v>
+      </c>
+      <c r="D2754">
+        <v>0</v>
+      </c>
+      <c r="E2754">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2755" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2755" s="1">
+        <v>43484.145138888889</v>
+      </c>
+      <c r="D2755">
+        <v>1</v>
+      </c>
+      <c r="F2755">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2756" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2756" s="1">
+        <v>43484.150694444441</v>
+      </c>
+      <c r="D2756">
+        <v>0</v>
+      </c>
+      <c r="E2756">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2757" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2757" s="1">
+        <v>43484.161111111112</v>
+      </c>
+      <c r="D2757">
+        <v>0</v>
+      </c>
+      <c r="E2757">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2758" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2758" s="1">
+        <v>43484.171527777777</v>
+      </c>
+      <c r="D2758">
+        <v>0</v>
+      </c>
+      <c r="E2758">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2759" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2759" s="1">
+        <v>43484.181944444441</v>
+      </c>
+      <c r="D2759">
+        <v>0</v>
+      </c>
+      <c r="E2759">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2760" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2760" s="1">
+        <v>43484.191666666666</v>
+      </c>
+      <c r="D2760">
+        <v>1</v>
+      </c>
+      <c r="F2760">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2761" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2761" s="1">
+        <v>43484.192361111112</v>
+      </c>
+      <c r="D2761">
+        <v>0</v>
+      </c>
+      <c r="E2761">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2762" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2762" s="1">
+        <v>43484.202777777777</v>
+      </c>
+      <c r="D2762">
+        <v>0</v>
+      </c>
+      <c r="E2762">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2763" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2763" s="1">
+        <v>43484.213194444441</v>
+      </c>
+      <c r="D2763">
+        <v>0</v>
+      </c>
+      <c r="E2763">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2764" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2764" s="1">
+        <v>43484.223611111112</v>
+      </c>
+      <c r="D2764">
+        <v>0</v>
+      </c>
+      <c r="E2764">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2765" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2765" s="1">
+        <v>43484.234027777777</v>
+      </c>
+      <c r="D2765">
+        <v>0</v>
+      </c>
+      <c r="E2765">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2766" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2766" s="1">
+        <v>43484.244444444441</v>
+      </c>
+      <c r="D2766">
+        <v>0</v>
+      </c>
+      <c r="E2766">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2767" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2767" s="1">
+        <v>43484.254861111112</v>
+      </c>
+      <c r="D2767">
+        <v>0</v>
+      </c>
+      <c r="E2767">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2768" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2768" s="1">
+        <v>43484.265277777777</v>
+      </c>
+      <c r="D2768">
+        <v>0</v>
+      </c>
+      <c r="E2768">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2769" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2769" s="1">
+        <v>43484.275694444441</v>
+      </c>
+      <c r="D2769">
+        <v>0</v>
+      </c>
+      <c r="E2769">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2770" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2770" s="1">
+        <v>43484.288194444445</v>
+      </c>
+      <c r="D2770">
+        <v>1</v>
+      </c>
+      <c r="F2770">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2771" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2771" s="1">
+        <v>43484.296527777777</v>
+      </c>
+      <c r="D2771">
+        <v>0</v>
+      </c>
+      <c r="E2771">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2772" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2772" s="1">
+        <v>43484.306944444441</v>
+      </c>
+      <c r="D2772">
+        <v>0</v>
+      </c>
+      <c r="E2772">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2773" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2773" s="1">
+        <v>43484.317361111112</v>
+      </c>
+      <c r="D2773">
+        <v>0</v>
+      </c>
+      <c r="E2773">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2774" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2774" s="1">
+        <v>43484.327777777777</v>
+      </c>
+      <c r="D2774">
+        <v>0</v>
+      </c>
+      <c r="E2774">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2775" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2775" s="1">
+        <v>43484.32916666667</v>
+      </c>
+      <c r="D2775">
+        <v>1</v>
+      </c>
+      <c r="F2775">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2776" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2776" s="1">
+        <v>43484.338194444441</v>
+      </c>
+      <c r="D2776">
+        <v>0</v>
+      </c>
+      <c r="E2776">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2777" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2777" s="1">
+        <v>43484.348611111112</v>
+      </c>
+      <c r="D2777">
+        <v>0</v>
+      </c>
+      <c r="E2777">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2778" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2778" s="1">
+        <v>43484.359722222223</v>
+      </c>
+      <c r="D2778">
+        <v>0</v>
+      </c>
+      <c r="E2778">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2779" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2779" s="1">
+        <v>43484.366666666669</v>
+      </c>
+      <c r="D2779">
+        <v>1</v>
+      </c>
+      <c r="F2779">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2780" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2780" s="1">
+        <v>43484.370138888888</v>
+      </c>
+      <c r="D2780">
+        <v>0</v>
+      </c>
+      <c r="E2780">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2781" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2781" s="1">
+        <v>43484.380555555559</v>
+      </c>
+      <c r="D2781">
+        <v>0</v>
+      </c>
+      <c r="E2781">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2782" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2782" s="1">
+        <v>43484.390972222223</v>
+      </c>
+      <c r="D2782">
+        <v>0</v>
+      </c>
+      <c r="E2782">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2783" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2783" s="1">
+        <v>43484.401388888888</v>
+      </c>
+      <c r="D2783">
+        <v>0</v>
+      </c>
+      <c r="E2783">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2784" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2784" s="1">
+        <v>43484.411805555559</v>
+      </c>
+      <c r="D2784">
+        <v>0</v>
+      </c>
+      <c r="E2784">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2785" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2785" s="1">
+        <v>43484.422222222223</v>
+      </c>
+      <c r="D2785">
+        <v>0</v>
+      </c>
+      <c r="E2785">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2786" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2786" s="1">
+        <v>43484.432638888888</v>
+      </c>
+      <c r="D2786">
+        <v>0</v>
+      </c>
+      <c r="E2786">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2787" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2787" s="1">
+        <v>43484.443055555559</v>
+      </c>
+      <c r="D2787">
+        <v>0</v>
+      </c>
+      <c r="E2787">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2788" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2788" s="1">
+        <v>43484.462500000001</v>
+      </c>
+      <c r="D2788">
+        <v>1</v>
+      </c>
+      <c r="F2788">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2789" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2789" s="1">
+        <v>43484.463888888888</v>
+      </c>
+      <c r="D2789">
+        <v>0</v>
+      </c>
+      <c r="E2789">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2790" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2790" s="1">
+        <v>43484.474305555559</v>
+      </c>
+      <c r="D2790">
+        <v>0</v>
+      </c>
+      <c r="E2790">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2791" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2791" s="1">
+        <v>43484.48541666667</v>
+      </c>
+      <c r="D2791">
+        <v>0</v>
+      </c>
+      <c r="E2791">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2792" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2792" s="1">
+        <v>43484.490972222222</v>
+      </c>
+      <c r="D2792">
+        <v>1</v>
+      </c>
+      <c r="F2792">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2793" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2793" s="1">
+        <v>43484.495833333334</v>
+      </c>
+      <c r="D2793">
+        <v>0</v>
+      </c>
+      <c r="E2793">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2794" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2794" s="1">
+        <v>43484.506249999999</v>
+      </c>
+      <c r="D2794">
+        <v>0</v>
+      </c>
+      <c r="E2794">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2795" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2795" s="1">
+        <v>43484.51666666667</v>
+      </c>
+      <c r="D2795">
+        <v>0</v>
+      </c>
+      <c r="E2795">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2796" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2796" s="1">
+        <v>43484.527083333334</v>
+      </c>
+      <c r="D2796">
+        <v>0</v>
+      </c>
+      <c r="E2796">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2797" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2797" s="1">
+        <v>43484.537499999999</v>
+      </c>
+      <c r="D2797">
+        <v>0</v>
+      </c>
+      <c r="E2797">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2798" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2798" s="1">
+        <v>43484.54791666667</v>
+      </c>
+      <c r="D2798">
+        <v>0</v>
+      </c>
+      <c r="E2798">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2799" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2799" s="1">
+        <v>43484.558333333334</v>
+      </c>
+      <c r="D2799">
+        <v>0</v>
+      </c>
+      <c r="E2799">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2800" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2800" s="1">
+        <v>43484.568749999999</v>
+      </c>
+      <c r="D2800">
+        <v>0</v>
+      </c>
+      <c r="E2800">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2801" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2801" s="1">
+        <v>43484.578472222223</v>
+      </c>
+      <c r="D2801">
+        <v>0</v>
+      </c>
+      <c r="E2801">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2802" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2802" s="1">
+        <v>43484.587500000001</v>
+      </c>
+      <c r="D2802">
+        <v>1</v>
+      </c>
+      <c r="F2802">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2803" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2803" s="1">
+        <v>43484.588888888888</v>
+      </c>
+      <c r="D2803">
+        <v>0</v>
+      </c>
+      <c r="E2803">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2804" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2804" s="1">
+        <v>43484.599305555559</v>
+      </c>
+      <c r="D2804">
+        <v>0</v>
+      </c>
+      <c r="E2804">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2805" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2805" s="1">
+        <v>43484.609722222223</v>
+      </c>
+      <c r="D2805">
+        <v>0</v>
+      </c>
+      <c r="E2805">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2806" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2806" s="1">
+        <v>43484.620833333334</v>
+      </c>
+      <c r="D2806">
+        <v>0</v>
+      </c>
+      <c r="E2806">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2807" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2807" s="1">
+        <v>43484.62777777778</v>
+      </c>
+      <c r="D2807">
+        <v>1</v>
+      </c>
+      <c r="F2807">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2808" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2808" s="1">
+        <v>43484.633333333331</v>
+      </c>
+      <c r="D2808">
+        <v>1</v>
+      </c>
+      <c r="F2808">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2809" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2809" s="1">
+        <v>43484.852083333331</v>
+      </c>
+      <c r="D2809">
+        <v>0</v>
+      </c>
+      <c r="E2809">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2810" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2810" s="1">
+        <v>43484.862500000003</v>
+      </c>
+      <c r="D2810">
+        <v>0</v>
+      </c>
+      <c r="E2810">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2811" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2811" s="1">
+        <v>43484.872916666667</v>
+      </c>
+      <c r="D2811">
+        <v>0</v>
+      </c>
+      <c r="E2811">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2812" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2812" s="1">
+        <v>43484.883333333331</v>
+      </c>
+      <c r="D2812">
+        <v>0</v>
+      </c>
+      <c r="E2812">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2813" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2813" s="1">
+        <v>43484.893750000003</v>
+      </c>
+      <c r="D2813">
+        <v>0</v>
+      </c>
+      <c r="E2813">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2814" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2814" s="1">
+        <v>43484.904166666667</v>
+      </c>
+      <c r="D2814">
+        <v>0</v>
+      </c>
+      <c r="E2814">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2815" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2815" s="1">
+        <v>43484.914583333331</v>
+      </c>
+      <c r="D2815">
+        <v>0</v>
+      </c>
+      <c r="E2815">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2816" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2816" s="1">
+        <v>43484.925000000003</v>
+      </c>
+      <c r="D2816">
+        <v>0</v>
+      </c>
+      <c r="E2816">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2817" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2817" s="1">
+        <v>43484.935416666667</v>
+      </c>
+      <c r="D2817">
+        <v>0</v>
+      </c>
+      <c r="E2817">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2818" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2818" s="1">
+        <v>43484.945833333331</v>
+      </c>
+      <c r="D2818">
+        <v>0</v>
+      </c>
+      <c r="E2818">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2819" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2819" s="1">
+        <v>43484.956250000003</v>
+      </c>
+      <c r="D2819">
+        <v>0</v>
+      </c>
+      <c r="E2819">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2820" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2820" s="1">
+        <v>43484.966666666667</v>
+      </c>
+      <c r="D2820">
+        <v>0</v>
+      </c>
+      <c r="E2820">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2821" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2821" s="1">
+        <v>43484.977083333331</v>
+      </c>
+      <c r="D2821">
+        <v>0</v>
+      </c>
+      <c r="E2821">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2822" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2822" s="1">
+        <v>43484.987500000003</v>
+      </c>
+      <c r="D2822">
+        <v>0</v>
+      </c>
+      <c r="E2822">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2823" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2823" s="1">
+        <v>43484.997916666667</v>
+      </c>
+      <c r="D2823">
+        <v>0</v>
+      </c>
+      <c r="E2823">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2824" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2824" s="1">
+        <v>43485.008333333331</v>
+      </c>
+      <c r="D2824">
+        <v>0</v>
+      </c>
+      <c r="E2824">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2825" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2825" s="1">
+        <v>43485.018750000003</v>
+      </c>
+      <c r="D2825">
+        <v>0</v>
+      </c>
+      <c r="E2825">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2826" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2826" s="1">
+        <v>43485.029166666667</v>
+      </c>
+      <c r="D2826">
+        <v>0</v>
+      </c>
+      <c r="E2826">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2827" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2827" s="1">
+        <v>43485.039583333331</v>
+      </c>
+      <c r="D2827">
+        <v>0</v>
+      </c>
+      <c r="E2827">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2828" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2828" s="1">
+        <v>43485.05</v>
+      </c>
+      <c r="D2828">
+        <v>0</v>
+      </c>
+      <c r="E2828">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2829" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2829" s="1">
+        <v>43485.060416666667</v>
+      </c>
+      <c r="D2829">
+        <v>0</v>
+      </c>
+      <c r="E2829">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2830" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2830" s="1">
+        <v>43485.070833333331</v>
+      </c>
+      <c r="D2830">
+        <v>0</v>
+      </c>
+      <c r="E2830">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2831" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2831" s="1">
+        <v>43485.081250000003</v>
+      </c>
+      <c r="D2831">
+        <v>0</v>
+      </c>
+      <c r="E2831">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2832" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2832" s="1">
+        <v>43485.091666666667</v>
+      </c>
+      <c r="D2832">
+        <v>0</v>
+      </c>
+      <c r="E2832">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2833" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2833" s="1">
+        <v>43485.102083333331</v>
+      </c>
+      <c r="D2833">
+        <v>0</v>
+      </c>
+      <c r="E2833">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2834" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2834" s="1">
+        <v>43485.112500000003</v>
+      </c>
+      <c r="D2834">
+        <v>0</v>
+      </c>
+      <c r="E2834">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2835" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2835" s="1">
+        <v>43485.122916666667</v>
+      </c>
+      <c r="D2835">
+        <v>0</v>
+      </c>
+      <c r="E2835">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2836" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2836" s="1">
+        <v>43485.133333333331</v>
+      </c>
+      <c r="D2836">
+        <v>0</v>
+      </c>
+      <c r="E2836">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2837" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2837" s="1">
+        <v>43485.143750000003</v>
+      </c>
+      <c r="D2837">
+        <v>0</v>
+      </c>
+      <c r="E2837">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2838" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2838" s="1">
+        <v>43485.154166666667</v>
+      </c>
+      <c r="D2838">
+        <v>0</v>
+      </c>
+      <c r="E2838">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2839" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2839" s="1">
+        <v>43485.164583333331</v>
+      </c>
+      <c r="D2839">
+        <v>0</v>
+      </c>
+      <c r="E2839">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2840" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2840" s="1">
+        <v>43485.175000000003</v>
+      </c>
+      <c r="D2840">
+        <v>0</v>
+      </c>
+      <c r="E2840">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2841" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2841" s="1">
+        <v>43485.179861111108</v>
+      </c>
+      <c r="D2841">
+        <v>1</v>
+      </c>
+      <c r="F2841">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2842" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2842" s="1">
+        <v>43485.185416666667</v>
+      </c>
+      <c r="D2842">
+        <v>0</v>
+      </c>
+      <c r="E2842">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2843" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2843" s="1">
+        <v>43485.195833333331</v>
+      </c>
+      <c r="D2843">
+        <v>0</v>
+      </c>
+      <c r="E2843">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2844" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2844" s="1">
+        <v>43485.206250000003</v>
+      </c>
+      <c r="D2844">
+        <v>0</v>
+      </c>
+      <c r="E2844">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2845" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2845" s="1">
+        <v>43485.216666666667</v>
+      </c>
+      <c r="D2845">
+        <v>0</v>
+      </c>
+      <c r="E2845">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2846" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2846" s="1">
+        <v>43485.227083333331</v>
+      </c>
+      <c r="D2846">
+        <v>0</v>
+      </c>
+      <c r="E2846">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2847" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2847" s="1">
+        <v>43485.237500000003</v>
+      </c>
+      <c r="D2847">
+        <v>0</v>
+      </c>
+      <c r="E2847">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2848" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2848" s="1">
+        <v>43485.247916666667</v>
+      </c>
+      <c r="D2848">
+        <v>0</v>
+      </c>
+      <c r="E2848">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2849" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2849" s="1">
+        <v>43485.254861111112</v>
+      </c>
+      <c r="D2849">
+        <v>1</v>
+      </c>
+      <c r="F2849">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2850" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2850" s="1">
+        <v>43485.258333333331</v>
+      </c>
+      <c r="D2850">
+        <v>0</v>
+      </c>
+      <c r="E2850">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2851" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2851" s="1">
+        <v>43485.268750000003</v>
+      </c>
+      <c r="D2851">
+        <v>0</v>
+      </c>
+      <c r="E2851">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2852" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2852" s="1">
+        <v>43485.279166666667</v>
+      </c>
+      <c r="D2852">
+        <v>0</v>
+      </c>
+      <c r="E2852">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2853" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2853" s="1">
+        <v>43485.289583333331</v>
+      </c>
+      <c r="D2853">
+        <v>0</v>
+      </c>
+      <c r="E2853">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2854" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2854" s="1">
+        <v>43485.3</v>
+      </c>
+      <c r="D2854">
+        <v>0</v>
+      </c>
+      <c r="E2854">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2855" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2855" s="1">
+        <v>43485.310416666667</v>
+      </c>
+      <c r="D2855">
+        <v>0</v>
+      </c>
+      <c r="E2855">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2856" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2856" s="1">
+        <v>43485.320833333331</v>
+      </c>
+      <c r="D2856">
+        <v>0</v>
+      </c>
+      <c r="E2856">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2857" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2857" s="1">
+        <v>43485.331250000003</v>
+      </c>
+      <c r="D2857">
+        <v>0</v>
+      </c>
+      <c r="E2857">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2858" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2858" s="1">
+        <v>43485.341666666667</v>
+      </c>
+      <c r="D2858">
+        <v>0</v>
+      </c>
+      <c r="E2858">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2859" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2859" s="1">
+        <v>43485.352777777778</v>
+      </c>
+      <c r="D2859">
+        <v>0</v>
+      </c>
+      <c r="E2859">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2860" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2860" s="1">
+        <v>43485.359722222223</v>
+      </c>
+      <c r="D2860">
+        <v>1</v>
+      </c>
+      <c r="F2860">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2861" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2861" s="1">
+        <v>43485.363194444442</v>
+      </c>
+      <c r="D2861">
+        <v>0</v>
+      </c>
+      <c r="E2861">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2862" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2862" s="1">
+        <v>43485.373611111114</v>
+      </c>
+      <c r="D2862">
+        <v>0</v>
+      </c>
+      <c r="E2862">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2863" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2863" s="1">
+        <v>43485.384027777778</v>
+      </c>
+      <c r="D2863">
+        <v>0</v>
+      </c>
+      <c r="E2863">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2864" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2864" s="1">
+        <v>43485.394444444442</v>
+      </c>
+      <c r="D2864">
+        <v>0</v>
+      </c>
+      <c r="E2864">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2865" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2865" s="1">
+        <v>43485.404861111114</v>
+      </c>
+      <c r="D2865">
+        <v>0</v>
+      </c>
+      <c r="E2865">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2866" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2866" s="1">
+        <v>43485.415277777778</v>
+      </c>
+      <c r="D2866">
+        <v>0</v>
+      </c>
+      <c r="E2866">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2867" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2867" s="1">
+        <v>43485.425694444442</v>
+      </c>
+      <c r="D2867">
+        <v>0</v>
+      </c>
+      <c r="E2867">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2868" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2868" s="1">
+        <v>43485.436111111114</v>
+      </c>
+      <c r="D2868">
+        <v>0</v>
+      </c>
+      <c r="E2868">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2869" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2869" s="1">
+        <v>43485.446527777778</v>
+      </c>
+      <c r="D2869">
+        <v>0</v>
+      </c>
+      <c r="E2869">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2870" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2870" s="1">
+        <v>43485.462500000001</v>
+      </c>
+      <c r="D2870">
+        <v>1</v>
+      </c>
+      <c r="F2870">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2871" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2871" s="1">
+        <v>43485.468055555553</v>
+      </c>
+      <c r="D2871">
+        <v>0</v>
+      </c>
+      <c r="E2871">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2872" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2872" s="1">
+        <v>43485.478472222225</v>
+      </c>
+      <c r="D2872">
+        <v>0</v>
+      </c>
+      <c r="E2872">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2873" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2873" s="1">
+        <v>43485.488888888889</v>
+      </c>
+      <c r="D2873">
+        <v>0</v>
+      </c>
+      <c r="E2873">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2874" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2874" s="1">
+        <v>43485.499305555553</v>
+      </c>
+      <c r="D2874">
+        <v>0</v>
+      </c>
+      <c r="E2874">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2875" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2875" s="1">
+        <v>43485.509722222225</v>
+      </c>
+      <c r="D2875">
+        <v>0</v>
+      </c>
+      <c r="E2875">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2876" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2876" s="1">
+        <v>43485.520138888889</v>
+      </c>
+      <c r="D2876">
+        <v>0</v>
+      </c>
+      <c r="E2876">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2877" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2877" s="1">
+        <v>43485.530555555553</v>
+      </c>
+      <c r="D2877">
+        <v>0</v>
+      </c>
+      <c r="E2877">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2878" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2878" s="1">
+        <v>43485.540972222225</v>
+      </c>
+      <c r="D2878">
+        <v>0</v>
+      </c>
+      <c r="E2878">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2879" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2879" s="1">
+        <v>43485.551388888889</v>
+      </c>
+      <c r="D2879">
+        <v>0</v>
+      </c>
+      <c r="E2879">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2880" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2880" s="1">
+        <v>43485.561805555553</v>
+      </c>
+      <c r="D2880">
+        <v>0</v>
+      </c>
+      <c r="E2880">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2881" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2881" s="1">
+        <v>43485.572222222225</v>
+      </c>
+      <c r="D2881">
+        <v>0</v>
+      </c>
+      <c r="E2881">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2882" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2882" s="1">
+        <v>43485.582638888889</v>
+      </c>
+      <c r="D2882">
+        <v>0</v>
+      </c>
+      <c r="E2882">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2883" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2883" s="1">
+        <v>43485.593055555553</v>
+      </c>
+      <c r="D2883">
+        <v>0</v>
+      </c>
+      <c r="E2883">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2884" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2884" s="1">
+        <v>43485.603472222225</v>
+      </c>
+      <c r="D2884">
+        <v>0</v>
+      </c>
+      <c r="E2884">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2885" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2885" s="1">
+        <v>43485.613888888889</v>
+      </c>
+      <c r="D2885">
+        <v>0</v>
+      </c>
+      <c r="E2885">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2886" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2886" s="1">
+        <v>43485.624305555553</v>
+      </c>
+      <c r="D2886">
+        <v>0</v>
+      </c>
+      <c r="E2886">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2887" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2887" s="1">
+        <v>43485.634722222225</v>
+      </c>
+      <c r="D2887">
+        <v>0</v>
+      </c>
+      <c r="E2887">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2888" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2888" s="1">
+        <v>43485.645138888889</v>
+      </c>
+      <c r="D2888">
+        <v>0</v>
+      </c>
+      <c r="E2888">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2889" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2889" s="1">
+        <v>43485.655555555553</v>
+      </c>
+      <c r="D2889">
+        <v>0</v>
+      </c>
+      <c r="E2889">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2890" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2890" s="1">
+        <v>43485.665972222225</v>
+      </c>
+      <c r="D2890">
+        <v>0</v>
+      </c>
+      <c r="E2890">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2891" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2891" s="1">
+        <v>43485.677777777775</v>
+      </c>
+      <c r="D2891">
+        <v>0</v>
+      </c>
+      <c r="E2891">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2892" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2892" s="1">
+        <v>43485.679166666669</v>
+      </c>
+      <c r="D2892">
+        <v>1</v>
+      </c>
+      <c r="F2892">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2893" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2893" s="1">
+        <v>43485.688194444447</v>
+      </c>
+      <c r="D2893">
+        <v>0</v>
+      </c>
+      <c r="E2893">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2894" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2894" s="1">
+        <v>43485.698611111111</v>
+      </c>
+      <c r="D2894">
+        <v>0</v>
+      </c>
+      <c r="E2894">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2895" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2895" s="1">
+        <v>43485.709027777775</v>
+      </c>
+      <c r="D2895">
+        <v>0</v>
+      </c>
+      <c r="E2895">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2896" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2896" s="1">
+        <v>43485.719444444447</v>
+      </c>
+      <c r="D2896">
+        <v>0</v>
+      </c>
+      <c r="E2896">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2897" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2897" s="1">
+        <v>43485.729861111111</v>
+      </c>
+      <c r="D2897">
+        <v>0</v>
+      </c>
+      <c r="E2897">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2898" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2898" s="1">
+        <v>43485.740277777775</v>
+      </c>
+      <c r="D2898">
+        <v>0</v>
+      </c>
+      <c r="E2898">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2899" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2899" s="1">
+        <v>43485.750694444447</v>
+      </c>
+      <c r="D2899">
+        <v>0</v>
+      </c>
+      <c r="E2899">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2900" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2900" s="1">
+        <v>43485.761111111111</v>
+      </c>
+      <c r="D2900">
+        <v>0</v>
+      </c>
+      <c r="E2900">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2901" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2901" s="1">
+        <v>43485.771527777775</v>
+      </c>
+      <c r="D2901">
+        <v>0</v>
+      </c>
+      <c r="E2901">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2902" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2902" s="1">
+        <v>43485.781944444447</v>
+      </c>
+      <c r="D2902">
+        <v>0</v>
+      </c>
+      <c r="E2902">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2903" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2903" s="1">
+        <v>43485.792361111111</v>
+      </c>
+      <c r="D2903">
+        <v>0</v>
+      </c>
+      <c r="E2903">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2904" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2904" s="1">
+        <v>43485.802777777775</v>
+      </c>
+      <c r="D2904">
+        <v>0</v>
+      </c>
+      <c r="E2904">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2905" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2905" s="1">
+        <v>43485.813194444447</v>
+      </c>
+      <c r="D2905">
+        <v>0</v>
+      </c>
+      <c r="E2905">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2906" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2906" s="1">
+        <v>43485.823611111111</v>
+      </c>
+      <c r="D2906">
+        <v>0</v>
+      </c>
+      <c r="E2906">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2907" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2907" s="1">
+        <v>43485.834027777775</v>
+      </c>
+      <c r="D2907">
+        <v>0</v>
+      </c>
+      <c r="E2907">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2908" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2908" s="1">
+        <v>43485.844444444447</v>
+      </c>
+      <c r="D2908">
+        <v>0</v>
+      </c>
+      <c r="E2908">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2909" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2909" s="1">
+        <v>43485.854861111111</v>
+      </c>
+      <c r="D2909">
+        <v>0</v>
+      </c>
+      <c r="E2909">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2910" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2910" s="1">
+        <v>43485.865277777775</v>
+      </c>
+      <c r="D2910">
+        <v>0</v>
+      </c>
+      <c r="E2910">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2911" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2911" s="1">
+        <v>43485.875694444447</v>
+      </c>
+      <c r="D2911">
+        <v>0</v>
+      </c>
+      <c r="E2911">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2912" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2912" s="1">
+        <v>43485.886111111111</v>
+      </c>
+      <c r="D2912">
+        <v>0</v>
+      </c>
+      <c r="E2912">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2913" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2913" s="1">
+        <v>43485.896527777775</v>
+      </c>
+      <c r="D2913">
+        <v>0</v>
+      </c>
+      <c r="E2913">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2914" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2914" s="1">
+        <v>43485.906944444447</v>
+      </c>
+      <c r="D2914">
+        <v>0</v>
+      </c>
+      <c r="E2914">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2915" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2915" s="1">
+        <v>43485.917361111111</v>
+      </c>
+      <c r="D2915">
+        <v>0</v>
+      </c>
+      <c r="E2915">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2916" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2916" s="1">
+        <v>43485.927777777775</v>
+      </c>
+      <c r="D2916">
+        <v>0</v>
+      </c>
+      <c r="E2916">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2917" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2917" s="1">
+        <v>43485.938888888886</v>
+      </c>
+      <c r="D2917">
+        <v>0</v>
+      </c>
+      <c r="E2917">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2918" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2918" s="1">
+        <v>43485.941666666666</v>
+      </c>
+      <c r="D2918">
+        <v>1</v>
+      </c>
+      <c r="F2918">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2919" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2919" s="1">
+        <v>43485.949305555558</v>
+      </c>
+      <c r="D2919">
+        <v>0</v>
+      </c>
+      <c r="E2919">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2920" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2920" s="1">
+        <v>43485.959722222222</v>
+      </c>
+      <c r="D2920">
+        <v>0</v>
+      </c>
+      <c r="E2920">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2921" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2921" s="1">
+        <v>43485.970138888886</v>
+      </c>
+      <c r="D2921">
+        <v>0</v>
+      </c>
+      <c r="E2921">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2922" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2922" s="1">
+        <v>43485.980555555558</v>
+      </c>
+      <c r="D2922">
+        <v>0</v>
+      </c>
+      <c r="E2922">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2923" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2923" s="1">
+        <v>43485.990972222222</v>
+      </c>
+      <c r="D2923">
+        <v>0</v>
+      </c>
+      <c r="E2923">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2924" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2924" s="1">
+        <v>43486.001388888886</v>
+      </c>
+      <c r="D2924">
+        <v>0</v>
+      </c>
+      <c r="E2924">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2925" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2925" s="1">
+        <v>43486.011805555558</v>
+      </c>
+      <c r="D2925">
+        <v>0</v>
+      </c>
+      <c r="E2925">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2926" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2926" s="1">
+        <v>43486.022222222222</v>
+      </c>
+      <c r="D2926">
+        <v>0</v>
+      </c>
+      <c r="E2926">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2927" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2927" s="1">
+        <v>43486.032638888886</v>
+      </c>
+      <c r="D2927">
+        <v>0</v>
+      </c>
+      <c r="E2927">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2928" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2928" s="1">
+        <v>43486.043055555558</v>
+      </c>
+      <c r="D2928">
+        <v>0</v>
+      </c>
+      <c r="E2928">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2929" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2929" s="1">
+        <v>43486.053472222222</v>
+      </c>
+      <c r="D2929">
+        <v>0</v>
+      </c>
+      <c r="E2929">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2930" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2930" s="1">
+        <v>43486.063888888886</v>
+      </c>
+      <c r="D2930">
+        <v>0</v>
+      </c>
+      <c r="E2930">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2931" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2931" s="1">
+        <v>43486.074305555558</v>
+      </c>
+      <c r="D2931">
+        <v>0</v>
+      </c>
+      <c r="E2931">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2932" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2932" s="1">
+        <v>43486.084722222222</v>
+      </c>
+      <c r="D2932">
+        <v>0</v>
+      </c>
+      <c r="E2932">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2933" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2933" s="1">
+        <v>43486.095138888886</v>
+      </c>
+      <c r="D2933">
+        <v>0</v>
+      </c>
+      <c r="E2933">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2934" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2934" s="1">
+        <v>43486.105555555558</v>
+      </c>
+      <c r="D2934">
+        <v>0</v>
+      </c>
+      <c r="E2934">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2935" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2935" s="1">
+        <v>43486.115972222222</v>
+      </c>
+      <c r="D2935">
+        <v>0</v>
+      </c>
+      <c r="E2935">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2936" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2936" s="1">
+        <v>43486.126388888886</v>
+      </c>
+      <c r="D2936">
+        <v>0</v>
+      </c>
+      <c r="E2936">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2937" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2937" s="1">
+        <v>43486.136805555558</v>
+      </c>
+      <c r="D2937">
+        <v>0</v>
+      </c>
+      <c r="E2937">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2938" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2938" s="1">
+        <v>43486.147222222222</v>
+      </c>
+      <c r="D2938">
+        <v>0</v>
+      </c>
+      <c r="E2938">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2939" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2939" s="1">
+        <v>43486.157638888886</v>
+      </c>
+      <c r="D2939">
+        <v>0</v>
+      </c>
+      <c r="E2939">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2940" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2940" s="1">
+        <v>43486.168055555558</v>
+      </c>
+      <c r="D2940">
+        <v>0</v>
+      </c>
+      <c r="E2940">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2941" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2941" s="1">
+        <v>43486.178472222222</v>
+      </c>
+      <c r="D2941">
+        <v>0</v>
+      </c>
+      <c r="E2941">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2942" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2942" s="1">
+        <v>43486.184027777781</v>
+      </c>
+      <c r="D2942">
+        <v>1</v>
+      </c>
+      <c r="F2942">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2943" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2943" s="1">
+        <v>43486.188888888886</v>
+      </c>
+      <c r="D2943">
+        <v>0</v>
+      </c>
+      <c r="E2943">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2944" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2944" s="1">
+        <v>43486.199305555558</v>
+      </c>
+      <c r="D2944">
+        <v>0</v>
+      </c>
+      <c r="E2944">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2945" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2945" s="1">
+        <v>43486.209722222222</v>
+      </c>
+      <c r="D2945">
+        <v>0</v>
+      </c>
+      <c r="E2945">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2946" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2946" s="1">
+        <v>43486.220138888886</v>
+      </c>
+      <c r="D2946">
+        <v>0</v>
+      </c>
+      <c r="E2946">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2947" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2947" s="1">
+        <v>43486.230555555558</v>
+      </c>
+      <c r="D2947">
+        <v>0</v>
+      </c>
+      <c r="E2947">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2948" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2948" s="1">
+        <v>43486.240972222222</v>
+      </c>
+      <c r="D2948">
+        <v>0</v>
+      </c>
+      <c r="E2948">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2949" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2949" s="1">
+        <v>43486.251388888886</v>
+      </c>
+      <c r="D2949">
+        <v>0</v>
+      </c>
+      <c r="E2949">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2950" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2950" s="1">
+        <v>43486.261805555558</v>
+      </c>
+      <c r="D2950">
+        <v>0</v>
+      </c>
+      <c r="E2950">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2951" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2951" s="1">
+        <v>43486.270138888889</v>
+      </c>
+      <c r="D2951">
+        <v>1</v>
+      </c>
+      <c r="F2951">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2952" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2952" s="1">
+        <v>43486.270833333336</v>
+      </c>
+      <c r="D2952">
+        <v>1</v>
+      </c>
+      <c r="F2952">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2953" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2953" s="1">
+        <v>43486.272222222222</v>
+      </c>
+      <c r="D2953">
+        <v>0</v>
+      </c>
+      <c r="E2953">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2954" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2954" s="1">
+        <v>43486.282638888886</v>
+      </c>
+      <c r="D2954">
+        <v>0</v>
+      </c>
+      <c r="E2954">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2955" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2955" s="1">
+        <v>43486.293055555558</v>
+      </c>
+      <c r="D2955">
+        <v>0</v>
+      </c>
+      <c r="E2955">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2956" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2956" s="1">
+        <v>43486.301388888889</v>
+      </c>
+      <c r="D2956">
+        <v>1</v>
+      </c>
+      <c r="F2956">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2957" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2957" s="1">
+        <v>43486.303472222222</v>
+      </c>
+      <c r="D2957">
+        <v>0</v>
+      </c>
+      <c r="E2957">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2958" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2958" s="1">
+        <v>43486.313888888886</v>
+      </c>
+      <c r="D2958">
+        <v>0</v>
+      </c>
+      <c r="E2958">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2959" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2959" s="1">
+        <v>43486.327777777777</v>
+      </c>
+      <c r="D2959">
+        <v>1</v>
+      </c>
+      <c r="F2959">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2960" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2960" s="1">
+        <v>43486.336111111108</v>
+      </c>
+      <c r="D2960">
+        <v>0</v>
+      </c>
+      <c r="E2960">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2961" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2961" s="1">
+        <v>43486.34652777778</v>
+      </c>
+      <c r="D2961">
+        <v>0</v>
+      </c>
+      <c r="E2961">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2962" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2962" s="1">
+        <v>43486.356944444444</v>
+      </c>
+      <c r="D2962">
+        <v>0</v>
+      </c>
+      <c r="E2962">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2963" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2963" s="1">
+        <v>43486.367361111108</v>
+      </c>
+      <c r="D2963">
+        <v>0</v>
+      </c>
+      <c r="E2963">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2964" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2964" s="1">
+        <v>43486.37777777778</v>
+      </c>
+      <c r="D2964">
+        <v>0</v>
+      </c>
+      <c r="E2964">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2965" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2965" s="1">
+        <v>43486.388194444444</v>
+      </c>
+      <c r="D2965">
+        <v>0</v>
+      </c>
+      <c r="E2965">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2966" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2966" s="1">
+        <v>43486.398611111108</v>
+      </c>
+      <c r="D2966">
+        <v>0</v>
+      </c>
+      <c r="E2966">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2967" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2967" s="1">
+        <v>43486.40902777778</v>
+      </c>
+      <c r="D2967">
+        <v>0</v>
+      </c>
+      <c r="E2967">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2968" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2968" s="1">
+        <v>43486.419444444444</v>
+      </c>
+      <c r="D2968">
+        <v>0</v>
+      </c>
+      <c r="E2968">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2969" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2969" s="1">
+        <v>43486.429861111108</v>
+      </c>
+      <c r="D2969">
+        <v>0</v>
+      </c>
+      <c r="E2969">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2970" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2970" s="1">
+        <v>43486.44027777778</v>
+      </c>
+      <c r="D2970">
+        <v>0</v>
+      </c>
+      <c r="E2970">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2971" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2971" s="1">
+        <v>43486.450694444444</v>
+      </c>
+      <c r="D2971">
+        <v>0</v>
+      </c>
+      <c r="E2971">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2972" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2972" s="1">
+        <v>43486.461111111108</v>
+      </c>
+      <c r="D2972">
+        <v>0</v>
+      </c>
+      <c r="E2972">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2973" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2973" s="1">
+        <v>43486.47152777778</v>
+      </c>
+      <c r="D2973">
+        <v>0</v>
+      </c>
+      <c r="E2973">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2974" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2974" s="1">
+        <v>43486.481944444444</v>
+      </c>
+      <c r="D2974">
+        <v>0</v>
+      </c>
+      <c r="E2974">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2975" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2975" s="1">
+        <v>43486.492361111108</v>
+      </c>
+      <c r="D2975">
+        <v>0</v>
+      </c>
+      <c r="E2975">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2976" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2976" s="1">
+        <v>43486.50277777778</v>
+      </c>
+      <c r="D2976">
+        <v>0</v>
+      </c>
+      <c r="E2976">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2977" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2977" s="1">
+        <v>43486.513194444444</v>
+      </c>
+      <c r="D2977">
+        <v>0</v>
+      </c>
+      <c r="E2977">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2978" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2978" s="1">
+        <v>43486.523611111108</v>
+      </c>
+      <c r="D2978">
+        <v>0</v>
+      </c>
+      <c r="E2978">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2979" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2979" s="1">
+        <v>43486.53402777778</v>
+      </c>
+      <c r="D2979">
+        <v>0</v>
+      </c>
+      <c r="E2979">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2980" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2980" s="1">
+        <v>43486.544444444444</v>
+      </c>
+      <c r="D2980">
+        <v>0</v>
+      </c>
+      <c r="E2980">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2981" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2981" s="1">
+        <v>43486.554861111108</v>
+      </c>
+      <c r="D2981">
+        <v>0</v>
+      </c>
+      <c r="E2981">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2982" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2982" s="1">
+        <v>43486.56527777778</v>
+      </c>
+      <c r="D2982">
+        <v>0</v>
+      </c>
+      <c r="E2982">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2983" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2983" s="1">
+        <v>43486.575694444444</v>
+      </c>
+      <c r="D2983">
+        <v>0</v>
+      </c>
+      <c r="E2983">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2984" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2984" s="1">
+        <v>43486.586111111108</v>
+      </c>
+      <c r="D2984">
+        <v>0</v>
+      </c>
+      <c r="E2984">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2985" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2985" s="1">
+        <v>43486.59652777778</v>
+      </c>
+      <c r="D2985">
+        <v>0</v>
+      </c>
+      <c r="E2985">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2986" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2986" s="1">
+        <v>43486.606944444444</v>
+      </c>
+      <c r="D2986">
+        <v>0</v>
+      </c>
+      <c r="E2986">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2987" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2987" s="1">
+        <v>43486.617361111108</v>
+      </c>
+      <c r="D2987">
+        <v>0</v>
+      </c>
+      <c r="E2987">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2988" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2988" s="1">
+        <v>43486.62777777778</v>
+      </c>
+      <c r="D2988">
+        <v>0</v>
+      </c>
+      <c r="E2988">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2989" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2989" s="1">
+        <v>43486.638194444444</v>
+      </c>
+      <c r="D2989">
+        <v>0</v>
+      </c>
+      <c r="E2989">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2990" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2990" s="1">
+        <v>43486.640972222223</v>
+      </c>
+      <c r="D2990">
+        <v>1</v>
+      </c>
+      <c r="F2990">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2991" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2991" s="1">
+        <v>43486.648611111108</v>
+      </c>
+      <c r="D2991">
+        <v>0</v>
+      </c>
+      <c r="E2991">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2992" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2992" s="1">
+        <v>43486.65902777778</v>
+      </c>
+      <c r="D2992">
+        <v>0</v>
+      </c>
+      <c r="E2992">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2993" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2993" s="1">
+        <v>43486.669444444444</v>
+      </c>
+      <c r="D2993">
+        <v>0</v>
+      </c>
+      <c r="E2993">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2994" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2994" s="1">
+        <v>43486.679861111108</v>
+      </c>
+      <c r="D2994">
+        <v>0</v>
+      </c>
+      <c r="E2994">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2995" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2995" s="1">
+        <v>43486.69027777778</v>
+      </c>
+      <c r="D2995">
+        <v>0</v>
+      </c>
+      <c r="E2995">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2996" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2996" s="1">
+        <v>43486.700694444444</v>
+      </c>
+      <c r="D2996">
+        <v>0</v>
+      </c>
+      <c r="E2996">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2997" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2997" s="1">
+        <v>43486.711111111108</v>
+      </c>
+      <c r="D2997">
+        <v>0</v>
+      </c>
+      <c r="E2997">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2998" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2998" s="1">
+        <v>43486.72152777778</v>
+      </c>
+      <c r="D2998">
+        <v>0</v>
+      </c>
+      <c r="E2998">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2999" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2999" s="1">
+        <v>43486.731944444444</v>
+      </c>
+      <c r="D2999">
+        <v>0</v>
+      </c>
+      <c r="E2999">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3000" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3000" s="1">
+        <v>43486.742361111108</v>
+      </c>
+      <c r="D3000">
+        <v>0</v>
+      </c>
+      <c r="E3000">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3001" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3001" s="1">
+        <v>43486.75277777778</v>
+      </c>
+      <c r="D3001">
+        <v>0</v>
+      </c>
+      <c r="E3001">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3002" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3002" s="1">
+        <v>43486.763194444444</v>
+      </c>
+      <c r="D3002">
+        <v>0</v>
+      </c>
+      <c r="E3002">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3003" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3003" s="1">
+        <v>43486.773611111108</v>
+      </c>
+      <c r="D3003">
+        <v>0</v>
+      </c>
+      <c r="E3003">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3004" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3004" s="1">
+        <v>43486.78402777778</v>
+      </c>
+      <c r="D3004">
+        <v>0</v>
+      </c>
+      <c r="E3004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3005" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3005" s="1">
+        <v>43486.794444444444</v>
+      </c>
+      <c r="D3005">
+        <v>0</v>
+      </c>
+      <c r="E3005">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3006" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3006" s="1">
+        <v>43486.805555555555</v>
+      </c>
+      <c r="D3006">
+        <v>0</v>
+      </c>
+      <c r="E3006">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3007" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3007" s="1">
+        <v>43486.806250000001</v>
+      </c>
+      <c r="D3007">
+        <v>1</v>
+      </c>
+      <c r="F3007">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3008" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3008" s="1">
+        <v>43486.815972222219</v>
+      </c>
+      <c r="D3008">
+        <v>0</v>
+      </c>
+      <c r="E3008">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3009" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3009" s="1">
+        <v>43486.826388888891</v>
+      </c>
+      <c r="D3009">
+        <v>0</v>
+      </c>
+      <c r="E3009">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3010" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3010" s="1">
+        <v>43486.836111111108</v>
+      </c>
+      <c r="D3010">
+        <v>0</v>
+      </c>
+      <c r="E3010">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3011" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3011" s="1">
+        <v>43486.84652777778</v>
+      </c>
+      <c r="D3011">
+        <v>1</v>
+      </c>
+      <c r="F3011">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3012" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3012" s="1">
+        <v>43486.847222222219</v>
+      </c>
+      <c r="D3012">
+        <v>0</v>
+      </c>
+      <c r="E3012">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3013" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3013" s="1">
+        <v>43486.852083333331</v>
+      </c>
+      <c r="D3013">
+        <v>1</v>
+      </c>
+      <c r="F3013">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3014" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3014" s="1">
+        <v>43486.857638888891</v>
+      </c>
+      <c r="D3014">
+        <v>0</v>
+      </c>
+      <c r="E3014">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3015" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3015" s="1">
+        <v>43486.868055555555</v>
+      </c>
+      <c r="D3015">
+        <v>0</v>
+      </c>
+      <c r="E3015">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3016" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3016" s="1">
+        <v>43486.878472222219</v>
+      </c>
+      <c r="D3016">
+        <v>0</v>
+      </c>
+      <c r="E3016">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3017" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3017" s="1">
+        <v>43486.888888888891</v>
+      </c>
+      <c r="D3017">
+        <v>0</v>
+      </c>
+      <c r="E3017">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3018" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3018" s="1">
+        <v>43486.899305555555</v>
+      </c>
+      <c r="D3018">
+        <v>0</v>
+      </c>
+      <c r="E3018">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3019" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3019" s="1">
+        <v>43486.909722222219</v>
+      </c>
+      <c r="D3019">
+        <v>0</v>
+      </c>
+      <c r="E3019">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3020" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3020" s="1">
+        <v>43486.920138888891</v>
+      </c>
+      <c r="D3020">
+        <v>0</v>
+      </c>
+      <c r="E3020">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3021" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3021" s="1">
+        <v>43486.931944444441</v>
+      </c>
+      <c r="D3021">
+        <v>0</v>
+      </c>
+      <c r="E3021">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3022" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3022" s="1">
+        <v>43486.94027777778</v>
+      </c>
+      <c r="D3022">
+        <v>1</v>
+      </c>
+      <c r="F3022">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3023" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3023" s="1">
+        <v>43486.942361111112</v>
+      </c>
+      <c r="D3023">
+        <v>0</v>
+      </c>
+      <c r="E3023">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3024" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3024" s="1">
+        <v>43486.952777777777</v>
+      </c>
+      <c r="D3024">
+        <v>0</v>
+      </c>
+      <c r="E3024">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3025" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3025" s="1">
+        <v>43486.963194444441</v>
+      </c>
+      <c r="D3025">
+        <v>0</v>
+      </c>
+      <c r="E3025">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3026" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3026" s="1">
+        <v>43486.973611111112</v>
+      </c>
+      <c r="D3026">
+        <v>0</v>
+      </c>
+      <c r="E3026">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3027" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3027" s="1">
+        <v>43486.984027777777</v>
+      </c>
+      <c r="D3027">
+        <v>0</v>
+      </c>
+      <c r="E3027">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3028" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3028" s="1">
+        <v>43486.994444444441</v>
+      </c>
+      <c r="D3028">
+        <v>0</v>
+      </c>
+      <c r="E3028">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3029" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3029" s="1">
+        <v>43487.004861111112</v>
+      </c>
+      <c r="D3029">
+        <v>0</v>
+      </c>
+      <c r="E3029">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3030" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3030" s="1">
+        <v>43487.015277777777</v>
+      </c>
+      <c r="D3030">
+        <v>0</v>
+      </c>
+      <c r="E3030">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3031" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3031" s="1">
+        <v>43487.025694444441</v>
+      </c>
+      <c r="D3031">
+        <v>0</v>
+      </c>
+      <c r="E3031">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3032" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3032" s="1">
+        <v>43487.036111111112</v>
+      </c>
+      <c r="D3032">
+        <v>0</v>
+      </c>
+      <c r="E3032">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3033" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3033" s="1">
+        <v>43487.046527777777</v>
+      </c>
+      <c r="D3033">
+        <v>0</v>
+      </c>
+      <c r="E3033">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3034" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3034" s="1">
+        <v>43487.056944444441</v>
+      </c>
+      <c r="D3034">
+        <v>0</v>
+      </c>
+      <c r="E3034">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3035" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3035" s="1">
+        <v>43487.067361111112</v>
+      </c>
+      <c r="D3035">
+        <v>0</v>
+      </c>
+      <c r="E3035">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3036" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3036" s="1">
+        <v>43487.077777777777</v>
+      </c>
+      <c r="D3036">
+        <v>0</v>
+      </c>
+      <c r="E3036">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3037" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3037" s="1">
+        <v>43487.088194444441</v>
+      </c>
+      <c r="D3037">
+        <v>0</v>
+      </c>
+      <c r="E3037">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3038" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3038" s="1">
+        <v>43487.098611111112</v>
+      </c>
+      <c r="D3038">
+        <v>0</v>
+      </c>
+      <c r="E3038">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3039" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3039" s="1">
+        <v>43487.105555555558</v>
+      </c>
+      <c r="D3039">
+        <v>1</v>
+      </c>
+      <c r="F3039">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3040" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3040" s="1">
+        <v>43487.109027777777</v>
+      </c>
+      <c r="D3040">
+        <v>0</v>
+      </c>
+      <c r="E3040">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3041" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3041" s="1">
+        <v>43487.119444444441</v>
+      </c>
+      <c r="D3041">
+        <v>0</v>
+      </c>
+      <c r="E3041">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3042" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3042" s="1">
+        <v>43487.129861111112</v>
+      </c>
+      <c r="D3042">
+        <v>0</v>
+      </c>
+      <c r="E3042">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3043" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3043" s="1">
+        <v>43487.140277777777</v>
+      </c>
+      <c r="D3043">
+        <v>0</v>
+      </c>
+      <c r="E3043">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3044" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3044" s="1">
+        <v>43487.150694444441</v>
+      </c>
+      <c r="D3044">
+        <v>0</v>
+      </c>
+      <c r="E3044">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3045" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3045" s="1">
+        <v>43487.161111111112</v>
+      </c>
+      <c r="D3045">
+        <v>0</v>
+      </c>
+      <c r="E3045">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3046" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3046" s="1">
+        <v>43487.171527777777</v>
+      </c>
+      <c r="D3046">
+        <v>0</v>
+      </c>
+      <c r="E3046">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3047" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3047" s="1">
+        <v>43487.181944444441</v>
+      </c>
+      <c r="D3047">
+        <v>0</v>
+      </c>
+      <c r="E3047">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3048" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3048" s="1">
+        <v>43487.192361111112</v>
+      </c>
+      <c r="D3048">
+        <v>0</v>
+      </c>
+      <c r="E3048">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3049" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3049" s="1">
+        <v>43487.202777777777</v>
+      </c>
+      <c r="D3049">
+        <v>0</v>
+      </c>
+      <c r="E3049">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3050" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3050" s="1">
+        <v>43487.213194444441</v>
+      </c>
+      <c r="D3050">
+        <v>0</v>
+      </c>
+      <c r="E3050">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3051" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3051" s="1">
+        <v>43487.223611111112</v>
+      </c>
+      <c r="D3051">
+        <v>0</v>
+      </c>
+      <c r="E3051">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3052" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3052" s="1">
+        <v>43487.234027777777</v>
+      </c>
+      <c r="D3052">
+        <v>0</v>
+      </c>
+      <c r="E3052">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3053" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3053" s="1">
+        <v>43487.252083333333</v>
+      </c>
+      <c r="D3053">
+        <v>1</v>
+      </c>
+      <c r="F3053">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3054" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3054" s="1">
+        <v>43487.254861111112</v>
+      </c>
+      <c r="D3054">
+        <v>0</v>
+      </c>
+      <c r="E3054">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3055" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3055" s="1">
+        <v>43487.265277777777</v>
+      </c>
+      <c r="D3055">
+        <v>0</v>
+      </c>
+      <c r="E3055">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3056" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3056" s="1">
+        <v>43487.275694444441</v>
+      </c>
+      <c r="D3056">
+        <v>0</v>
+      </c>
+      <c r="E3056">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3057" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3057" s="1">
+        <v>43487.286111111112</v>
+      </c>
+      <c r="D3057">
+        <v>0</v>
+      </c>
+      <c r="E3057">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3058" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3058" s="1">
+        <v>43487.296527777777</v>
+      </c>
+      <c r="D3058">
+        <v>0</v>
+      </c>
+      <c r="E3058">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3059" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3059" s="1">
+        <v>43487.306944444441</v>
+      </c>
+      <c r="D3059">
+        <v>0</v>
+      </c>
+      <c r="E3059">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3060" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3060" s="1">
+        <v>43487.317361111112</v>
+      </c>
+      <c r="D3060">
+        <v>0</v>
+      </c>
+      <c r="E3060">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3061" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3061" s="1">
+        <v>43487.327777777777</v>
+      </c>
+      <c r="D3061">
+        <v>0</v>
+      </c>
+      <c r="E3061">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3062" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3062" s="1">
+        <v>43487.338194444441</v>
+      </c>
+      <c r="D3062">
+        <v>0</v>
+      </c>
+      <c r="E3062">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3063" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3063" s="1">
+        <v>43487.348611111112</v>
+      </c>
+      <c r="D3063">
+        <v>1</v>
+      </c>
+      <c r="F3063">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3064" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3064" s="1">
+        <v>43487.349305555559</v>
+      </c>
+      <c r="D3064">
+        <v>0</v>
+      </c>
+      <c r="E3064">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3065" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3065" s="1">
+        <v>43487.359722222223</v>
+      </c>
+      <c r="D3065">
+        <v>0</v>
+      </c>
+      <c r="E3065">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3066" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3066" s="1">
+        <v>43487.370138888888</v>
+      </c>
+      <c r="D3066">
+        <v>0</v>
+      </c>
+      <c r="E3066">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3067" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3067" s="1">
+        <v>43487.380555555559</v>
+      </c>
+      <c r="D3067">
+        <v>0</v>
+      </c>
+      <c r="E3067">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3068" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3068" s="1">
+        <v>43487.390972222223</v>
+      </c>
+      <c r="D3068">
+        <v>0</v>
+      </c>
+      <c r="E3068">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3069" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3069" s="1">
+        <v>43487.401388888888</v>
+      </c>
+      <c r="D3069">
+        <v>0</v>
+      </c>
+      <c r="E3069">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3070" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3070" s="1">
+        <v>43487.408333333333</v>
+      </c>
+      <c r="D3070">
+        <v>1</v>
+      </c>
+      <c r="F3070">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3071" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3071" s="1">
+        <v>43487.411805555559</v>
+      </c>
+      <c r="D3071">
+        <v>0</v>
+      </c>
+      <c r="E3071">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3072" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3072" s="1">
+        <v>43487.422222222223</v>
+      </c>
+      <c r="D3072">
+        <v>0</v>
+      </c>
+      <c r="E3072">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3073" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3073" s="1">
+        <v>43487.432638888888</v>
+      </c>
+      <c r="D3073">
+        <v>0</v>
+      </c>
+      <c r="E3073">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3074" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3074" s="1">
+        <v>43487.443055555559</v>
+      </c>
+      <c r="D3074">
+        <v>0</v>
+      </c>
+      <c r="E3074">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3075" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3075" s="1">
+        <v>43487.453472222223</v>
+      </c>
+      <c r="D3075">
+        <v>0</v>
+      </c>
+      <c r="E3075">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3076" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3076" s="1">
+        <v>43487.463888888888</v>
+      </c>
+      <c r="D3076">
+        <v>0</v>
+      </c>
+      <c r="E3076">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3077" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3077" s="1">
+        <v>43487.474305555559</v>
+      </c>
+      <c r="D3077">
+        <v>0</v>
+      </c>
+      <c r="E3077">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3078" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3078" s="1">
+        <v>43487.484722222223</v>
+      </c>
+      <c r="D3078">
+        <v>0</v>
+      </c>
+      <c r="E3078">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3079" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3079" s="1">
+        <v>43487.497916666667</v>
+      </c>
+      <c r="D3079">
+        <v>1</v>
+      </c>
+      <c r="F3079">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3080" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3080" s="1">
+        <v>43487.505555555559</v>
+      </c>
+      <c r="D3080">
+        <v>0</v>
+      </c>
+      <c r="E3080">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3081" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3081" s="1">
+        <v>43487.509027777778</v>
+      </c>
+      <c r="D3081">
+        <v>1</v>
+      </c>
+      <c r="F3081">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3082" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3082" s="1">
+        <v>43487.515972222223</v>
+      </c>
+      <c r="D3082">
+        <v>0</v>
+      </c>
+      <c r="E3082">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3083" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3083" s="1">
+        <v>43487.526388888888</v>
+      </c>
+      <c r="D3083">
+        <v>0</v>
+      </c>
+      <c r="E3083">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3084" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3084" s="1">
+        <v>43487.536805555559</v>
+      </c>
+      <c r="D3084">
+        <v>0</v>
+      </c>
+      <c r="E3084">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3085" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3085" s="1">
+        <v>43487.547222222223</v>
+      </c>
+      <c r="D3085">
+        <v>0</v>
+      </c>
+      <c r="E3085">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3086" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3086" s="1">
+        <v>43487.557638888888</v>
+      </c>
+      <c r="D3086">
+        <v>0</v>
+      </c>
+      <c r="E3086">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3087" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3087" s="1">
+        <v>43487.570833333331</v>
+      </c>
+      <c r="D3087">
+        <v>1</v>
+      </c>
+      <c r="F3087">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3088" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3088" s="1">
+        <v>43487.579861111109</v>
+      </c>
+      <c r="D3088">
+        <v>0</v>
+      </c>
+      <c r="E3088">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3089" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3089" s="1">
+        <v>43487.590277777781</v>
+      </c>
+      <c r="D3089">
+        <v>0</v>
+      </c>
+      <c r="E3089">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3090" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3090" s="1">
+        <v>43487.600694444445</v>
+      </c>
+      <c r="D3090">
+        <v>0</v>
+      </c>
+      <c r="E3090">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3091" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3091" s="1">
+        <v>43487.611111111109</v>
+      </c>
+      <c r="D3091">
+        <v>0</v>
+      </c>
+      <c r="E3091">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3092" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3092" s="1">
+        <v>43487.621527777781</v>
+      </c>
+      <c r="D3092">
+        <v>0</v>
+      </c>
+      <c r="E3092">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3093" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3093" s="1">
+        <v>43487.631944444445</v>
+      </c>
+      <c r="D3093">
+        <v>0</v>
+      </c>
+      <c r="E3093">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3094" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3094" s="1">
+        <v>43487.642361111109</v>
+      </c>
+      <c r="D3094">
+        <v>0</v>
+      </c>
+      <c r="E3094">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3095" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3095" s="1">
+        <v>43487.652777777781</v>
+      </c>
+      <c r="D3095">
+        <v>0</v>
+      </c>
+      <c r="E3095">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3096" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3096" s="1">
+        <v>43487.663194444445</v>
+      </c>
+      <c r="D3096">
+        <v>0</v>
+      </c>
+      <c r="E3096">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3097" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3097" s="1">
+        <v>43487.673611111109</v>
+      </c>
+      <c r="D3097">
+        <v>0</v>
+      </c>
+      <c r="E3097">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3098" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3098" s="1">
+        <v>43487.684027777781</v>
+      </c>
+      <c r="D3098">
+        <v>0</v>
+      </c>
+      <c r="E3098">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3099" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3099" s="1">
+        <v>43487.694444444445</v>
+      </c>
+      <c r="D3099">
+        <v>0</v>
+      </c>
+      <c r="E3099">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3100" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3100" s="1">
+        <v>43487.704861111109</v>
+      </c>
+      <c r="D3100">
+        <v>0</v>
+      </c>
+      <c r="E3100">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3101" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3101" s="1">
+        <v>43487.715277777781</v>
+      </c>
+      <c r="D3101">
+        <v>0</v>
+      </c>
+      <c r="E3101">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3102" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3102" s="1">
+        <v>43487.725694444445</v>
+      </c>
+      <c r="D3102">
+        <v>0</v>
+      </c>
+      <c r="E3102">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3103" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3103" s="1">
+        <v>43487.734722222223</v>
+      </c>
+      <c r="D3103">
+        <v>1</v>
+      </c>
+      <c r="F3103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3104" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3104" s="1">
+        <v>43487.736111111109</v>
+      </c>
+      <c r="D3104">
+        <v>0</v>
+      </c>
+      <c r="E3104">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3105" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3105" s="1">
+        <v>43487.745833333334</v>
+      </c>
+      <c r="D3105">
+        <v>0</v>
+      </c>
+      <c r="E3105">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3106" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3106" s="1">
+        <v>43487.752083333333</v>
+      </c>
+      <c r="D3106">
+        <v>1</v>
+      </c>
+      <c r="F3106">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3107" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3107" s="1">
+        <v>43487.756249999999</v>
+      </c>
+      <c r="D3107">
+        <v>0</v>
+      </c>
+      <c r="E3107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3108" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3108" s="1">
+        <v>43487.767361111109</v>
+      </c>
+      <c r="D3108">
+        <v>0</v>
+      </c>
+      <c r="E3108">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3109" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3109" s="1">
+        <v>43487.771527777775</v>
+      </c>
+      <c r="D3109">
+        <v>1</v>
+      </c>
+      <c r="F3109">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3110" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3110" s="1">
+        <v>43487.777777777781</v>
+      </c>
+      <c r="D3110">
+        <v>0</v>
+      </c>
+      <c r="E3110">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3111" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3111" s="1">
+        <v>43487.788194444445</v>
+      </c>
+      <c r="D3111">
+        <v>0</v>
+      </c>
+      <c r="E3111">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3112" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3112" s="1">
+        <v>43487.798611111109</v>
+      </c>
+      <c r="D3112">
+        <v>0</v>
+      </c>
+      <c r="E3112">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3113" s="1">
+        <v>43487.809027777781</v>
+      </c>
+      <c r="D3113">
+        <v>0</v>
+      </c>
+      <c r="E3113">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3114" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3114" s="1">
+        <v>43487.819444444445</v>
+      </c>
+      <c r="D3114">
+        <v>0</v>
+      </c>
+      <c r="E3114">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3115" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3115" s="1">
+        <v>43487.827777777777</v>
+      </c>
+      <c r="D3115">
+        <v>1</v>
+      </c>
+      <c r="F3115">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3116" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3116" s="1">
+        <v>43487.829861111109</v>
+      </c>
+      <c r="D3116">
+        <v>0</v>
+      </c>
+      <c r="E3116">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3117" s="1">
+        <v>43487.840277777781</v>
+      </c>
+      <c r="D3117">
+        <v>0</v>
+      </c>
+      <c r="E3117">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3118" s="1">
+        <v>43487.850694444445</v>
+      </c>
+      <c r="D3118">
+        <v>0</v>
+      </c>
+      <c r="E3118">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3119" s="1">
+        <v>43487.861111111109</v>
+      </c>
+      <c r="D3119">
+        <v>0</v>
+      </c>
+      <c r="E3119">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3120" s="1">
+        <v>43487.863194444442</v>
+      </c>
+      <c r="D3120">
+        <v>1</v>
+      </c>
+      <c r="F3120">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3121" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3121" s="1">
+        <v>43487.871527777781</v>
+      </c>
+      <c r="D3121">
+        <v>0</v>
+      </c>
+      <c r="E3121">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3122" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3122" s="1">
+        <v>43487.87222222222</v>
+      </c>
+      <c r="D3122">
+        <v>1</v>
+      </c>
+      <c r="F3122">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3123" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3123" s="1">
+        <v>43487.877083333333</v>
+      </c>
+      <c r="D3123">
+        <v>1</v>
+      </c>
+      <c r="F3123">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3124" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3124" s="1">
+        <v>43487.881944444445</v>
+      </c>
+      <c r="D3124">
+        <v>0</v>
+      </c>
+      <c r="E3124">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3125" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3125" s="1">
+        <v>43487.892361111109</v>
+      </c>
+      <c r="D3125">
+        <v>0</v>
+      </c>
+      <c r="E3125">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3126" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3126" s="1">
+        <v>43487.896527777775</v>
+      </c>
+      <c r="D3126">
+        <v>1</v>
+      </c>
+      <c r="F3126">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3127" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3127" s="1">
+        <v>43487.896527777775</v>
+      </c>
+      <c r="D3127">
+        <v>6</v>
+      </c>
+      <c r="F3127" s="3">
+        <v>86</v>
+      </c>
+      <c r="N3127" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3128" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3128" s="1">
+        <v>43487.902777777781</v>
+      </c>
+      <c r="D3128">
+        <v>0</v>
+      </c>
+      <c r="E3128">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3129" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3129" s="1">
+        <v>43487.913194444445</v>
+      </c>
+      <c r="D3129">
+        <v>1</v>
+      </c>
+      <c r="F3129">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3130" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3130" s="1">
+        <v>43487.945833333331</v>
+      </c>
+      <c r="D3130">
+        <v>0</v>
+      </c>
+      <c r="E3130">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3131" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3131" s="1">
+        <v>43487.956250000003</v>
+      </c>
+      <c r="D3131">
+        <v>0</v>
+      </c>
+      <c r="E3131">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3132" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3132" s="1">
+        <v>43487.966666666667</v>
+      </c>
+      <c r="D3132">
+        <v>0</v>
+      </c>
+      <c r="E3132">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3133" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3133" s="1">
+        <v>43487.977083333331</v>
+      </c>
+      <c r="D3133">
+        <v>0</v>
+      </c>
+      <c r="E3133">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3134" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3134" s="1">
+        <v>43487.987500000003</v>
+      </c>
+      <c r="D3134">
+        <v>0</v>
+      </c>
+      <c r="E3134">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3135" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3135" s="1">
+        <v>43487.997916666667</v>
+      </c>
+      <c r="D3135">
+        <v>0</v>
+      </c>
+      <c r="E3135">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3136" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3136" s="1">
+        <v>43488.008333333331</v>
+      </c>
+      <c r="D3136">
+        <v>0</v>
+      </c>
+      <c r="E3136">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3137" s="1">
+        <v>43488.018750000003</v>
+      </c>
+      <c r="D3137">
+        <v>0</v>
+      </c>
+      <c r="E3137">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3138" s="1">
+        <v>43488.029166666667</v>
+      </c>
+      <c r="D3138">
+        <v>0</v>
+      </c>
+      <c r="E3138">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3139" s="1">
+        <v>43488.039583333331</v>
+      </c>
+      <c r="D3139">
+        <v>0</v>
+      </c>
+      <c r="E3139">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3140" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3140" s="1">
+        <v>43488.05</v>
+      </c>
+      <c r="D3140">
+        <v>0</v>
+      </c>
+      <c r="E3140">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3141" s="1">
+        <v>43488.060416666667</v>
+      </c>
+      <c r="D3141">
+        <v>0</v>
+      </c>
+      <c r="E3141">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3142" s="1">
+        <v>43488.070833333331</v>
+      </c>
+      <c r="D3142">
+        <v>0</v>
+      </c>
+      <c r="E3142">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3143" s="1">
+        <v>43488.081250000003</v>
+      </c>
+      <c r="D3143">
+        <v>0</v>
+      </c>
+      <c r="E3143">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3144" s="1">
+        <v>43488.091666666667</v>
+      </c>
+      <c r="D3144">
+        <v>0</v>
+      </c>
+      <c r="E3144">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3145" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3145" s="1">
+        <v>43488.102083333331</v>
+      </c>
+      <c r="D3145">
+        <v>0</v>
+      </c>
+      <c r="E3145">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3146" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3146" s="1">
+        <v>43488.112500000003</v>
+      </c>
+      <c r="D3146">
+        <v>0</v>
+      </c>
+      <c r="E3146">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3147" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3147" s="1">
+        <v>43488.122916666667</v>
+      </c>
+      <c r="D3147">
+        <v>0</v>
+      </c>
+      <c r="E3147">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3148" s="1">
+        <v>43488.133333333331</v>
+      </c>
+      <c r="D3148">
+        <v>0</v>
+      </c>
+      <c r="E3148">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3149" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3149" s="1">
+        <v>43488.143750000003</v>
+      </c>
+      <c r="D3149">
+        <v>0</v>
+      </c>
+      <c r="E3149">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3150" s="1">
+        <v>43488.154166666667</v>
+      </c>
+      <c r="D3150">
+        <v>0</v>
+      </c>
+      <c r="E3150">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3151" s="1">
+        <v>43488.164583333331</v>
+      </c>
+      <c r="D3151">
+        <v>0</v>
+      </c>
+      <c r="E3151">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3152" s="1">
+        <v>43488.175000000003</v>
+      </c>
+      <c r="D3152">
+        <v>0</v>
+      </c>
+      <c r="E3152">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3153" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3153" s="1">
+        <v>43488.185416666667</v>
+      </c>
+      <c r="D3153">
+        <v>0</v>
+      </c>
+      <c r="E3153">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3154" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3154" s="1">
+        <v>43488.195833333331</v>
+      </c>
+      <c r="D3154">
+        <v>0</v>
+      </c>
+      <c r="E3154">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3155" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3155" s="1">
+        <v>43488.206250000003</v>
+      </c>
+      <c r="D3155">
+        <v>0</v>
+      </c>
+      <c r="E3155">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3156" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3156" s="1">
+        <v>43488.216666666667</v>
+      </c>
+      <c r="D3156">
+        <v>0</v>
+      </c>
+      <c r="E3156">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3157" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3157" s="1">
+        <v>43488.227083333331</v>
+      </c>
+      <c r="D3157">
+        <v>0</v>
+      </c>
+      <c r="E3157">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3158" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3158" s="1">
+        <v>43488.237500000003</v>
+      </c>
+      <c r="D3158">
+        <v>0</v>
+      </c>
+      <c r="E3158">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3159" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3159" s="1">
+        <v>43488.247916666667</v>
+      </c>
+      <c r="D3159">
+        <v>0</v>
+      </c>
+      <c r="E3159">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3160" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3160" s="1">
+        <v>43488.258333333331</v>
+      </c>
+      <c r="D3160">
+        <v>0</v>
+      </c>
+      <c r="E3160">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3161" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3161" s="1">
+        <v>43488.268750000003</v>
+      </c>
+      <c r="D3161">
+        <v>0</v>
+      </c>
+      <c r="E3161">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3162" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3162" s="1">
+        <v>43488.271527777775</v>
+      </c>
+      <c r="D3162">
+        <v>1</v>
+      </c>
+      <c r="F3162">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3163" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3163" s="1">
+        <v>43488.279166666667</v>
+      </c>
+      <c r="D3163">
+        <v>1</v>
+      </c>
+      <c r="F3163">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3164" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3164" s="1">
+        <v>43488.279166666667</v>
+      </c>
+      <c r="D3164">
+        <v>0</v>
+      </c>
+      <c r="E3164">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3165" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3165" s="1">
+        <v>43488.289583333331</v>
+      </c>
+      <c r="D3165">
+        <v>0</v>
+      </c>
+      <c r="E3165">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3166" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3166" s="1">
+        <v>43488.3</v>
+      </c>
+      <c r="D3166">
+        <v>0</v>
+      </c>
+      <c r="E3166">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3167" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3167" s="1">
+        <v>43488.310416666667</v>
+      </c>
+      <c r="D3167">
+        <v>0</v>
+      </c>
+      <c r="E3167">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3168" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3168" s="1">
+        <v>43488.320833333331</v>
+      </c>
+      <c r="D3168">
+        <v>0</v>
+      </c>
+      <c r="E3168">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3169" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3169" s="1">
+        <v>43488.32916666667</v>
+      </c>
+      <c r="D3169">
+        <v>1</v>
+      </c>
+      <c r="F3169">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3170" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3170" s="1">
+        <v>43488.331250000003</v>
+      </c>
+      <c r="D3170">
+        <v>0</v>
+      </c>
+      <c r="E3170">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3171" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3171" s="1">
+        <v>43488.342361111114</v>
+      </c>
+      <c r="D3171">
+        <v>1</v>
+      </c>
+      <c r="F3171">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3172" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3172" s="1">
+        <v>43488.342361111114</v>
+      </c>
+      <c r="D3172">
+        <v>1</v>
+      </c>
+      <c r="F3172">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3173" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3173" s="1">
+        <v>43488.352777777778</v>
+      </c>
+      <c r="D3173">
+        <v>0</v>
+      </c>
+      <c r="E3173">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3174" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3174" s="1">
+        <v>43488.363194444442</v>
+      </c>
+      <c r="D3174">
+        <v>0</v>
+      </c>
+      <c r="E3174">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3175" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3175" s="1">
+        <v>43488.373611111114</v>
+      </c>
+      <c r="D3175">
+        <v>0</v>
+      </c>
+      <c r="E3175">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3176" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3176" s="1">
+        <v>43488.384027777778</v>
+      </c>
+      <c r="D3176">
+        <v>0</v>
+      </c>
+      <c r="E3176">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3177" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3177" s="1">
+        <v>43488.386111111111</v>
+      </c>
+      <c r="D3177">
+        <v>1</v>
+      </c>
+      <c r="F3177">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3178" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3178" s="1">
+        <v>43488.395833333336</v>
+      </c>
+      <c r="D3178">
+        <v>1</v>
+      </c>
+      <c r="F3178">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3179" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3179" s="1">
+        <v>43488.4</v>
+      </c>
+      <c r="D3179">
+        <v>1</v>
+      </c>
+      <c r="F3179">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3180" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3180" s="1">
+        <v>43488.401388888888</v>
+      </c>
+      <c r="D3180">
+        <v>1</v>
+      </c>
+      <c r="F3180">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/librelink/Librelink.xlsx
+++ b/librelink/Librelink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc6084b92ffa451/Sprague 2019/Health 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{1DF15EB1-8D61-6642-9AC4-0A049F576367}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6C5D4BB0-A8BA-FB40-A653-F5830FB7DCB3}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{1DF15EB1-8D61-6642-9AC4-0A049F576367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3A491F5F-A3B3-644E-8D42-249D0332B2F0}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="1640" windowWidth="17400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="1700" windowWidth="17400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Librelink" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="64">
   <si>
     <t>Meter</t>
   </si>
@@ -207,6 +208,18 @@
   </si>
   <si>
     <t>CBD</t>
+  </si>
+  <si>
+    <t>Blueberry smoothie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravioli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clam chowder </t>
+  </si>
+  <si>
+    <t>Pizza</t>
   </si>
 </sst>
 </file>
@@ -772,8 +785,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF602BB5-9469-1B45-BB1A-DFBEABAFCD1B}" name="Table1" displayName="Table1" ref="A1:S3180" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:S3180" xr:uid="{A8E95FAB-7D33-F24D-8350-CC174D759A60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF602BB5-9469-1B45-BB1A-DFBEABAFCD1B}" name="Table1" displayName="Table1" ref="A1:S3964" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:S3964" xr:uid="{A8E95FAB-7D33-F24D-8350-CC174D759A60}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{374D21D6-0283-C44B-8028-4060CB201675}" name="Meter"/>
     <tableColumn id="2" xr3:uid="{48610F22-94E8-1142-AF15-100D6756BE81}" name="Serial Number"/>
@@ -1096,12 +1109,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3180"/>
+  <dimension ref="A1:S3964"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3156" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3836" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D3178" sqref="D3178"/>
+      <selection pane="bottomLeft" activeCell="C3864" sqref="C3864:H3964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37726,6 +37739,8627 @@
         <v>83</v>
       </c>
     </row>
+    <row r="3181" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3181" s="1">
+        <v>43548.481249999997</v>
+      </c>
+      <c r="D3181">
+        <v>0</v>
+      </c>
+      <c r="E3181">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3182" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3182" s="1">
+        <v>43548.481249999997</v>
+      </c>
+      <c r="D3182">
+        <v>1</v>
+      </c>
+      <c r="F3182">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3183" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3183" s="1">
+        <v>43548.48541666667</v>
+      </c>
+      <c r="D3183">
+        <v>1</v>
+      </c>
+      <c r="F3183">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3184" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3184" s="1">
+        <v>43548.491666666669</v>
+      </c>
+      <c r="D3184">
+        <v>0</v>
+      </c>
+      <c r="E3184">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3185" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3185" s="1">
+        <v>43548.491666666669</v>
+      </c>
+      <c r="D3185">
+        <v>1</v>
+      </c>
+      <c r="F3185">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3186" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3186" s="1">
+        <v>43548.50277777778</v>
+      </c>
+      <c r="D3186">
+        <v>0</v>
+      </c>
+      <c r="E3186">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3187" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3187" s="1">
+        <v>43548.510416666664</v>
+      </c>
+      <c r="D3187">
+        <v>1</v>
+      </c>
+      <c r="F3187">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3188" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3188" s="1">
+        <v>43548.510416666664</v>
+      </c>
+      <c r="D3188">
+        <v>5</v>
+      </c>
+      <c r="I3188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3189" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3189" s="1">
+        <v>43548.510416666664</v>
+      </c>
+      <c r="D3189">
+        <v>6</v>
+      </c>
+      <c r="N3189" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3190" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3190" s="1">
+        <v>43548.513194444444</v>
+      </c>
+      <c r="D3190">
+        <v>0</v>
+      </c>
+      <c r="E3190">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3191" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3191" s="1">
+        <v>43548.517361111109</v>
+      </c>
+      <c r="D3191">
+        <v>1</v>
+      </c>
+      <c r="F3191">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3192" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3192" s="1">
+        <v>43548.523611111108</v>
+      </c>
+      <c r="D3192">
+        <v>0</v>
+      </c>
+      <c r="E3192">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3193" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3193" s="1">
+        <v>43548.524305555555</v>
+      </c>
+      <c r="D3193">
+        <v>1</v>
+      </c>
+      <c r="F3193">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3194" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3194" s="1">
+        <v>43548.529861111114</v>
+      </c>
+      <c r="D3194">
+        <v>1</v>
+      </c>
+      <c r="F3194">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3195" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3195" s="1">
+        <v>43548.53402777778</v>
+      </c>
+      <c r="D3195">
+        <v>0</v>
+      </c>
+      <c r="E3195">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3196" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3196" s="1">
+        <v>43548.537499999999</v>
+      </c>
+      <c r="D3196">
+        <v>1</v>
+      </c>
+      <c r="F3196">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3197" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3197" s="1">
+        <v>43548.540972222225</v>
+      </c>
+      <c r="D3197">
+        <v>1</v>
+      </c>
+      <c r="F3197">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3198" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3198" s="1">
+        <v>43548.544444444444</v>
+      </c>
+      <c r="D3198">
+        <v>0</v>
+      </c>
+      <c r="E3198">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3199" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3199" s="1">
+        <v>43548.550694444442</v>
+      </c>
+      <c r="D3199">
+        <v>1</v>
+      </c>
+      <c r="F3199">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3200" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3200" s="1">
+        <v>43548.554861111108</v>
+      </c>
+      <c r="D3200">
+        <v>0</v>
+      </c>
+      <c r="E3200">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3201" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3201" s="1">
+        <v>43548.561805555553</v>
+      </c>
+      <c r="D3201">
+        <v>1</v>
+      </c>
+      <c r="F3201">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3202" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3202" s="1">
+        <v>43548.56527777778</v>
+      </c>
+      <c r="D3202">
+        <v>0</v>
+      </c>
+      <c r="E3202">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3203" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3203" s="1">
+        <v>43548.575694444444</v>
+      </c>
+      <c r="D3203">
+        <v>1</v>
+      </c>
+      <c r="F3203">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3204" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3204" s="1">
+        <v>43548.576388888891</v>
+      </c>
+      <c r="D3204">
+        <v>0</v>
+      </c>
+      <c r="E3204">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3205" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3205" s="1">
+        <v>43548.586805555555</v>
+      </c>
+      <c r="D3205">
+        <v>0</v>
+      </c>
+      <c r="E3205">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3206" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3206" s="1">
+        <v>43548.592361111114</v>
+      </c>
+      <c r="D3206">
+        <v>1</v>
+      </c>
+      <c r="F3206">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3207" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3207" s="1">
+        <v>43548.597222222219</v>
+      </c>
+      <c r="D3207">
+        <v>0</v>
+      </c>
+      <c r="E3207">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3208" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3208" s="1">
+        <v>43548.607638888891</v>
+      </c>
+      <c r="D3208">
+        <v>0</v>
+      </c>
+      <c r="E3208">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3209" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3209" s="1">
+        <v>43548.618055555555</v>
+      </c>
+      <c r="D3209">
+        <v>1</v>
+      </c>
+      <c r="F3209">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3210" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3210" s="1">
+        <v>43548.618750000001</v>
+      </c>
+      <c r="D3210">
+        <v>0</v>
+      </c>
+      <c r="E3210">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3211" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3211" s="1">
+        <v>43548.629166666666</v>
+      </c>
+      <c r="D3211">
+        <v>0</v>
+      </c>
+      <c r="E3211">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3212" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3212" s="1">
+        <v>43548.63958333333</v>
+      </c>
+      <c r="D3212">
+        <v>0</v>
+      </c>
+      <c r="E3212">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3213" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3213" s="1">
+        <v>43548.65</v>
+      </c>
+      <c r="D3213">
+        <v>0</v>
+      </c>
+      <c r="E3213">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3214" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3214" s="1">
+        <v>43548.660416666666</v>
+      </c>
+      <c r="D3214">
+        <v>0</v>
+      </c>
+      <c r="E3214">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3215" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3215" s="1">
+        <v>43548.67083333333</v>
+      </c>
+      <c r="D3215">
+        <v>0</v>
+      </c>
+      <c r="E3215">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3216" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3216" s="1">
+        <v>43548.672222222223</v>
+      </c>
+      <c r="D3216">
+        <v>1</v>
+      </c>
+      <c r="F3216">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3217" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3217" s="1">
+        <v>43548.681250000001</v>
+      </c>
+      <c r="D3217">
+        <v>0</v>
+      </c>
+      <c r="E3217">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3218" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3218" s="1">
+        <v>43548.691666666666</v>
+      </c>
+      <c r="D3218">
+        <v>0</v>
+      </c>
+      <c r="E3218">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3219" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3219" s="1">
+        <v>43548.70208333333</v>
+      </c>
+      <c r="D3219">
+        <v>0</v>
+      </c>
+      <c r="E3219">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3220" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3220" s="1">
+        <v>43548.712500000001</v>
+      </c>
+      <c r="D3220">
+        <v>0</v>
+      </c>
+      <c r="E3220">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3221" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3221" s="1">
+        <v>43548.724305555559</v>
+      </c>
+      <c r="D3221">
+        <v>0</v>
+      </c>
+      <c r="E3221">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3222" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3222" s="1">
+        <v>43548.725694444445</v>
+      </c>
+      <c r="D3222">
+        <v>1</v>
+      </c>
+      <c r="F3222">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3223" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3223" s="1">
+        <v>43548.734722222223</v>
+      </c>
+      <c r="D3223">
+        <v>0</v>
+      </c>
+      <c r="E3223">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3224" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3224" s="1">
+        <v>43548.745138888888</v>
+      </c>
+      <c r="D3224">
+        <v>0</v>
+      </c>
+      <c r="E3224">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3225" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3225" s="1">
+        <v>43548.755555555559</v>
+      </c>
+      <c r="D3225">
+        <v>0</v>
+      </c>
+      <c r="E3225">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3226" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3226" s="1">
+        <v>43548.765972222223</v>
+      </c>
+      <c r="D3226">
+        <v>0</v>
+      </c>
+      <c r="E3226">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3227" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3227" s="1">
+        <v>43548.775694444441</v>
+      </c>
+      <c r="D3227">
+        <v>0</v>
+      </c>
+      <c r="E3227">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3228" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3228" s="1">
+        <v>43548.78125</v>
+      </c>
+      <c r="D3228">
+        <v>1</v>
+      </c>
+      <c r="F3228">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3229" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3229" s="1">
+        <v>43548.78125</v>
+      </c>
+      <c r="D3229">
+        <v>6</v>
+      </c>
+      <c r="N3229" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3230" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3230" s="1">
+        <v>43548.786111111112</v>
+      </c>
+      <c r="D3230">
+        <v>0</v>
+      </c>
+      <c r="E3230">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3231" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3231" s="1">
+        <v>43548.797222222223</v>
+      </c>
+      <c r="D3231">
+        <v>0</v>
+      </c>
+      <c r="E3231">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3232" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3232" s="1">
+        <v>43548.806250000001</v>
+      </c>
+      <c r="D3232">
+        <v>1</v>
+      </c>
+      <c r="F3232">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3233" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3233" s="1">
+        <v>43548.807638888888</v>
+      </c>
+      <c r="D3233">
+        <v>0</v>
+      </c>
+      <c r="E3233">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3234" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3234" s="1">
+        <v>43548.814583333333</v>
+      </c>
+      <c r="D3234">
+        <v>1</v>
+      </c>
+      <c r="F3234">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3235" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3235" s="1">
+        <v>43548.818055555559</v>
+      </c>
+      <c r="D3235">
+        <v>0</v>
+      </c>
+      <c r="E3235">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3236" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3236" s="1">
+        <v>43548.828472222223</v>
+      </c>
+      <c r="D3236">
+        <v>0</v>
+      </c>
+      <c r="E3236">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3237" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3237" s="1">
+        <v>43548.839583333334</v>
+      </c>
+      <c r="D3237">
+        <v>0</v>
+      </c>
+      <c r="E3237">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3238" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3238" s="1">
+        <v>43548.845138888886</v>
+      </c>
+      <c r="D3238">
+        <v>1</v>
+      </c>
+      <c r="F3238">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3239" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3239" s="1">
+        <v>43548.85</v>
+      </c>
+      <c r="D3239">
+        <v>0</v>
+      </c>
+      <c r="E3239">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3240" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3240" s="1">
+        <v>43548.86041666667</v>
+      </c>
+      <c r="D3240">
+        <v>0</v>
+      </c>
+      <c r="E3240">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3241" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3241" s="1">
+        <v>43548.873611111114</v>
+      </c>
+      <c r="D3241">
+        <v>1</v>
+      </c>
+      <c r="F3241">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3242" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3242" s="1">
+        <v>43548.915972222225</v>
+      </c>
+      <c r="D3242">
+        <v>0</v>
+      </c>
+      <c r="E3242">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3243" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3243" s="1">
+        <v>43548.926388888889</v>
+      </c>
+      <c r="D3243">
+        <v>0</v>
+      </c>
+      <c r="E3243">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3244" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3244" s="1">
+        <v>43548.936805555553</v>
+      </c>
+      <c r="D3244">
+        <v>0</v>
+      </c>
+      <c r="E3244">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3245" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3245" s="1">
+        <v>43548.947222222225</v>
+      </c>
+      <c r="D3245">
+        <v>0</v>
+      </c>
+      <c r="E3245">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3246" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3246" s="1">
+        <v>43548.957638888889</v>
+      </c>
+      <c r="D3246">
+        <v>0</v>
+      </c>
+      <c r="E3246">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3247" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3247" s="1">
+        <v>43548.968055555553</v>
+      </c>
+      <c r="D3247">
+        <v>0</v>
+      </c>
+      <c r="E3247">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3248" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3248" s="1">
+        <v>43548.978472222225</v>
+      </c>
+      <c r="D3248">
+        <v>0</v>
+      </c>
+      <c r="E3248">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3249" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3249" s="1">
+        <v>43548.988888888889</v>
+      </c>
+      <c r="D3249">
+        <v>0</v>
+      </c>
+      <c r="E3249">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3250" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3250" s="1">
+        <v>43548.999305555553</v>
+      </c>
+      <c r="D3250">
+        <v>0</v>
+      </c>
+      <c r="E3250">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3251" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3251" s="1">
+        <v>43549.009722222225</v>
+      </c>
+      <c r="D3251">
+        <v>0</v>
+      </c>
+      <c r="E3251">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3252" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3252" s="1">
+        <v>43549.020138888889</v>
+      </c>
+      <c r="D3252">
+        <v>0</v>
+      </c>
+      <c r="E3252">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3253" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3253" s="1">
+        <v>43549.030555555553</v>
+      </c>
+      <c r="D3253">
+        <v>0</v>
+      </c>
+      <c r="E3253">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3254" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3254" s="1">
+        <v>43549.040972222225</v>
+      </c>
+      <c r="D3254">
+        <v>0</v>
+      </c>
+      <c r="E3254">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3255" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3255" s="1">
+        <v>43549.051388888889</v>
+      </c>
+      <c r="D3255">
+        <v>0</v>
+      </c>
+      <c r="E3255">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3256" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3256" s="1">
+        <v>43549.061805555553</v>
+      </c>
+      <c r="D3256">
+        <v>0</v>
+      </c>
+      <c r="E3256">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3257" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3257" s="1">
+        <v>43549.072222222225</v>
+      </c>
+      <c r="D3257">
+        <v>0</v>
+      </c>
+      <c r="E3257">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3258" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3258" s="1">
+        <v>43549.082638888889</v>
+      </c>
+      <c r="D3258">
+        <v>0</v>
+      </c>
+      <c r="E3258">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3259" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3259" s="1">
+        <v>43549.093055555553</v>
+      </c>
+      <c r="D3259">
+        <v>0</v>
+      </c>
+      <c r="E3259">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3260" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3260" s="1">
+        <v>43549.103472222225</v>
+      </c>
+      <c r="D3260">
+        <v>0</v>
+      </c>
+      <c r="E3260">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3261" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3261" s="1">
+        <v>43549.113888888889</v>
+      </c>
+      <c r="D3261">
+        <v>0</v>
+      </c>
+      <c r="E3261">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3262" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3262" s="1">
+        <v>43549.124305555553</v>
+      </c>
+      <c r="D3262">
+        <v>0</v>
+      </c>
+      <c r="E3262">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3263" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3263" s="1">
+        <v>43549.134722222225</v>
+      </c>
+      <c r="D3263">
+        <v>0</v>
+      </c>
+      <c r="E3263">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3264" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3264" s="1">
+        <v>43549.145138888889</v>
+      </c>
+      <c r="D3264">
+        <v>0</v>
+      </c>
+      <c r="E3264">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3265" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3265" s="1">
+        <v>43549.155555555553</v>
+      </c>
+      <c r="D3265">
+        <v>0</v>
+      </c>
+      <c r="E3265">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3266" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3266" s="1">
+        <v>43549.165972222225</v>
+      </c>
+      <c r="D3266">
+        <v>0</v>
+      </c>
+      <c r="E3266">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3267" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3267" s="1">
+        <v>43549.176388888889</v>
+      </c>
+      <c r="D3267">
+        <v>0</v>
+      </c>
+      <c r="E3267">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3268" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3268" s="1">
+        <v>43549.186805555553</v>
+      </c>
+      <c r="D3268">
+        <v>0</v>
+      </c>
+      <c r="E3268">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3269" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3269" s="1">
+        <v>43549.197222222225</v>
+      </c>
+      <c r="D3269">
+        <v>0</v>
+      </c>
+      <c r="E3269">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3270" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3270" s="1">
+        <v>43549.207638888889</v>
+      </c>
+      <c r="D3270">
+        <v>0</v>
+      </c>
+      <c r="E3270">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3271" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3271" s="1">
+        <v>43549.218055555553</v>
+      </c>
+      <c r="D3271">
+        <v>0</v>
+      </c>
+      <c r="E3271">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3272" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3272" s="1">
+        <v>43549.228472222225</v>
+      </c>
+      <c r="D3272">
+        <v>0</v>
+      </c>
+      <c r="E3272">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3273" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3273" s="1">
+        <v>43549.239583333336</v>
+      </c>
+      <c r="D3273">
+        <v>0</v>
+      </c>
+      <c r="E3273">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3274" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3274" s="1">
+        <v>43549.246527777781</v>
+      </c>
+      <c r="D3274">
+        <v>1</v>
+      </c>
+      <c r="F3274">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3275" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3275" s="1">
+        <v>43549.25</v>
+      </c>
+      <c r="D3275">
+        <v>0</v>
+      </c>
+      <c r="E3275">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3276" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3276" s="1">
+        <v>43549.260416666664</v>
+      </c>
+      <c r="D3276">
+        <v>0</v>
+      </c>
+      <c r="E3276">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3277" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3277" s="1">
+        <v>43549.270833333336</v>
+      </c>
+      <c r="D3277">
+        <v>0</v>
+      </c>
+      <c r="E3277">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3278" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3278" s="1">
+        <v>43549.281944444447</v>
+      </c>
+      <c r="D3278">
+        <v>0</v>
+      </c>
+      <c r="E3278">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3279" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3279" s="1">
+        <v>43549.283333333333</v>
+      </c>
+      <c r="D3279">
+        <v>1</v>
+      </c>
+      <c r="F3279">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3280" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3280" s="1">
+        <v>43549.292361111111</v>
+      </c>
+      <c r="D3280">
+        <v>0</v>
+      </c>
+      <c r="E3280">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3281" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3281" s="1">
+        <v>43549.302777777775</v>
+      </c>
+      <c r="D3281">
+        <v>0</v>
+      </c>
+      <c r="E3281">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3282" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3282" s="1">
+        <v>43549.313194444447</v>
+      </c>
+      <c r="D3282">
+        <v>0</v>
+      </c>
+      <c r="E3282">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3283" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3283" s="1">
+        <v>43549.323611111111</v>
+      </c>
+      <c r="D3283">
+        <v>0</v>
+      </c>
+      <c r="E3283">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3284" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3284" s="1">
+        <v>43549.334027777775</v>
+      </c>
+      <c r="D3284">
+        <v>0</v>
+      </c>
+      <c r="E3284">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3285" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3285" s="1">
+        <v>43549.344444444447</v>
+      </c>
+      <c r="D3285">
+        <v>0</v>
+      </c>
+      <c r="E3285">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3286" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3286" s="1">
+        <v>43549.354861111111</v>
+      </c>
+      <c r="D3286">
+        <v>0</v>
+      </c>
+      <c r="E3286">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3287" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3287" s="1">
+        <v>43549.365277777775</v>
+      </c>
+      <c r="D3287">
+        <v>0</v>
+      </c>
+      <c r="E3287">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3288" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3288" s="1">
+        <v>43549.375694444447</v>
+      </c>
+      <c r="D3288">
+        <v>0</v>
+      </c>
+      <c r="E3288">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3289" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3289" s="1">
+        <v>43549.386805555558</v>
+      </c>
+      <c r="D3289">
+        <v>0</v>
+      </c>
+      <c r="E3289">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3290" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3290" s="1">
+        <v>43549.388194444444</v>
+      </c>
+      <c r="D3290">
+        <v>1</v>
+      </c>
+      <c r="F3290">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3291" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3291" s="1">
+        <v>43549.397222222222</v>
+      </c>
+      <c r="D3291">
+        <v>0</v>
+      </c>
+      <c r="E3291">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3292" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3292" s="1">
+        <v>43549.407638888886</v>
+      </c>
+      <c r="D3292">
+        <v>0</v>
+      </c>
+      <c r="E3292">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3293" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3293" s="1">
+        <v>43549.418055555558</v>
+      </c>
+      <c r="D3293">
+        <v>0</v>
+      </c>
+      <c r="E3293">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3294" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3294" s="1">
+        <v>43549.428472222222</v>
+      </c>
+      <c r="D3294">
+        <v>0</v>
+      </c>
+      <c r="E3294">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3295" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3295" s="1">
+        <v>43549.439583333333</v>
+      </c>
+      <c r="D3295">
+        <v>0</v>
+      </c>
+      <c r="E3295">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3296" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3296" s="1">
+        <v>43549.442361111112</v>
+      </c>
+      <c r="D3296">
+        <v>1</v>
+      </c>
+      <c r="F3296">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3297" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3297" s="1">
+        <v>43549.442361111112</v>
+      </c>
+      <c r="D3297">
+        <v>1</v>
+      </c>
+      <c r="F3297">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3298" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3298" s="1">
+        <v>43549.443055555559</v>
+      </c>
+      <c r="D3298">
+        <v>1</v>
+      </c>
+      <c r="F3298">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3299" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3299" s="1">
+        <v>43549.45</v>
+      </c>
+      <c r="D3299">
+        <v>0</v>
+      </c>
+      <c r="E3299">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3300" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3300" s="1">
+        <v>43549.460416666669</v>
+      </c>
+      <c r="D3300">
+        <v>0</v>
+      </c>
+      <c r="E3300">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3301" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3301" s="1">
+        <v>43549.470833333333</v>
+      </c>
+      <c r="D3301">
+        <v>0</v>
+      </c>
+      <c r="E3301">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3302" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3302" s="1">
+        <v>43549.481249999997</v>
+      </c>
+      <c r="D3302">
+        <v>0</v>
+      </c>
+      <c r="E3302">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3303" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3303" s="1">
+        <v>43549.491666666669</v>
+      </c>
+      <c r="D3303">
+        <v>0</v>
+      </c>
+      <c r="E3303">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3304" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3304" s="1">
+        <v>43549.502083333333</v>
+      </c>
+      <c r="D3304">
+        <v>0</v>
+      </c>
+      <c r="E3304">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3305" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3305" s="1">
+        <v>43549.512499999997</v>
+      </c>
+      <c r="D3305">
+        <v>0</v>
+      </c>
+      <c r="E3305">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3306" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3306" s="1">
+        <v>43549.522916666669</v>
+      </c>
+      <c r="D3306">
+        <v>0</v>
+      </c>
+      <c r="E3306">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3307" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3307" s="1">
+        <v>43549.533333333333</v>
+      </c>
+      <c r="D3307">
+        <v>0</v>
+      </c>
+      <c r="E3307">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3308" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3308" s="1">
+        <v>43549.543749999997</v>
+      </c>
+      <c r="D3308">
+        <v>0</v>
+      </c>
+      <c r="E3308">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3309" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3309" s="1">
+        <v>43549.554166666669</v>
+      </c>
+      <c r="D3309">
+        <v>0</v>
+      </c>
+      <c r="E3309">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3310" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3310" s="1">
+        <v>43549.564583333333</v>
+      </c>
+      <c r="D3310">
+        <v>0</v>
+      </c>
+      <c r="E3310">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3311" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3311" s="1">
+        <v>43549.574999999997</v>
+      </c>
+      <c r="D3311">
+        <v>0</v>
+      </c>
+      <c r="E3311">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3312" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3312" s="1">
+        <v>43549.586111111108</v>
+      </c>
+      <c r="D3312">
+        <v>0</v>
+      </c>
+      <c r="E3312">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3313" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3313" s="1">
+        <v>43549.590277777781</v>
+      </c>
+      <c r="D3313">
+        <v>1</v>
+      </c>
+      <c r="F3313">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3314" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3314" s="1">
+        <v>43549.59652777778</v>
+      </c>
+      <c r="D3314">
+        <v>0</v>
+      </c>
+      <c r="E3314">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3315" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3315" s="1">
+        <v>43549.598611111112</v>
+      </c>
+      <c r="D3315">
+        <v>1</v>
+      </c>
+      <c r="F3315">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3316" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3316" s="1">
+        <v>43549.606944444444</v>
+      </c>
+      <c r="D3316">
+        <v>0</v>
+      </c>
+      <c r="E3316">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3317" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3317" s="1">
+        <v>43549.617361111108</v>
+      </c>
+      <c r="D3317">
+        <v>0</v>
+      </c>
+      <c r="E3317">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3318" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3318" s="1">
+        <v>43549.62777777778</v>
+      </c>
+      <c r="D3318">
+        <v>1</v>
+      </c>
+      <c r="F3318">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3319" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3319" s="1">
+        <v>43549.628472222219</v>
+      </c>
+      <c r="D3319">
+        <v>0</v>
+      </c>
+      <c r="E3319">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3320" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3320" s="1">
+        <v>43549.629166666666</v>
+      </c>
+      <c r="D3320">
+        <v>1</v>
+      </c>
+      <c r="F3320">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3321" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3321" s="1">
+        <v>43549.638888888891</v>
+      </c>
+      <c r="D3321">
+        <v>0</v>
+      </c>
+      <c r="E3321">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3322" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3322" s="1">
+        <v>43549.649305555555</v>
+      </c>
+      <c r="D3322">
+        <v>0</v>
+      </c>
+      <c r="E3322">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3323" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3323" s="1">
+        <v>43549.659722222219</v>
+      </c>
+      <c r="D3323">
+        <v>0</v>
+      </c>
+      <c r="E3323">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3324" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3324" s="1">
+        <v>43549.670138888891</v>
+      </c>
+      <c r="D3324">
+        <v>0</v>
+      </c>
+      <c r="E3324">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3325" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3325" s="1">
+        <v>43549.680555555555</v>
+      </c>
+      <c r="D3325">
+        <v>0</v>
+      </c>
+      <c r="E3325">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3326" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3326" s="1">
+        <v>43549.690972222219</v>
+      </c>
+      <c r="D3326">
+        <v>0</v>
+      </c>
+      <c r="E3326">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3327" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3327" s="1">
+        <v>43549.701388888891</v>
+      </c>
+      <c r="D3327">
+        <v>0</v>
+      </c>
+      <c r="E3327">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3328" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3328" s="1">
+        <v>43549.711805555555</v>
+      </c>
+      <c r="D3328">
+        <v>0</v>
+      </c>
+      <c r="E3328">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3329" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3329" s="1">
+        <v>43549.722222222219</v>
+      </c>
+      <c r="D3329">
+        <v>0</v>
+      </c>
+      <c r="E3329">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3330" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3330" s="1">
+        <v>43549.73333333333</v>
+      </c>
+      <c r="D3330">
+        <v>0</v>
+      </c>
+      <c r="E3330">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3331" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3331" s="1">
+        <v>43549.73541666667</v>
+      </c>
+      <c r="D3331">
+        <v>1</v>
+      </c>
+      <c r="F3331">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3332" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3332" s="1">
+        <v>43549.743750000001</v>
+      </c>
+      <c r="D3332">
+        <v>0</v>
+      </c>
+      <c r="E3332">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3333" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3333" s="1">
+        <v>43549.754166666666</v>
+      </c>
+      <c r="D3333">
+        <v>0</v>
+      </c>
+      <c r="E3333">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3334" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3334" s="1">
+        <v>43549.754861111112</v>
+      </c>
+      <c r="D3334">
+        <v>1</v>
+      </c>
+      <c r="F3334">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3335" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3335" s="1">
+        <v>43549.76458333333</v>
+      </c>
+      <c r="D3335">
+        <v>0</v>
+      </c>
+      <c r="E3335">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3336" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3336" s="1">
+        <v>43549.775694444441</v>
+      </c>
+      <c r="D3336">
+        <v>0</v>
+      </c>
+      <c r="E3336">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3337" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3337" s="1">
+        <v>43549.77847222222</v>
+      </c>
+      <c r="D3337">
+        <v>1</v>
+      </c>
+      <c r="F3337">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3338" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3338" s="1">
+        <v>43549.786111111112</v>
+      </c>
+      <c r="D3338">
+        <v>0</v>
+      </c>
+      <c r="E3338">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3339" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3339" s="1">
+        <v>43549.796527777777</v>
+      </c>
+      <c r="D3339">
+        <v>0</v>
+      </c>
+      <c r="E3339">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3340" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3340" s="1">
+        <v>43549.806944444441</v>
+      </c>
+      <c r="D3340">
+        <v>0</v>
+      </c>
+      <c r="E3340">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3341" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3341" s="1">
+        <v>43549.811111111114</v>
+      </c>
+      <c r="D3341">
+        <v>1</v>
+      </c>
+      <c r="F3341">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3342" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3342" s="1">
+        <v>43549.817361111112</v>
+      </c>
+      <c r="D3342">
+        <v>0</v>
+      </c>
+      <c r="E3342">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3343" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3343" s="1">
+        <v>43549.827777777777</v>
+      </c>
+      <c r="D3343">
+        <v>0</v>
+      </c>
+      <c r="E3343">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3344" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3344" s="1">
+        <v>43549.838194444441</v>
+      </c>
+      <c r="D3344">
+        <v>0</v>
+      </c>
+      <c r="E3344">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3345" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3345" s="1">
+        <v>43549.848611111112</v>
+      </c>
+      <c r="D3345">
+        <v>0</v>
+      </c>
+      <c r="E3345">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3346" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3346" s="1">
+        <v>43549.859027777777</v>
+      </c>
+      <c r="D3346">
+        <v>0</v>
+      </c>
+      <c r="E3346">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3347" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3347" s="1">
+        <v>43549.866666666669</v>
+      </c>
+      <c r="D3347">
+        <v>1</v>
+      </c>
+      <c r="F3347">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3348" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3348" s="1">
+        <v>43549.871527777781</v>
+      </c>
+      <c r="D3348">
+        <v>0</v>
+      </c>
+      <c r="E3348">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3349" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3349" s="1">
+        <v>43549.872916666667</v>
+      </c>
+      <c r="D3349">
+        <v>1</v>
+      </c>
+      <c r="F3349">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3350" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3350" s="1">
+        <v>43549.881944444445</v>
+      </c>
+      <c r="D3350">
+        <v>0</v>
+      </c>
+      <c r="E3350">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3351" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3351" s="1">
+        <v>43549.892361111109</v>
+      </c>
+      <c r="D3351">
+        <v>0</v>
+      </c>
+      <c r="E3351">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3352" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3352" s="1">
+        <v>43549.902777777781</v>
+      </c>
+      <c r="D3352">
+        <v>0</v>
+      </c>
+      <c r="E3352">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3353" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3353" s="1">
+        <v>43549.913194444445</v>
+      </c>
+      <c r="D3353">
+        <v>0</v>
+      </c>
+      <c r="E3353">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3354" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3354" s="1">
+        <v>43549.923611111109</v>
+      </c>
+      <c r="D3354">
+        <v>0</v>
+      </c>
+      <c r="E3354">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3355" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3355" s="1">
+        <v>43549.934027777781</v>
+      </c>
+      <c r="D3355">
+        <v>0</v>
+      </c>
+      <c r="E3355">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3356" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3356" s="1">
+        <v>43549.944444444445</v>
+      </c>
+      <c r="D3356">
+        <v>0</v>
+      </c>
+      <c r="E3356">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3357" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3357" s="1">
+        <v>43549.954861111109</v>
+      </c>
+      <c r="D3357">
+        <v>0</v>
+      </c>
+      <c r="E3357">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3358" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3358" s="1">
+        <v>43549.965277777781</v>
+      </c>
+      <c r="D3358">
+        <v>0</v>
+      </c>
+      <c r="E3358">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3359" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3359" s="1">
+        <v>43549.975694444445</v>
+      </c>
+      <c r="D3359">
+        <v>0</v>
+      </c>
+      <c r="E3359">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3360" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3360" s="1">
+        <v>43549.986111111109</v>
+      </c>
+      <c r="D3360">
+        <v>0</v>
+      </c>
+      <c r="E3360">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3361" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3361" s="1">
+        <v>43549.996527777781</v>
+      </c>
+      <c r="D3361">
+        <v>0</v>
+      </c>
+      <c r="E3361">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3362" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3362" s="1">
+        <v>43550.006944444445</v>
+      </c>
+      <c r="D3362">
+        <v>0</v>
+      </c>
+      <c r="E3362">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3363" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3363" s="1">
+        <v>43550.017361111109</v>
+      </c>
+      <c r="D3363">
+        <v>0</v>
+      </c>
+      <c r="E3363">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3364" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3364" s="1">
+        <v>43550.027777777781</v>
+      </c>
+      <c r="D3364">
+        <v>0</v>
+      </c>
+      <c r="E3364">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3365" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3365" s="1">
+        <v>43550.040277777778</v>
+      </c>
+      <c r="D3365">
+        <v>0</v>
+      </c>
+      <c r="E3365">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3366" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3366" s="1">
+        <v>43550.043055555558</v>
+      </c>
+      <c r="D3366">
+        <v>1</v>
+      </c>
+      <c r="F3366">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3367" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3367" s="1">
+        <v>43550.050694444442</v>
+      </c>
+      <c r="D3367">
+        <v>0</v>
+      </c>
+      <c r="E3367">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3368" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3368" s="1">
+        <v>43550.061111111114</v>
+      </c>
+      <c r="D3368">
+        <v>0</v>
+      </c>
+      <c r="E3368">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3369" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3369" s="1">
+        <v>43550.071527777778</v>
+      </c>
+      <c r="D3369">
+        <v>0</v>
+      </c>
+      <c r="E3369">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3370" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3370" s="1">
+        <v>43550.081944444442</v>
+      </c>
+      <c r="D3370">
+        <v>0</v>
+      </c>
+      <c r="E3370">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3371" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3371" s="1">
+        <v>43550.092361111114</v>
+      </c>
+      <c r="D3371">
+        <v>0</v>
+      </c>
+      <c r="E3371">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3372" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3372" s="1">
+        <v>43550.102777777778</v>
+      </c>
+      <c r="D3372">
+        <v>0</v>
+      </c>
+      <c r="E3372">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3373" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3373" s="1">
+        <v>43550.113194444442</v>
+      </c>
+      <c r="D3373">
+        <v>0</v>
+      </c>
+      <c r="E3373">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3374" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3374" s="1">
+        <v>43550.123611111114</v>
+      </c>
+      <c r="D3374">
+        <v>0</v>
+      </c>
+      <c r="E3374">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3375" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3375" s="1">
+        <v>43550.134027777778</v>
+      </c>
+      <c r="D3375">
+        <v>0</v>
+      </c>
+      <c r="E3375">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3376" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3376" s="1">
+        <v>43550.144444444442</v>
+      </c>
+      <c r="D3376">
+        <v>0</v>
+      </c>
+      <c r="E3376">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3377" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3377" s="1">
+        <v>43550.154861111114</v>
+      </c>
+      <c r="D3377">
+        <v>0</v>
+      </c>
+      <c r="E3377">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3378" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3378" s="1">
+        <v>43550.165277777778</v>
+      </c>
+      <c r="D3378">
+        <v>0</v>
+      </c>
+      <c r="E3378">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3379" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3379" s="1">
+        <v>43550.175694444442</v>
+      </c>
+      <c r="D3379">
+        <v>0</v>
+      </c>
+      <c r="E3379">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3380" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3380" s="1">
+        <v>43550.186111111114</v>
+      </c>
+      <c r="D3380">
+        <v>0</v>
+      </c>
+      <c r="E3380">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3381" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3381" s="1">
+        <v>43550.196527777778</v>
+      </c>
+      <c r="D3381">
+        <v>0</v>
+      </c>
+      <c r="E3381">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3382" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3382" s="1">
+        <v>43550.206944444442</v>
+      </c>
+      <c r="D3382">
+        <v>0</v>
+      </c>
+      <c r="E3382">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3383" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3383" s="1">
+        <v>43550.217361111114</v>
+      </c>
+      <c r="D3383">
+        <v>0</v>
+      </c>
+      <c r="E3383">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3384" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3384" s="1">
+        <v>43550.227777777778</v>
+      </c>
+      <c r="D3384">
+        <v>0</v>
+      </c>
+      <c r="E3384">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3385" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3385" s="1">
+        <v>43550.238194444442</v>
+      </c>
+      <c r="D3385">
+        <v>0</v>
+      </c>
+      <c r="E3385">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3386" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3386" s="1">
+        <v>43550.248611111114</v>
+      </c>
+      <c r="D3386">
+        <v>1</v>
+      </c>
+      <c r="F3386">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3387" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3387" s="1">
+        <v>43550.249305555553</v>
+      </c>
+      <c r="D3387">
+        <v>0</v>
+      </c>
+      <c r="E3387">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3388" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3388" s="1">
+        <v>43550.252083333333</v>
+      </c>
+      <c r="D3388">
+        <v>1</v>
+      </c>
+      <c r="F3388">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3389" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3389" s="1">
+        <v>43550.253472222219</v>
+      </c>
+      <c r="D3389">
+        <v>1</v>
+      </c>
+      <c r="F3389">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3390" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3390" s="1">
+        <v>43550.259722222225</v>
+      </c>
+      <c r="D3390">
+        <v>0</v>
+      </c>
+      <c r="E3390">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3391" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3391" s="1">
+        <v>43550.270138888889</v>
+      </c>
+      <c r="D3391">
+        <v>0</v>
+      </c>
+      <c r="E3391">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3392" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3392" s="1">
+        <v>43550.280555555553</v>
+      </c>
+      <c r="D3392">
+        <v>0</v>
+      </c>
+      <c r="E3392">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3393" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3393" s="1">
+        <v>43550.290972222225</v>
+      </c>
+      <c r="D3393">
+        <v>0</v>
+      </c>
+      <c r="E3393">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3394" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3394" s="1">
+        <v>43550.298611111109</v>
+      </c>
+      <c r="D3394">
+        <v>1</v>
+      </c>
+      <c r="F3394">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3395" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3395" s="1">
+        <v>43550.299305555556</v>
+      </c>
+      <c r="D3395">
+        <v>1</v>
+      </c>
+      <c r="F3395">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3396" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3396" s="1">
+        <v>43550.301388888889</v>
+      </c>
+      <c r="D3396">
+        <v>0</v>
+      </c>
+      <c r="E3396">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3397" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3397" s="1">
+        <v>43550.311805555553</v>
+      </c>
+      <c r="D3397">
+        <v>0</v>
+      </c>
+      <c r="E3397">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3398" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3398" s="1">
+        <v>43550.319444444445</v>
+      </c>
+      <c r="D3398">
+        <v>1</v>
+      </c>
+      <c r="F3398">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3399" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3399" s="1">
+        <v>43550.320833333331</v>
+      </c>
+      <c r="D3399">
+        <v>1</v>
+      </c>
+      <c r="F3399">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3400" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3400" s="1">
+        <v>43550.322916666664</v>
+      </c>
+      <c r="D3400">
+        <v>1</v>
+      </c>
+      <c r="F3400">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3401" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3401" s="1">
+        <v>43550.322916666664</v>
+      </c>
+      <c r="D3401">
+        <v>0</v>
+      </c>
+      <c r="E3401">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3402" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3402" s="1">
+        <v>43550.333333333336</v>
+      </c>
+      <c r="D3402">
+        <v>0</v>
+      </c>
+      <c r="E3402">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3403" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3403" s="1">
+        <v>43550.34375</v>
+      </c>
+      <c r="D3403">
+        <v>0</v>
+      </c>
+      <c r="E3403">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3404" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3404" s="1">
+        <v>43550.354166666664</v>
+      </c>
+      <c r="D3404">
+        <v>0</v>
+      </c>
+      <c r="E3404">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3405" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3405" s="1">
+        <v>43550.364583333336</v>
+      </c>
+      <c r="D3405">
+        <v>0</v>
+      </c>
+      <c r="E3405">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3406" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3406" s="1">
+        <v>43550.375</v>
+      </c>
+      <c r="D3406">
+        <v>0</v>
+      </c>
+      <c r="E3406">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3407" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3407" s="1">
+        <v>43550.385416666664</v>
+      </c>
+      <c r="D3407">
+        <v>0</v>
+      </c>
+      <c r="E3407">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3408" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3408" s="1">
+        <v>43550.390972222223</v>
+      </c>
+      <c r="D3408">
+        <v>1</v>
+      </c>
+      <c r="F3408">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3409" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3409" s="1">
+        <v>43550.395833333336</v>
+      </c>
+      <c r="D3409">
+        <v>0</v>
+      </c>
+      <c r="E3409">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3410" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3410" s="1">
+        <v>43550.40625</v>
+      </c>
+      <c r="D3410">
+        <v>0</v>
+      </c>
+      <c r="E3410">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3411" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3411" s="1">
+        <v>43550.416666666664</v>
+      </c>
+      <c r="D3411">
+        <v>0</v>
+      </c>
+      <c r="E3411">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3412" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3412" s="1">
+        <v>43550.427083333336</v>
+      </c>
+      <c r="D3412">
+        <v>0</v>
+      </c>
+      <c r="E3412">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3413" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3413" s="1">
+        <v>43550.438194444447</v>
+      </c>
+      <c r="D3413">
+        <v>0</v>
+      </c>
+      <c r="E3413">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3414" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3414" s="1">
+        <v>43550.439583333333</v>
+      </c>
+      <c r="D3414">
+        <v>1</v>
+      </c>
+      <c r="F3414">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3415" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3415" s="1">
+        <v>43550.448611111111</v>
+      </c>
+      <c r="D3415">
+        <v>0</v>
+      </c>
+      <c r="E3415">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3416" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3416" s="1">
+        <v>43550.459027777775</v>
+      </c>
+      <c r="D3416">
+        <v>0</v>
+      </c>
+      <c r="E3416">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3417" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3417" s="1">
+        <v>43550.469444444447</v>
+      </c>
+      <c r="D3417">
+        <v>0</v>
+      </c>
+      <c r="E3417">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3418" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3418" s="1">
+        <v>43550.479861111111</v>
+      </c>
+      <c r="D3418">
+        <v>0</v>
+      </c>
+      <c r="E3418">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3419" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3419" s="1">
+        <v>43550.490277777775</v>
+      </c>
+      <c r="D3419">
+        <v>1</v>
+      </c>
+      <c r="F3419">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3420" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3420" s="1">
+        <v>43550.490277777775</v>
+      </c>
+      <c r="D3420">
+        <v>0</v>
+      </c>
+      <c r="E3420">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3421" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3421" s="1">
+        <v>43550.501388888886</v>
+      </c>
+      <c r="D3421">
+        <v>0</v>
+      </c>
+      <c r="E3421">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3422" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3422" s="1">
+        <v>43550.510416666664</v>
+      </c>
+      <c r="D3422">
+        <v>1</v>
+      </c>
+      <c r="F3422">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3423" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3423" s="1">
+        <v>43550.511805555558</v>
+      </c>
+      <c r="D3423">
+        <v>0</v>
+      </c>
+      <c r="E3423">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3424" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3424" s="1">
+        <v>43550.522222222222</v>
+      </c>
+      <c r="D3424">
+        <v>0</v>
+      </c>
+      <c r="E3424">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3425" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3425" s="1">
+        <v>43550.523611111108</v>
+      </c>
+      <c r="D3425">
+        <v>1</v>
+      </c>
+      <c r="F3425">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3426" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3426" s="1">
+        <v>43550.524305555555</v>
+      </c>
+      <c r="D3426">
+        <v>1</v>
+      </c>
+      <c r="F3426">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3427" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3427" s="1">
+        <v>43550.532638888886</v>
+      </c>
+      <c r="D3427">
+        <v>0</v>
+      </c>
+      <c r="E3427">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3428" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3428" s="1">
+        <v>43550.540972222225</v>
+      </c>
+      <c r="D3428">
+        <v>1</v>
+      </c>
+      <c r="F3428">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3429" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3429" s="1">
+        <v>43550.543055555558</v>
+      </c>
+      <c r="D3429">
+        <v>0</v>
+      </c>
+      <c r="E3429">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3430" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3430" s="1">
+        <v>43550.553472222222</v>
+      </c>
+      <c r="D3430">
+        <v>0</v>
+      </c>
+      <c r="E3430">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3431" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3431" s="1">
+        <v>43550.563888888886</v>
+      </c>
+      <c r="D3431">
+        <v>0</v>
+      </c>
+      <c r="E3431">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3432" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3432" s="1">
+        <v>43550.574999999997</v>
+      </c>
+      <c r="D3432">
+        <v>0</v>
+      </c>
+      <c r="E3432">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3433" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3433" s="1">
+        <v>43550.584027777775</v>
+      </c>
+      <c r="D3433">
+        <v>1</v>
+      </c>
+      <c r="F3433">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3434" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3434" s="1">
+        <v>43550.585416666669</v>
+      </c>
+      <c r="D3434">
+        <v>0</v>
+      </c>
+      <c r="E3434">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3435" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3435" s="1">
+        <v>43550.595833333333</v>
+      </c>
+      <c r="D3435">
+        <v>0</v>
+      </c>
+      <c r="E3435">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3436" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3436" s="1">
+        <v>43550.606249999997</v>
+      </c>
+      <c r="D3436">
+        <v>0</v>
+      </c>
+      <c r="E3436">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3437" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3437" s="1">
+        <v>43550.618055555555</v>
+      </c>
+      <c r="D3437">
+        <v>0</v>
+      </c>
+      <c r="E3437">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3438" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3438" s="1">
+        <v>43550.625694444447</v>
+      </c>
+      <c r="D3438">
+        <v>1</v>
+      </c>
+      <c r="F3438">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3439" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3439" s="1">
+        <v>43550.628472222219</v>
+      </c>
+      <c r="D3439">
+        <v>0</v>
+      </c>
+      <c r="E3439">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3440" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3440" s="1">
+        <v>43550.638888888891</v>
+      </c>
+      <c r="D3440">
+        <v>0</v>
+      </c>
+      <c r="E3440">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3441" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3441" s="1">
+        <v>43550.649305555555</v>
+      </c>
+      <c r="D3441">
+        <v>0</v>
+      </c>
+      <c r="E3441">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3442" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3442" s="1">
+        <v>43550.659722222219</v>
+      </c>
+      <c r="D3442">
+        <v>0</v>
+      </c>
+      <c r="E3442">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3443" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3443" s="1">
+        <v>43550.670138888891</v>
+      </c>
+      <c r="D3443">
+        <v>0</v>
+      </c>
+      <c r="E3443">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3444" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3444" s="1">
+        <v>43550.680555555555</v>
+      </c>
+      <c r="D3444">
+        <v>0</v>
+      </c>
+      <c r="E3444">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3445" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3445" s="1">
+        <v>43550.690972222219</v>
+      </c>
+      <c r="D3445">
+        <v>0</v>
+      </c>
+      <c r="E3445">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3446" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3446" s="1">
+        <v>43550.701388888891</v>
+      </c>
+      <c r="D3446">
+        <v>0</v>
+      </c>
+      <c r="E3446">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3447" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3447" s="1">
+        <v>43550.711805555555</v>
+      </c>
+      <c r="D3447">
+        <v>0</v>
+      </c>
+      <c r="E3447">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3448" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3448" s="1">
+        <v>43550.722222222219</v>
+      </c>
+      <c r="D3448">
+        <v>0</v>
+      </c>
+      <c r="E3448">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3449" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3449" s="1">
+        <v>43550.732638888891</v>
+      </c>
+      <c r="D3449">
+        <v>0</v>
+      </c>
+      <c r="E3449">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3450" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3450" s="1">
+        <v>43550.743055555555</v>
+      </c>
+      <c r="D3450">
+        <v>0</v>
+      </c>
+      <c r="E3450">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3451" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3451" s="1">
+        <v>43550.753472222219</v>
+      </c>
+      <c r="D3451">
+        <v>0</v>
+      </c>
+      <c r="E3451">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3452" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3452" s="1">
+        <v>43550.763888888891</v>
+      </c>
+      <c r="D3452">
+        <v>0</v>
+      </c>
+      <c r="E3452">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3453" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3453" s="1">
+        <v>43550.771527777775</v>
+      </c>
+      <c r="D3453">
+        <v>1</v>
+      </c>
+      <c r="F3453">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3454" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3454" s="1">
+        <v>43550.774305555555</v>
+      </c>
+      <c r="D3454">
+        <v>0</v>
+      </c>
+      <c r="E3454">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3455" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3455" s="1">
+        <v>43550.781944444447</v>
+      </c>
+      <c r="D3455">
+        <v>1</v>
+      </c>
+      <c r="F3455">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3456" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3456" s="1">
+        <v>43550.786111111112</v>
+      </c>
+      <c r="D3456">
+        <v>0</v>
+      </c>
+      <c r="E3456">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3457" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3457" s="1">
+        <v>43550.790277777778</v>
+      </c>
+      <c r="D3457">
+        <v>1</v>
+      </c>
+      <c r="F3457">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3458" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3458" s="1">
+        <v>43550.796527777777</v>
+      </c>
+      <c r="D3458">
+        <v>0</v>
+      </c>
+      <c r="E3458">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3459" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3459" s="1">
+        <v>43550.806944444441</v>
+      </c>
+      <c r="D3459">
+        <v>0</v>
+      </c>
+      <c r="E3459">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3460" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3460" s="1">
+        <v>43550.817361111112</v>
+      </c>
+      <c r="D3460">
+        <v>0</v>
+      </c>
+      <c r="E3460">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3461" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3461" s="1">
+        <v>43550.827777777777</v>
+      </c>
+      <c r="D3461">
+        <v>0</v>
+      </c>
+      <c r="E3461">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3462" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3462" s="1">
+        <v>43550.838194444441</v>
+      </c>
+      <c r="D3462">
+        <v>0</v>
+      </c>
+      <c r="E3462">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3463" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3463" s="1">
+        <v>43550.848611111112</v>
+      </c>
+      <c r="D3463">
+        <v>0</v>
+      </c>
+      <c r="E3463">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3464" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3464" s="1">
+        <v>43550.859027777777</v>
+      </c>
+      <c r="D3464">
+        <v>0</v>
+      </c>
+      <c r="E3464">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3465" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3465" s="1">
+        <v>43550.869444444441</v>
+      </c>
+      <c r="D3465">
+        <v>0</v>
+      </c>
+      <c r="E3465">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3466" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3466" s="1">
+        <v>43550.879861111112</v>
+      </c>
+      <c r="D3466">
+        <v>0</v>
+      </c>
+      <c r="E3466">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3467" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3467" s="1">
+        <v>43550.890277777777</v>
+      </c>
+      <c r="D3467">
+        <v>0</v>
+      </c>
+      <c r="E3467">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3468" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3468" s="1">
+        <v>43550.902777777781</v>
+      </c>
+      <c r="D3468">
+        <v>1</v>
+      </c>
+      <c r="F3468">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3469" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3469" s="1">
+        <v>43550.924305555556</v>
+      </c>
+      <c r="D3469">
+        <v>0</v>
+      </c>
+      <c r="E3469">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3470" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3470" s="1">
+        <v>43550.93472222222</v>
+      </c>
+      <c r="D3470">
+        <v>0</v>
+      </c>
+      <c r="E3470">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3471" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3471" s="1">
+        <v>43550.945138888892</v>
+      </c>
+      <c r="D3471">
+        <v>0</v>
+      </c>
+      <c r="E3471">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3472" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3472" s="1">
+        <v>43550.955555555556</v>
+      </c>
+      <c r="D3472">
+        <v>0</v>
+      </c>
+      <c r="E3472">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3473" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3473" s="1">
+        <v>43550.96597222222</v>
+      </c>
+      <c r="D3473">
+        <v>0</v>
+      </c>
+      <c r="E3473">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3474" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3474" s="1">
+        <v>43550.976388888892</v>
+      </c>
+      <c r="D3474">
+        <v>0</v>
+      </c>
+      <c r="E3474">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3475" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3475" s="1">
+        <v>43550.986805555556</v>
+      </c>
+      <c r="D3475">
+        <v>0</v>
+      </c>
+      <c r="E3475">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3476" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3476" s="1">
+        <v>43550.99722222222</v>
+      </c>
+      <c r="D3476">
+        <v>0</v>
+      </c>
+      <c r="E3476">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3477" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3477" s="1">
+        <v>43551.007638888892</v>
+      </c>
+      <c r="D3477">
+        <v>0</v>
+      </c>
+      <c r="E3477">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3478" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3478" s="1">
+        <v>43551.018055555556</v>
+      </c>
+      <c r="D3478">
+        <v>0</v>
+      </c>
+      <c r="E3478">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3479" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3479" s="1">
+        <v>43551.02847222222</v>
+      </c>
+      <c r="D3479">
+        <v>0</v>
+      </c>
+      <c r="E3479">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3480" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3480" s="1">
+        <v>43551.038888888892</v>
+      </c>
+      <c r="D3480">
+        <v>0</v>
+      </c>
+      <c r="E3480">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3481" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3481" s="1">
+        <v>43551.049305555556</v>
+      </c>
+      <c r="D3481">
+        <v>0</v>
+      </c>
+      <c r="E3481">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3482" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3482" s="1">
+        <v>43551.05972222222</v>
+      </c>
+      <c r="D3482">
+        <v>0</v>
+      </c>
+      <c r="E3482">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3483" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3483" s="1">
+        <v>43551.070138888892</v>
+      </c>
+      <c r="D3483">
+        <v>0</v>
+      </c>
+      <c r="E3483">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3484" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3484" s="1">
+        <v>43551.080555555556</v>
+      </c>
+      <c r="D3484">
+        <v>0</v>
+      </c>
+      <c r="E3484">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3485" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3485" s="1">
+        <v>43551.09097222222</v>
+      </c>
+      <c r="D3485">
+        <v>0</v>
+      </c>
+      <c r="E3485">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3486" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3486" s="1">
+        <v>43551.101388888892</v>
+      </c>
+      <c r="D3486">
+        <v>0</v>
+      </c>
+      <c r="E3486">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3487" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3487" s="1">
+        <v>43551.111805555556</v>
+      </c>
+      <c r="D3487">
+        <v>0</v>
+      </c>
+      <c r="E3487">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3488" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3488" s="1">
+        <v>43551.12222222222</v>
+      </c>
+      <c r="D3488">
+        <v>0</v>
+      </c>
+      <c r="E3488">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3489" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3489" s="1">
+        <v>43551.132638888892</v>
+      </c>
+      <c r="D3489">
+        <v>0</v>
+      </c>
+      <c r="E3489">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3490" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3490" s="1">
+        <v>43551.143055555556</v>
+      </c>
+      <c r="D3490">
+        <v>0</v>
+      </c>
+      <c r="E3490">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3491" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3491" s="1">
+        <v>43551.15347222222</v>
+      </c>
+      <c r="D3491">
+        <v>0</v>
+      </c>
+      <c r="E3491">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3492" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3492" s="1">
+        <v>43551.163888888892</v>
+      </c>
+      <c r="D3492">
+        <v>0</v>
+      </c>
+      <c r="E3492">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3493" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3493" s="1">
+        <v>43551.174305555556</v>
+      </c>
+      <c r="D3493">
+        <v>0</v>
+      </c>
+      <c r="E3493">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3494" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3494" s="1">
+        <v>43551.18472222222</v>
+      </c>
+      <c r="D3494">
+        <v>0</v>
+      </c>
+      <c r="E3494">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3495" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3495" s="1">
+        <v>43551.195138888892</v>
+      </c>
+      <c r="D3495">
+        <v>0</v>
+      </c>
+      <c r="E3495">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3496" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3496" s="1">
+        <v>43551.205555555556</v>
+      </c>
+      <c r="D3496">
+        <v>0</v>
+      </c>
+      <c r="E3496">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3497" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3497" s="1">
+        <v>43551.21597222222</v>
+      </c>
+      <c r="D3497">
+        <v>0</v>
+      </c>
+      <c r="E3497">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3498" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3498" s="1">
+        <v>43551.226388888892</v>
+      </c>
+      <c r="D3498">
+        <v>0</v>
+      </c>
+      <c r="E3498">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3499" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3499" s="1">
+        <v>43551.236805555556</v>
+      </c>
+      <c r="D3499">
+        <v>0</v>
+      </c>
+      <c r="E3499">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3500" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3500" s="1">
+        <v>43551.247916666667</v>
+      </c>
+      <c r="D3500">
+        <v>0</v>
+      </c>
+      <c r="E3500">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3501" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3501" s="1">
+        <v>43551.248611111114</v>
+      </c>
+      <c r="D3501">
+        <v>1</v>
+      </c>
+      <c r="F3501">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3502" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3502" s="1">
+        <v>43551.258333333331</v>
+      </c>
+      <c r="D3502">
+        <v>0</v>
+      </c>
+      <c r="E3502">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3503" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3503" s="1">
+        <v>43551.268750000003</v>
+      </c>
+      <c r="D3503">
+        <v>0</v>
+      </c>
+      <c r="E3503">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3504" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3504" s="1">
+        <v>43551.270138888889</v>
+      </c>
+      <c r="D3504">
+        <v>1</v>
+      </c>
+      <c r="F3504">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3505" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3505" s="1">
+        <v>43551.279166666667</v>
+      </c>
+      <c r="D3505">
+        <v>0</v>
+      </c>
+      <c r="E3505">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3506" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3506" s="1">
+        <v>43551.290277777778</v>
+      </c>
+      <c r="D3506">
+        <v>0</v>
+      </c>
+      <c r="E3506">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3507" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3507" s="1">
+        <v>43551.299305555556</v>
+      </c>
+      <c r="D3507">
+        <v>1</v>
+      </c>
+      <c r="F3507">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3508" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3508" s="1">
+        <v>43551.300694444442</v>
+      </c>
+      <c r="D3508">
+        <v>0</v>
+      </c>
+      <c r="E3508">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3509" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3509" s="1">
+        <v>43551.311111111114</v>
+      </c>
+      <c r="D3509">
+        <v>0</v>
+      </c>
+      <c r="E3509">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3510" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3510" s="1">
+        <v>43551.318749999999</v>
+      </c>
+      <c r="D3510">
+        <v>1</v>
+      </c>
+      <c r="F3510">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3511" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3511" s="1">
+        <v>43551.321527777778</v>
+      </c>
+      <c r="D3511">
+        <v>0</v>
+      </c>
+      <c r="E3511">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3512" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3512" s="1">
+        <v>43551.321527777778</v>
+      </c>
+      <c r="D3512">
+        <v>1</v>
+      </c>
+      <c r="F3512">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3513" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3513" s="1">
+        <v>43551.331944444442</v>
+      </c>
+      <c r="D3513">
+        <v>0</v>
+      </c>
+      <c r="E3513">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3514" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3514" s="1">
+        <v>43551.342361111114</v>
+      </c>
+      <c r="D3514">
+        <v>0</v>
+      </c>
+      <c r="E3514">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3515" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3515" s="1">
+        <v>43551.352777777778</v>
+      </c>
+      <c r="D3515">
+        <v>0</v>
+      </c>
+      <c r="E3515">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3516" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3516" s="1">
+        <v>43551.363194444442</v>
+      </c>
+      <c r="D3516">
+        <v>0</v>
+      </c>
+      <c r="E3516">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3517" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3517" s="1">
+        <v>43551.373611111114</v>
+      </c>
+      <c r="D3517">
+        <v>0</v>
+      </c>
+      <c r="E3517">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3518" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3518" s="1">
+        <v>43551.374305555553</v>
+      </c>
+      <c r="D3518">
+        <v>1</v>
+      </c>
+      <c r="F3518">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3519" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3519" s="1">
+        <v>43551.384027777778</v>
+      </c>
+      <c r="D3519">
+        <v>1</v>
+      </c>
+      <c r="F3519">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3520" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3520" s="1">
+        <v>43551.384722222225</v>
+      </c>
+      <c r="D3520">
+        <v>0</v>
+      </c>
+      <c r="E3520">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3521" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3521" s="1">
+        <v>43551.397222222222</v>
+      </c>
+      <c r="D3521">
+        <v>1</v>
+      </c>
+      <c r="F3521">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3522" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3522" s="1">
+        <v>43551.405555555553</v>
+      </c>
+      <c r="D3522">
+        <v>0</v>
+      </c>
+      <c r="E3522">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3523" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3523" s="1">
+        <v>43551.415972222225</v>
+      </c>
+      <c r="D3523">
+        <v>0</v>
+      </c>
+      <c r="E3523">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3524" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3524" s="1">
+        <v>43551.426388888889</v>
+      </c>
+      <c r="D3524">
+        <v>0</v>
+      </c>
+      <c r="E3524">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3525" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3525" s="1">
+        <v>43551.4375</v>
+      </c>
+      <c r="D3525">
+        <v>0</v>
+      </c>
+      <c r="E3525">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3526" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3526" s="1">
+        <v>43551.438888888886</v>
+      </c>
+      <c r="D3526">
+        <v>1</v>
+      </c>
+      <c r="F3526">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3527" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3527" s="1">
+        <v>43551.447916666664</v>
+      </c>
+      <c r="D3527">
+        <v>0</v>
+      </c>
+      <c r="E3527">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3528" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3528" s="1">
+        <v>43551.457638888889</v>
+      </c>
+      <c r="D3528">
+        <v>0</v>
+      </c>
+      <c r="E3528">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3529" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3529" s="1">
+        <v>43551.466666666667</v>
+      </c>
+      <c r="D3529">
+        <v>1</v>
+      </c>
+      <c r="F3529">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3530" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3530" s="1">
+        <v>43551.468055555553</v>
+      </c>
+      <c r="D3530">
+        <v>0</v>
+      </c>
+      <c r="E3530">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3531" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3531" s="1">
+        <v>43551.47152777778</v>
+      </c>
+      <c r="D3531">
+        <v>1</v>
+      </c>
+      <c r="F3531">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3532" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3532" s="1">
+        <v>43551.475694444445</v>
+      </c>
+      <c r="D3532">
+        <v>1</v>
+      </c>
+      <c r="F3532">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3533" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3533" s="1">
+        <v>43551.478472222225</v>
+      </c>
+      <c r="D3533">
+        <v>0</v>
+      </c>
+      <c r="E3533">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3534" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3534" s="1">
+        <v>43551.488888888889</v>
+      </c>
+      <c r="D3534">
+        <v>1</v>
+      </c>
+      <c r="F3534">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3535" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3535" s="1">
+        <v>43551.489583333336</v>
+      </c>
+      <c r="D3535">
+        <v>0</v>
+      </c>
+      <c r="E3535">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3536" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3536" s="1">
+        <v>43551.498611111114</v>
+      </c>
+      <c r="D3536">
+        <v>1</v>
+      </c>
+      <c r="F3536">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3537" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3537" s="1">
+        <v>43551.5</v>
+      </c>
+      <c r="D3537">
+        <v>0</v>
+      </c>
+      <c r="E3537">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3538" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3538" s="1">
+        <v>43551.511111111111</v>
+      </c>
+      <c r="D3538">
+        <v>0</v>
+      </c>
+      <c r="E3538">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3539" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3539" s="1">
+        <v>43551.518750000003</v>
+      </c>
+      <c r="D3539">
+        <v>1</v>
+      </c>
+      <c r="F3539">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3540" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3540" s="1">
+        <v>43551.520833333336</v>
+      </c>
+      <c r="D3540">
+        <v>0</v>
+      </c>
+      <c r="E3540">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3541" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3541" s="1">
+        <v>43551.523611111108</v>
+      </c>
+      <c r="D3541">
+        <v>1</v>
+      </c>
+      <c r="F3541">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3542" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3542" s="1">
+        <v>43551.523611111108</v>
+      </c>
+      <c r="D3542">
+        <v>6</v>
+      </c>
+      <c r="N3542" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3543" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3543" s="1">
+        <v>43551.531944444447</v>
+      </c>
+      <c r="D3543">
+        <v>0</v>
+      </c>
+      <c r="E3543">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3544" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3544" s="1">
+        <v>43551.538194444445</v>
+      </c>
+      <c r="D3544">
+        <v>1</v>
+      </c>
+      <c r="F3544">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3545" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3545" s="1">
+        <v>43551.542361111111</v>
+      </c>
+      <c r="D3545">
+        <v>0</v>
+      </c>
+      <c r="E3545">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3546" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3546" s="1">
+        <v>43551.559027777781</v>
+      </c>
+      <c r="D3546">
+        <v>1</v>
+      </c>
+      <c r="F3546">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3547" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3547" s="1">
+        <v>43551.563194444447</v>
+      </c>
+      <c r="D3547">
+        <v>0</v>
+      </c>
+      <c r="E3547">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3548" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3548" s="1">
+        <v>43551.573611111111</v>
+      </c>
+      <c r="D3548">
+        <v>0</v>
+      </c>
+      <c r="E3548">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3549" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3549" s="1">
+        <v>43551.584027777775</v>
+      </c>
+      <c r="D3549">
+        <v>0</v>
+      </c>
+      <c r="E3549">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3550" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3550" s="1">
+        <v>43551.584722222222</v>
+      </c>
+      <c r="D3550">
+        <v>1</v>
+      </c>
+      <c r="F3550">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3551" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3551" s="1">
+        <v>43551.594444444447</v>
+      </c>
+      <c r="D3551">
+        <v>0</v>
+      </c>
+      <c r="E3551">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3552" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3552" s="1">
+        <v>43551.604861111111</v>
+      </c>
+      <c r="D3552">
+        <v>1</v>
+      </c>
+      <c r="F3552">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3553" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3553" s="1">
+        <v>43551.605555555558</v>
+      </c>
+      <c r="D3553">
+        <v>0</v>
+      </c>
+      <c r="E3553">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3554" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3554" s="1">
+        <v>43551.615972222222</v>
+      </c>
+      <c r="D3554">
+        <v>0</v>
+      </c>
+      <c r="E3554">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3555" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3555" s="1">
+        <v>43551.626388888886</v>
+      </c>
+      <c r="D3555">
+        <v>0</v>
+      </c>
+      <c r="E3555">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3556" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3556" s="1">
+        <v>43551.636805555558</v>
+      </c>
+      <c r="D3556">
+        <v>0</v>
+      </c>
+      <c r="E3556">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3557" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3557" s="1">
+        <v>43551.647222222222</v>
+      </c>
+      <c r="D3557">
+        <v>0</v>
+      </c>
+      <c r="E3557">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3558" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3558" s="1">
+        <v>43551.657638888886</v>
+      </c>
+      <c r="D3558">
+        <v>0</v>
+      </c>
+      <c r="E3558">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3559" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3559" s="1">
+        <v>43551.668055555558</v>
+      </c>
+      <c r="D3559">
+        <v>0</v>
+      </c>
+      <c r="E3559">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3560" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3560" s="1">
+        <v>43551.678472222222</v>
+      </c>
+      <c r="D3560">
+        <v>0</v>
+      </c>
+      <c r="E3560">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3561" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3561" s="1">
+        <v>43551.688888888886</v>
+      </c>
+      <c r="D3561">
+        <v>0</v>
+      </c>
+      <c r="E3561">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3562" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3562" s="1">
+        <v>43551.7</v>
+      </c>
+      <c r="D3562">
+        <v>0</v>
+      </c>
+      <c r="E3562">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3563" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3563" s="1">
+        <v>43551.700694444444</v>
+      </c>
+      <c r="D3563">
+        <v>1</v>
+      </c>
+      <c r="F3563">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3564" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3564" s="1">
+        <v>43551.711111111108</v>
+      </c>
+      <c r="D3564">
+        <v>0</v>
+      </c>
+      <c r="E3564">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3565" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3565" s="1">
+        <v>43551.717361111114</v>
+      </c>
+      <c r="D3565">
+        <v>1</v>
+      </c>
+      <c r="F3565">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3566" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3566" s="1">
+        <v>43551.72152777778</v>
+      </c>
+      <c r="D3566">
+        <v>0</v>
+      </c>
+      <c r="E3566">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3567" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3567" s="1">
+        <v>43551.731944444444</v>
+      </c>
+      <c r="D3567">
+        <v>0</v>
+      </c>
+      <c r="E3567">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3568" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3568" s="1">
+        <v>43551.742361111108</v>
+      </c>
+      <c r="D3568">
+        <v>0</v>
+      </c>
+      <c r="E3568">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3569" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3569" s="1">
+        <v>43551.75277777778</v>
+      </c>
+      <c r="D3569">
+        <v>0</v>
+      </c>
+      <c r="E3569">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3570" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3570" s="1">
+        <v>43551.763194444444</v>
+      </c>
+      <c r="D3570">
+        <v>0</v>
+      </c>
+      <c r="E3570">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3571" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3571" s="1">
+        <v>43551.769444444442</v>
+      </c>
+      <c r="D3571">
+        <v>1</v>
+      </c>
+      <c r="F3571">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3572" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3572" s="1">
+        <v>43551.769444444442</v>
+      </c>
+      <c r="D3572">
+        <v>6</v>
+      </c>
+      <c r="N3572" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3573" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3573" s="1">
+        <v>43551.773611111108</v>
+      </c>
+      <c r="D3573">
+        <v>0</v>
+      </c>
+      <c r="E3573">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3574" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3574" s="1">
+        <v>43551.782638888886</v>
+      </c>
+      <c r="D3574">
+        <v>1</v>
+      </c>
+      <c r="F3574">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3575" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3575" s="1">
+        <v>43551.78402777778</v>
+      </c>
+      <c r="D3575">
+        <v>0</v>
+      </c>
+      <c r="E3575">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3576" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3576" s="1">
+        <v>43551.794444444444</v>
+      </c>
+      <c r="D3576">
+        <v>0</v>
+      </c>
+      <c r="E3576">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3577" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3577" s="1">
+        <v>43551.805555555555</v>
+      </c>
+      <c r="D3577">
+        <v>0</v>
+      </c>
+      <c r="E3577">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3578" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3578" s="1">
+        <v>43551.806250000001</v>
+      </c>
+      <c r="D3578">
+        <v>1</v>
+      </c>
+      <c r="F3578">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3579" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3579" s="1">
+        <v>43551.815972222219</v>
+      </c>
+      <c r="D3579">
+        <v>0</v>
+      </c>
+      <c r="E3579">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3580" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3580" s="1">
+        <v>43551.826388888891</v>
+      </c>
+      <c r="D3580">
+        <v>0</v>
+      </c>
+      <c r="E3580">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3581" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3581" s="1">
+        <v>43551.836805555555</v>
+      </c>
+      <c r="D3581">
+        <v>0</v>
+      </c>
+      <c r="E3581">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3582" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3582" s="1">
+        <v>43551.847222222219</v>
+      </c>
+      <c r="D3582">
+        <v>0</v>
+      </c>
+      <c r="E3582">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3583" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3583" s="1">
+        <v>43551.857638888891</v>
+      </c>
+      <c r="D3583">
+        <v>0</v>
+      </c>
+      <c r="E3583">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3584" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3584" s="1">
+        <v>43551.868055555555</v>
+      </c>
+      <c r="D3584">
+        <v>0</v>
+      </c>
+      <c r="E3584">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3585" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3585" s="1">
+        <v>43551.878472222219</v>
+      </c>
+      <c r="D3585">
+        <v>0</v>
+      </c>
+      <c r="E3585">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3586" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3586" s="1">
+        <v>43551.888888888891</v>
+      </c>
+      <c r="D3586">
+        <v>0</v>
+      </c>
+      <c r="E3586">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3587" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3587" s="1">
+        <v>43551.9</v>
+      </c>
+      <c r="D3587">
+        <v>0</v>
+      </c>
+      <c r="E3587">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3588" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3588" s="1">
+        <v>43551.907638888886</v>
+      </c>
+      <c r="D3588">
+        <v>1</v>
+      </c>
+      <c r="F3588">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3589" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3589" s="1">
+        <v>43551.910416666666</v>
+      </c>
+      <c r="D3589">
+        <v>0</v>
+      </c>
+      <c r="E3589">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3590" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3590" s="1">
+        <v>43551.92291666667</v>
+      </c>
+      <c r="D3590">
+        <v>0</v>
+      </c>
+      <c r="E3590">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3591" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3591" s="1">
+        <v>43551.925694444442</v>
+      </c>
+      <c r="D3591">
+        <v>1</v>
+      </c>
+      <c r="F3591">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3592" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3592" s="1">
+        <v>43551.933333333334</v>
+      </c>
+      <c r="D3592">
+        <v>0</v>
+      </c>
+      <c r="E3592">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3593" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3593" s="1">
+        <v>43551.943749999999</v>
+      </c>
+      <c r="D3593">
+        <v>0</v>
+      </c>
+      <c r="E3593">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3594" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3594" s="1">
+        <v>43551.95416666667</v>
+      </c>
+      <c r="D3594">
+        <v>0</v>
+      </c>
+      <c r="E3594">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3595" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3595" s="1">
+        <v>43551.964583333334</v>
+      </c>
+      <c r="D3595">
+        <v>0</v>
+      </c>
+      <c r="E3595">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3596" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3596" s="1">
+        <v>43551.974999999999</v>
+      </c>
+      <c r="D3596">
+        <v>0</v>
+      </c>
+      <c r="E3596">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3597" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3597" s="1">
+        <v>43551.98541666667</v>
+      </c>
+      <c r="D3597">
+        <v>0</v>
+      </c>
+      <c r="E3597">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3598" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3598" s="1">
+        <v>43551.995833333334</v>
+      </c>
+      <c r="D3598">
+        <v>0</v>
+      </c>
+      <c r="E3598">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3599" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3599" s="1">
+        <v>43552.006249999999</v>
+      </c>
+      <c r="D3599">
+        <v>0</v>
+      </c>
+      <c r="E3599">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3600" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3600" s="1">
+        <v>43552.01666666667</v>
+      </c>
+      <c r="D3600">
+        <v>0</v>
+      </c>
+      <c r="E3600">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3601" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3601" s="1">
+        <v>43552.027083333334</v>
+      </c>
+      <c r="D3601">
+        <v>0</v>
+      </c>
+      <c r="E3601">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3602" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3602" s="1">
+        <v>43552.037499999999</v>
+      </c>
+      <c r="D3602">
+        <v>0</v>
+      </c>
+      <c r="E3602">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3603" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3603" s="1">
+        <v>43552.04791666667</v>
+      </c>
+      <c r="D3603">
+        <v>0</v>
+      </c>
+      <c r="E3603">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3604" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3604" s="1">
+        <v>43552.058333333334</v>
+      </c>
+      <c r="D3604">
+        <v>0</v>
+      </c>
+      <c r="E3604">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3605" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3605" s="1">
+        <v>43552.068749999999</v>
+      </c>
+      <c r="D3605">
+        <v>0</v>
+      </c>
+      <c r="E3605">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3606" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3606" s="1">
+        <v>43552.07916666667</v>
+      </c>
+      <c r="D3606">
+        <v>0</v>
+      </c>
+      <c r="E3606">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3607" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3607" s="1">
+        <v>43552.089583333334</v>
+      </c>
+      <c r="D3607">
+        <v>0</v>
+      </c>
+      <c r="E3607">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3608" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3608" s="1">
+        <v>43552.1</v>
+      </c>
+      <c r="D3608">
+        <v>0</v>
+      </c>
+      <c r="E3608">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3609" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3609" s="1">
+        <v>43552.11041666667</v>
+      </c>
+      <c r="D3609">
+        <v>0</v>
+      </c>
+      <c r="E3609">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3610" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3610" s="1">
+        <v>43552.120833333334</v>
+      </c>
+      <c r="D3610">
+        <v>0</v>
+      </c>
+      <c r="E3610">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3611" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3611" s="1">
+        <v>43552.131249999999</v>
+      </c>
+      <c r="D3611">
+        <v>0</v>
+      </c>
+      <c r="E3611">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3612" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3612" s="1">
+        <v>43552.14166666667</v>
+      </c>
+      <c r="D3612">
+        <v>0</v>
+      </c>
+      <c r="E3612">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3613" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3613" s="1">
+        <v>43552.152083333334</v>
+      </c>
+      <c r="D3613">
+        <v>0</v>
+      </c>
+      <c r="E3613">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3614" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3614" s="1">
+        <v>43552.162499999999</v>
+      </c>
+      <c r="D3614">
+        <v>0</v>
+      </c>
+      <c r="E3614">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3615" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3615" s="1">
+        <v>43552.17291666667</v>
+      </c>
+      <c r="D3615">
+        <v>0</v>
+      </c>
+      <c r="E3615">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3616" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3616" s="1">
+        <v>43552.183333333334</v>
+      </c>
+      <c r="D3616">
+        <v>0</v>
+      </c>
+      <c r="E3616">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3617" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3617" s="1">
+        <v>43552.193749999999</v>
+      </c>
+      <c r="D3617">
+        <v>0</v>
+      </c>
+      <c r="E3617">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3618" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3618" s="1">
+        <v>43552.204861111109</v>
+      </c>
+      <c r="D3618">
+        <v>0</v>
+      </c>
+      <c r="E3618">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3619" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3619" s="1">
+        <v>43552.207638888889</v>
+      </c>
+      <c r="D3619">
+        <v>1</v>
+      </c>
+      <c r="F3619">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3620" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3620" s="1">
+        <v>43552.213194444441</v>
+      </c>
+      <c r="D3620">
+        <v>1</v>
+      </c>
+      <c r="F3620">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3621" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3621" s="1">
+        <v>43552.215277777781</v>
+      </c>
+      <c r="D3621">
+        <v>0</v>
+      </c>
+      <c r="E3621">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3622" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3622" s="1">
+        <v>43552.216666666667</v>
+      </c>
+      <c r="D3622">
+        <v>1</v>
+      </c>
+      <c r="F3622">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3623" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3623" s="1">
+        <v>43552.225694444445</v>
+      </c>
+      <c r="D3623">
+        <v>0</v>
+      </c>
+      <c r="E3623">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3624" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3624" s="1">
+        <v>43552.234027777777</v>
+      </c>
+      <c r="D3624">
+        <v>1</v>
+      </c>
+      <c r="F3624">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3625" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3625" s="1">
+        <v>43552.23541666667</v>
+      </c>
+      <c r="D3625">
+        <v>1</v>
+      </c>
+      <c r="F3625">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3626" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3626" s="1">
+        <v>43552.236805555556</v>
+      </c>
+      <c r="D3626">
+        <v>0</v>
+      </c>
+      <c r="E3626">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3627" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3627" s="1">
+        <v>43552.243750000001</v>
+      </c>
+      <c r="D3627">
+        <v>1</v>
+      </c>
+      <c r="F3627">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3628" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3628" s="1">
+        <v>43552.24722222222</v>
+      </c>
+      <c r="D3628">
+        <v>0</v>
+      </c>
+      <c r="E3628">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3629" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3629" s="1">
+        <v>43552.257638888892</v>
+      </c>
+      <c r="D3629">
+        <v>0</v>
+      </c>
+      <c r="E3629">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3630" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3630" s="1">
+        <v>43552.268055555556</v>
+      </c>
+      <c r="D3630">
+        <v>0</v>
+      </c>
+      <c r="E3630">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3631" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3631" s="1">
+        <v>43552.27847222222</v>
+      </c>
+      <c r="D3631">
+        <v>0</v>
+      </c>
+      <c r="E3631">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3632" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3632" s="1">
+        <v>43552.284722222219</v>
+      </c>
+      <c r="D3632">
+        <v>1</v>
+      </c>
+      <c r="F3632">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3633" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3633" s="1">
+        <v>43552.288888888892</v>
+      </c>
+      <c r="D3633">
+        <v>0</v>
+      </c>
+      <c r="E3633">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3634" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3634" s="1">
+        <v>43552.299305555556</v>
+      </c>
+      <c r="D3634">
+        <v>0</v>
+      </c>
+      <c r="E3634">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3635" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3635" s="1">
+        <v>43552.299305555556</v>
+      </c>
+      <c r="D3635">
+        <v>1</v>
+      </c>
+      <c r="F3635">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3636" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3636" s="1">
+        <v>43552.30972222222</v>
+      </c>
+      <c r="D3636">
+        <v>0</v>
+      </c>
+      <c r="E3636">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3637" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3637" s="1">
+        <v>43552.320833333331</v>
+      </c>
+      <c r="D3637">
+        <v>0</v>
+      </c>
+      <c r="E3637">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3638" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3638" s="1">
+        <v>43552.327777777777</v>
+      </c>
+      <c r="D3638">
+        <v>1</v>
+      </c>
+      <c r="F3638">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3639" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3639" s="1">
+        <v>43552.331250000003</v>
+      </c>
+      <c r="D3639">
+        <v>0</v>
+      </c>
+      <c r="E3639">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3640" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3640" s="1">
+        <v>43552.335416666669</v>
+      </c>
+      <c r="D3640">
+        <v>1</v>
+      </c>
+      <c r="F3640">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3641" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3641" s="1">
+        <v>43552.341666666667</v>
+      </c>
+      <c r="D3641">
+        <v>0</v>
+      </c>
+      <c r="E3641">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3642" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3642" s="1">
+        <v>43552.352083333331</v>
+      </c>
+      <c r="D3642">
+        <v>0</v>
+      </c>
+      <c r="E3642">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3643" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3643" s="1">
+        <v>43552.362500000003</v>
+      </c>
+      <c r="D3643">
+        <v>0</v>
+      </c>
+      <c r="E3643">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3644" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3644" s="1">
+        <v>43552.372916666667</v>
+      </c>
+      <c r="D3644">
+        <v>0</v>
+      </c>
+      <c r="E3644">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3645" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3645" s="1">
+        <v>43552.383333333331</v>
+      </c>
+      <c r="D3645">
+        <v>0</v>
+      </c>
+      <c r="E3645">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3646" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3646" s="1">
+        <v>43552.393750000003</v>
+      </c>
+      <c r="D3646">
+        <v>0</v>
+      </c>
+      <c r="E3646">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3647" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3647" s="1">
+        <v>43552.396527777775</v>
+      </c>
+      <c r="D3647">
+        <v>1</v>
+      </c>
+      <c r="F3647">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3648" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3648" s="1">
+        <v>43552.400694444441</v>
+      </c>
+      <c r="D3648">
+        <v>1</v>
+      </c>
+      <c r="F3648">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3649" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3649" s="1">
+        <v>43552.404166666667</v>
+      </c>
+      <c r="D3649">
+        <v>0</v>
+      </c>
+      <c r="E3649">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3650" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3650" s="1">
+        <v>43552.414583333331</v>
+      </c>
+      <c r="D3650">
+        <v>0</v>
+      </c>
+      <c r="E3650">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3651" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3651" s="1">
+        <v>43552.425000000003</v>
+      </c>
+      <c r="D3651">
+        <v>0</v>
+      </c>
+      <c r="E3651">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3652" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3652" s="1">
+        <v>43552.427083333336</v>
+      </c>
+      <c r="D3652">
+        <v>1</v>
+      </c>
+      <c r="F3652">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3653" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3653" s="1">
+        <v>43552.431250000001</v>
+      </c>
+      <c r="D3653">
+        <v>1</v>
+      </c>
+      <c r="F3653">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3654" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3654" s="1">
+        <v>43552.436805555553</v>
+      </c>
+      <c r="D3654">
+        <v>0</v>
+      </c>
+      <c r="E3654">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3655" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3655" s="1">
+        <v>43552.445138888892</v>
+      </c>
+      <c r="D3655">
+        <v>1</v>
+      </c>
+      <c r="F3655">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3656" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3656" s="1">
+        <v>43552.447222222225</v>
+      </c>
+      <c r="D3656">
+        <v>0</v>
+      </c>
+      <c r="E3656">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3657" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3657" s="1">
+        <v>43552.457638888889</v>
+      </c>
+      <c r="D3657">
+        <v>0</v>
+      </c>
+      <c r="E3657">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3658" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3658" s="1">
+        <v>43552.468055555553</v>
+      </c>
+      <c r="D3658">
+        <v>0</v>
+      </c>
+      <c r="E3658">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3659" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3659" s="1">
+        <v>43552.478472222225</v>
+      </c>
+      <c r="D3659">
+        <v>0</v>
+      </c>
+      <c r="E3659">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3660" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3660" s="1">
+        <v>43552.488888888889</v>
+      </c>
+      <c r="D3660">
+        <v>0</v>
+      </c>
+      <c r="E3660">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3661" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3661" s="1">
+        <v>43552.499305555553</v>
+      </c>
+      <c r="D3661">
+        <v>0</v>
+      </c>
+      <c r="E3661">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3662" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3662" s="1">
+        <v>43552.509722222225</v>
+      </c>
+      <c r="D3662">
+        <v>0</v>
+      </c>
+      <c r="E3662">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3663" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3663" s="1">
+        <v>43552.520138888889</v>
+      </c>
+      <c r="D3663">
+        <v>0</v>
+      </c>
+      <c r="E3663">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3664" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3664" s="1">
+        <v>43552.53125</v>
+      </c>
+      <c r="D3664">
+        <v>1</v>
+      </c>
+      <c r="F3664">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3665" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3665" s="1">
+        <v>43552.53125</v>
+      </c>
+      <c r="D3665">
+        <v>6</v>
+      </c>
+      <c r="N3665" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3666" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3666" s="1">
+        <v>43552.533333333333</v>
+      </c>
+      <c r="D3666">
+        <v>0</v>
+      </c>
+      <c r="E3666">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3667" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3667" s="1">
+        <v>43552.543749999997</v>
+      </c>
+      <c r="D3667">
+        <v>0</v>
+      </c>
+      <c r="E3667">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3668" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3668" s="1">
+        <v>43552.554166666669</v>
+      </c>
+      <c r="D3668">
+        <v>0</v>
+      </c>
+      <c r="E3668">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3669" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3669" s="1">
+        <v>43552.564583333333</v>
+      </c>
+      <c r="D3669">
+        <v>0</v>
+      </c>
+      <c r="E3669">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3670" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3670" s="1">
+        <v>43552.574999999997</v>
+      </c>
+      <c r="D3670">
+        <v>0</v>
+      </c>
+      <c r="E3670">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3671" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3671" s="1">
+        <v>43552.585416666669</v>
+      </c>
+      <c r="D3671">
+        <v>0</v>
+      </c>
+      <c r="E3671">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3672" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3672" s="1">
+        <v>43552.595833333333</v>
+      </c>
+      <c r="D3672">
+        <v>0</v>
+      </c>
+      <c r="E3672">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3673" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3673" s="1">
+        <v>43552.606249999997</v>
+      </c>
+      <c r="D3673">
+        <v>0</v>
+      </c>
+      <c r="E3673">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3674" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3674" s="1">
+        <v>43552.616666666669</v>
+      </c>
+      <c r="D3674">
+        <v>0</v>
+      </c>
+      <c r="E3674">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3675" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3675" s="1">
+        <v>43552.627083333333</v>
+      </c>
+      <c r="D3675">
+        <v>0</v>
+      </c>
+      <c r="E3675">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3676" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3676" s="1">
+        <v>43552.637499999997</v>
+      </c>
+      <c r="D3676">
+        <v>0</v>
+      </c>
+      <c r="E3676">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3677" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3677" s="1">
+        <v>43552.647916666669</v>
+      </c>
+      <c r="D3677">
+        <v>0</v>
+      </c>
+      <c r="E3677">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3678" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3678" s="1">
+        <v>43552.658333333333</v>
+      </c>
+      <c r="D3678">
+        <v>0</v>
+      </c>
+      <c r="E3678">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3679" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3679" s="1">
+        <v>43552.668749999997</v>
+      </c>
+      <c r="D3679">
+        <v>0</v>
+      </c>
+      <c r="E3679">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3680" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3680" s="1">
+        <v>43552.679166666669</v>
+      </c>
+      <c r="D3680">
+        <v>0</v>
+      </c>
+      <c r="E3680">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3681" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3681" s="1">
+        <v>43552.689583333333</v>
+      </c>
+      <c r="D3681">
+        <v>0</v>
+      </c>
+      <c r="E3681">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3682" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3682" s="1">
+        <v>43552.7</v>
+      </c>
+      <c r="D3682">
+        <v>0</v>
+      </c>
+      <c r="E3682">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3683" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3683" s="1">
+        <v>43552.710416666669</v>
+      </c>
+      <c r="D3683">
+        <v>0</v>
+      </c>
+      <c r="E3683">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3684" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3684" s="1">
+        <v>43552.720833333333</v>
+      </c>
+      <c r="D3684">
+        <v>0</v>
+      </c>
+      <c r="E3684">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3685" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3685" s="1">
+        <v>43552.731249999997</v>
+      </c>
+      <c r="D3685">
+        <v>0</v>
+      </c>
+      <c r="E3685">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3686" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3686" s="1">
+        <v>43552.741666666669</v>
+      </c>
+      <c r="D3686">
+        <v>0</v>
+      </c>
+      <c r="E3686">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3687" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3687" s="1">
+        <v>43552.752083333333</v>
+      </c>
+      <c r="D3687">
+        <v>0</v>
+      </c>
+      <c r="E3687">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3688" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3688" s="1">
+        <v>43552.762499999997</v>
+      </c>
+      <c r="D3688">
+        <v>0</v>
+      </c>
+      <c r="E3688">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3689" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3689" s="1">
+        <v>43552.772916666669</v>
+      </c>
+      <c r="D3689">
+        <v>0</v>
+      </c>
+      <c r="E3689">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3690" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3690" s="1">
+        <v>43552.783333333333</v>
+      </c>
+      <c r="D3690">
+        <v>0</v>
+      </c>
+      <c r="E3690">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3691" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3691" s="1">
+        <v>43552.793749999997</v>
+      </c>
+      <c r="D3691">
+        <v>0</v>
+      </c>
+      <c r="E3691">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3692" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3692" s="1">
+        <v>43552.802083333336</v>
+      </c>
+      <c r="D3692">
+        <v>1</v>
+      </c>
+      <c r="F3692">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3693" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3693" s="1">
+        <v>43552.802083333336</v>
+      </c>
+      <c r="D3693">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3694" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3694" s="1">
+        <v>43552.804166666669</v>
+      </c>
+      <c r="D3694">
+        <v>0</v>
+      </c>
+      <c r="E3694">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3695" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3695" s="1">
+        <v>43552.814583333333</v>
+      </c>
+      <c r="D3695">
+        <v>0</v>
+      </c>
+      <c r="E3695">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3696" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3696" s="1">
+        <v>43552.824999999997</v>
+      </c>
+      <c r="D3696">
+        <v>1</v>
+      </c>
+      <c r="F3696">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3697" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3697" s="1">
+        <v>43552.824999999997</v>
+      </c>
+      <c r="D3697">
+        <v>0</v>
+      </c>
+      <c r="E3697">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3698" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3698" s="1">
+        <v>43552.833333333336</v>
+      </c>
+      <c r="D3698">
+        <v>1</v>
+      </c>
+      <c r="F3698">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3699" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3699" s="1">
+        <v>43552.835416666669</v>
+      </c>
+      <c r="D3699">
+        <v>0</v>
+      </c>
+      <c r="E3699">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3700" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3700" s="1">
+        <v>43552.845833333333</v>
+      </c>
+      <c r="D3700">
+        <v>0</v>
+      </c>
+      <c r="E3700">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3701" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3701" s="1">
+        <v>43552.856249999997</v>
+      </c>
+      <c r="D3701">
+        <v>0</v>
+      </c>
+      <c r="E3701">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3702" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3702" s="1">
+        <v>43552.867361111108</v>
+      </c>
+      <c r="D3702">
+        <v>0</v>
+      </c>
+      <c r="E3702">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3703" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3703" s="1">
+        <v>43552.87222222222</v>
+      </c>
+      <c r="D3703">
+        <v>1</v>
+      </c>
+      <c r="F3703">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3704" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3704" s="1">
+        <v>43552.87777777778</v>
+      </c>
+      <c r="D3704">
+        <v>1</v>
+      </c>
+      <c r="F3704">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3705" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3705" s="1">
+        <v>43552.87777777778</v>
+      </c>
+      <c r="D3705">
+        <v>0</v>
+      </c>
+      <c r="E3705">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3706" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3706" s="1">
+        <v>43552.888194444444</v>
+      </c>
+      <c r="D3706">
+        <v>0</v>
+      </c>
+      <c r="E3706">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3707" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3707" s="1">
+        <v>43552.898611111108</v>
+      </c>
+      <c r="D3707">
+        <v>0</v>
+      </c>
+      <c r="E3707">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3708" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3708" s="1">
+        <v>43552.912499999999</v>
+      </c>
+      <c r="D3708">
+        <v>0</v>
+      </c>
+      <c r="E3708">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3709" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3709" s="1">
+        <v>43552.918749999997</v>
+      </c>
+      <c r="D3709">
+        <v>1</v>
+      </c>
+      <c r="F3709">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3710" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3710" s="1">
+        <v>43552.92291666667</v>
+      </c>
+      <c r="D3710">
+        <v>0</v>
+      </c>
+      <c r="E3710">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3711" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3711" s="1">
+        <v>43552.933333333334</v>
+      </c>
+      <c r="D3711">
+        <v>0</v>
+      </c>
+      <c r="E3711">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3712" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3712" s="1">
+        <v>43552.943749999999</v>
+      </c>
+      <c r="D3712">
+        <v>0</v>
+      </c>
+      <c r="E3712">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3713" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3713" s="1">
+        <v>43552.95416666667</v>
+      </c>
+      <c r="D3713">
+        <v>0</v>
+      </c>
+      <c r="E3713">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3714" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3714" s="1">
+        <v>43552.964583333334</v>
+      </c>
+      <c r="D3714">
+        <v>0</v>
+      </c>
+      <c r="E3714">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3715" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3715" s="1">
+        <v>43552.974999999999</v>
+      </c>
+      <c r="D3715">
+        <v>0</v>
+      </c>
+      <c r="E3715">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3716" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3716" s="1">
+        <v>43552.98541666667</v>
+      </c>
+      <c r="D3716">
+        <v>0</v>
+      </c>
+      <c r="E3716">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3717" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3717" s="1">
+        <v>43552.995833333334</v>
+      </c>
+      <c r="D3717">
+        <v>0</v>
+      </c>
+      <c r="E3717">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3718" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3718" s="1">
+        <v>43553.006249999999</v>
+      </c>
+      <c r="D3718">
+        <v>0</v>
+      </c>
+      <c r="E3718">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3719" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3719" s="1">
+        <v>43553.01666666667</v>
+      </c>
+      <c r="D3719">
+        <v>0</v>
+      </c>
+      <c r="E3719">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3720" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3720" s="1">
+        <v>43553.027083333334</v>
+      </c>
+      <c r="D3720">
+        <v>0</v>
+      </c>
+      <c r="E3720">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3721" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3721" s="1">
+        <v>43553.037499999999</v>
+      </c>
+      <c r="D3721">
+        <v>0</v>
+      </c>
+      <c r="E3721">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3722" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3722" s="1">
+        <v>43553.04791666667</v>
+      </c>
+      <c r="D3722">
+        <v>0</v>
+      </c>
+      <c r="E3722">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3723" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3723" s="1">
+        <v>43553.058333333334</v>
+      </c>
+      <c r="D3723">
+        <v>0</v>
+      </c>
+      <c r="E3723">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3724" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3724" s="1">
+        <v>43553.068749999999</v>
+      </c>
+      <c r="D3724">
+        <v>0</v>
+      </c>
+      <c r="E3724">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3725" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3725" s="1">
+        <v>43553.07916666667</v>
+      </c>
+      <c r="D3725">
+        <v>0</v>
+      </c>
+      <c r="E3725">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3726" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3726" s="1">
+        <v>43553.089583333334</v>
+      </c>
+      <c r="D3726">
+        <v>0</v>
+      </c>
+      <c r="E3726">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3727" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3727" s="1">
+        <v>43553.1</v>
+      </c>
+      <c r="D3727">
+        <v>0</v>
+      </c>
+      <c r="E3727">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3728" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3728" s="1">
+        <v>43553.11041666667</v>
+      </c>
+      <c r="D3728">
+        <v>0</v>
+      </c>
+      <c r="E3728">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3729" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3729" s="1">
+        <v>43553.120833333334</v>
+      </c>
+      <c r="D3729">
+        <v>0</v>
+      </c>
+      <c r="E3729">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3730" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3730" s="1">
+        <v>43553.131249999999</v>
+      </c>
+      <c r="D3730">
+        <v>0</v>
+      </c>
+      <c r="E3730">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3731" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3731" s="1">
+        <v>43553.14166666667</v>
+      </c>
+      <c r="D3731">
+        <v>0</v>
+      </c>
+      <c r="E3731">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3732" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3732" s="1">
+        <v>43553.152083333334</v>
+      </c>
+      <c r="D3732">
+        <v>0</v>
+      </c>
+      <c r="E3732">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3733" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3733" s="1">
+        <v>43553.162499999999</v>
+      </c>
+      <c r="D3733">
+        <v>0</v>
+      </c>
+      <c r="E3733">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3734" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3734" s="1">
+        <v>43553.17291666667</v>
+      </c>
+      <c r="D3734">
+        <v>0</v>
+      </c>
+      <c r="E3734">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3735" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3735" s="1">
+        <v>43553.183333333334</v>
+      </c>
+      <c r="D3735">
+        <v>0</v>
+      </c>
+      <c r="E3735">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3736" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3736" s="1">
+        <v>43553.193749999999</v>
+      </c>
+      <c r="D3736">
+        <v>0</v>
+      </c>
+      <c r="E3736">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3737" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3737" s="1">
+        <v>43553.20416666667</v>
+      </c>
+      <c r="D3737">
+        <v>0</v>
+      </c>
+      <c r="E3737">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3738" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3738" s="1">
+        <v>43553.214583333334</v>
+      </c>
+      <c r="D3738">
+        <v>0</v>
+      </c>
+      <c r="E3738">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3739" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3739" s="1">
+        <v>43553.224305555559</v>
+      </c>
+      <c r="D3739">
+        <v>0</v>
+      </c>
+      <c r="E3739">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3740" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3740" s="1">
+        <v>43553.231944444444</v>
+      </c>
+      <c r="D3740">
+        <v>1</v>
+      </c>
+      <c r="F3740">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3741" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3741" s="1">
+        <v>43553.23541666667</v>
+      </c>
+      <c r="D3741">
+        <v>0</v>
+      </c>
+      <c r="E3741">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3742" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3742" s="1">
+        <v>43553.238888888889</v>
+      </c>
+      <c r="D3742">
+        <v>1</v>
+      </c>
+      <c r="F3742">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3743" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3743" s="1">
+        <v>43553.245833333334</v>
+      </c>
+      <c r="D3743">
+        <v>0</v>
+      </c>
+      <c r="E3743">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3744" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3744" s="1">
+        <v>43553.251388888886</v>
+      </c>
+      <c r="D3744">
+        <v>1</v>
+      </c>
+      <c r="F3744">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3745" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3745" s="1">
+        <v>43553.259027777778</v>
+      </c>
+      <c r="D3745">
+        <v>1</v>
+      </c>
+      <c r="F3745">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3746" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3746" s="1">
+        <v>43553.26666666667</v>
+      </c>
+      <c r="D3746">
+        <v>0</v>
+      </c>
+      <c r="E3746">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3747" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3747" s="1">
+        <v>43553.282638888886</v>
+      </c>
+      <c r="D3747">
+        <v>1</v>
+      </c>
+      <c r="F3747">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3748" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3748" s="1">
+        <v>43553.288194444445</v>
+      </c>
+      <c r="D3748">
+        <v>0</v>
+      </c>
+      <c r="E3748">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3749" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3749" s="1">
+        <v>43553.298611111109</v>
+      </c>
+      <c r="D3749">
+        <v>0</v>
+      </c>
+      <c r="E3749">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3750" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3750" s="1">
+        <v>43553.309027777781</v>
+      </c>
+      <c r="D3750">
+        <v>0</v>
+      </c>
+      <c r="E3750">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3751" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3751" s="1">
+        <v>43553.319444444445</v>
+      </c>
+      <c r="D3751">
+        <v>0</v>
+      </c>
+      <c r="E3751">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3752" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3752" s="1">
+        <v>43553.329861111109</v>
+      </c>
+      <c r="D3752">
+        <v>0</v>
+      </c>
+      <c r="E3752">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3753" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3753" s="1">
+        <v>43553.338888888888</v>
+      </c>
+      <c r="D3753">
+        <v>1</v>
+      </c>
+      <c r="F3753">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3754" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3754" s="1">
+        <v>43553.340277777781</v>
+      </c>
+      <c r="D3754">
+        <v>0</v>
+      </c>
+      <c r="E3754">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3755" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3755" s="1">
+        <v>43553.350694444445</v>
+      </c>
+      <c r="D3755">
+        <v>0</v>
+      </c>
+      <c r="E3755">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3756" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3756" s="1">
+        <v>43553.361111111109</v>
+      </c>
+      <c r="D3756">
+        <v>0</v>
+      </c>
+      <c r="E3756">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3757" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3757" s="1">
+        <v>43553.371527777781</v>
+      </c>
+      <c r="D3757">
+        <v>0</v>
+      </c>
+      <c r="E3757">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3758" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3758" s="1">
+        <v>43553.383333333331</v>
+      </c>
+      <c r="D3758">
+        <v>0</v>
+      </c>
+      <c r="E3758">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3759" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3759" s="1">
+        <v>43553.386805555558</v>
+      </c>
+      <c r="D3759">
+        <v>1</v>
+      </c>
+      <c r="F3759">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3760" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3760" s="1">
+        <v>43553.393750000003</v>
+      </c>
+      <c r="D3760">
+        <v>0</v>
+      </c>
+      <c r="E3760">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3761" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3761" s="1">
+        <v>43553.399305555555</v>
+      </c>
+      <c r="D3761">
+        <v>1</v>
+      </c>
+      <c r="F3761">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3762" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3762" s="1">
+        <v>43553.404166666667</v>
+      </c>
+      <c r="D3762">
+        <v>0</v>
+      </c>
+      <c r="E3762">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3763" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3763" s="1">
+        <v>43553.413888888892</v>
+      </c>
+      <c r="D3763">
+        <v>0</v>
+      </c>
+      <c r="E3763">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3764" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3764" s="1">
+        <v>43553.424305555556</v>
+      </c>
+      <c r="D3764">
+        <v>1</v>
+      </c>
+      <c r="F3764">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3765" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3765" s="1">
+        <v>43553.424305555556</v>
+      </c>
+      <c r="D3765">
+        <v>0</v>
+      </c>
+      <c r="E3765">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3766" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3766" s="1">
+        <v>43553.43472222222</v>
+      </c>
+      <c r="D3766">
+        <v>0</v>
+      </c>
+      <c r="E3766">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3767" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3767" s="1">
+        <v>43553.445833333331</v>
+      </c>
+      <c r="D3767">
+        <v>0</v>
+      </c>
+      <c r="E3767">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3768" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3768" s="1">
+        <v>43553.45</v>
+      </c>
+      <c r="D3768">
+        <v>1</v>
+      </c>
+      <c r="F3768">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3769" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3769" s="1">
+        <v>43553.456250000003</v>
+      </c>
+      <c r="D3769">
+        <v>0</v>
+      </c>
+      <c r="E3769">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3770" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3770" s="1">
+        <v>43553.468055555553</v>
+      </c>
+      <c r="D3770">
+        <v>1</v>
+      </c>
+      <c r="F3770">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3771" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3771" s="1">
+        <v>43553.46875</v>
+      </c>
+      <c r="D3771">
+        <v>0</v>
+      </c>
+      <c r="E3771">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3772" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3772" s="1">
+        <v>43553.479166666664</v>
+      </c>
+      <c r="D3772">
+        <v>0</v>
+      </c>
+      <c r="E3772">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3773" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3773" s="1">
+        <v>43553.489583333336</v>
+      </c>
+      <c r="D3773">
+        <v>0</v>
+      </c>
+      <c r="E3773">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3774" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3774" s="1">
+        <v>43553.5</v>
+      </c>
+      <c r="D3774">
+        <v>0</v>
+      </c>
+      <c r="E3774">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3775" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3775" s="1">
+        <v>43553.510416666664</v>
+      </c>
+      <c r="D3775">
+        <v>0</v>
+      </c>
+      <c r="E3775">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3776" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3776" s="1">
+        <v>43553.520833333336</v>
+      </c>
+      <c r="D3776">
+        <v>0</v>
+      </c>
+      <c r="E3776">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3777" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3777" s="1">
+        <v>43553.53125</v>
+      </c>
+      <c r="D3777">
+        <v>0</v>
+      </c>
+      <c r="E3777">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3778" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3778" s="1">
+        <v>43553.541666666664</v>
+      </c>
+      <c r="D3778">
+        <v>0</v>
+      </c>
+      <c r="E3778">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3779" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3779" s="1">
+        <v>43553.552083333336</v>
+      </c>
+      <c r="D3779">
+        <v>0</v>
+      </c>
+      <c r="E3779">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3780" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3780" s="1">
+        <v>43553.5625</v>
+      </c>
+      <c r="D3780">
+        <v>0</v>
+      </c>
+      <c r="E3780">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3781" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3781" s="1">
+        <v>43553.572916666664</v>
+      </c>
+      <c r="D3781">
+        <v>0</v>
+      </c>
+      <c r="E3781">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3782" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3782" s="1">
+        <v>43553.583333333336</v>
+      </c>
+      <c r="D3782">
+        <v>0</v>
+      </c>
+      <c r="E3782">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3783" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3783" s="1">
+        <v>43553.59375</v>
+      </c>
+      <c r="D3783">
+        <v>0</v>
+      </c>
+      <c r="E3783">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3784" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3784" s="1">
+        <v>43553.604166666664</v>
+      </c>
+      <c r="D3784">
+        <v>0</v>
+      </c>
+      <c r="E3784">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3785" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3785" s="1">
+        <v>43553.614583333336</v>
+      </c>
+      <c r="D3785">
+        <v>0</v>
+      </c>
+      <c r="E3785">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3786" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3786" s="1">
+        <v>43553.625</v>
+      </c>
+      <c r="D3786">
+        <v>0</v>
+      </c>
+      <c r="E3786">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3787" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3787" s="1">
+        <v>43553.634722222225</v>
+      </c>
+      <c r="D3787">
+        <v>0</v>
+      </c>
+      <c r="E3787">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3788" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3788" s="1">
+        <v>43553.643055555556</v>
+      </c>
+      <c r="D3788">
+        <v>1</v>
+      </c>
+      <c r="F3788">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3789" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3789" s="1">
+        <v>43553.645138888889</v>
+      </c>
+      <c r="D3789">
+        <v>0</v>
+      </c>
+      <c r="E3789">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3790" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3790" s="1">
+        <v>43553.65625</v>
+      </c>
+      <c r="D3790">
+        <v>0</v>
+      </c>
+      <c r="E3790">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3791" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3791" s="1">
+        <v>43553.661111111112</v>
+      </c>
+      <c r="D3791">
+        <v>1</v>
+      </c>
+      <c r="F3791">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3792" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3792" s="1">
+        <v>43553.666666666664</v>
+      </c>
+      <c r="D3792">
+        <v>0</v>
+      </c>
+      <c r="E3792">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3793" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3793" s="1">
+        <v>43553.677083333336</v>
+      </c>
+      <c r="D3793">
+        <v>0</v>
+      </c>
+      <c r="E3793">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3794" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3794" s="1">
+        <v>43553.6875</v>
+      </c>
+      <c r="D3794">
+        <v>0</v>
+      </c>
+      <c r="E3794">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3795" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3795" s="1">
+        <v>43553.698611111111</v>
+      </c>
+      <c r="D3795">
+        <v>0</v>
+      </c>
+      <c r="E3795">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3796" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3796" s="1">
+        <v>43553.700694444444</v>
+      </c>
+      <c r="D3796">
+        <v>1</v>
+      </c>
+      <c r="F3796">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3797" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3797" s="1">
+        <v>43553.709027777775</v>
+      </c>
+      <c r="D3797">
+        <v>0</v>
+      </c>
+      <c r="E3797">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3798" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3798" s="1">
+        <v>43553.719444444447</v>
+      </c>
+      <c r="D3798">
+        <v>0</v>
+      </c>
+      <c r="E3798">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3799" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3799" s="1">
+        <v>43553.729166666664</v>
+      </c>
+      <c r="D3799">
+        <v>1</v>
+      </c>
+      <c r="F3799">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3800" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3800" s="1">
+        <v>43553.729861111111</v>
+      </c>
+      <c r="D3800">
+        <v>0</v>
+      </c>
+      <c r="E3800">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3801" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3801" s="1">
+        <v>43553.740277777775</v>
+      </c>
+      <c r="D3801">
+        <v>0</v>
+      </c>
+      <c r="E3801">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3802" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3802" s="1">
+        <v>43553.748611111114</v>
+      </c>
+      <c r="D3802">
+        <v>1</v>
+      </c>
+      <c r="F3802">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3803" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3803" s="1">
+        <v>43553.750694444447</v>
+      </c>
+      <c r="D3803">
+        <v>0</v>
+      </c>
+      <c r="E3803">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3804" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3804" s="1">
+        <v>43553.75277777778</v>
+      </c>
+      <c r="D3804">
+        <v>1</v>
+      </c>
+      <c r="F3804">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3805" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3805" s="1">
+        <v>43553.761805555558</v>
+      </c>
+      <c r="D3805">
+        <v>0</v>
+      </c>
+      <c r="E3805">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3806" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3806" s="1">
+        <v>43553.762499999997</v>
+      </c>
+      <c r="D3806">
+        <v>1</v>
+      </c>
+      <c r="F3806">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3807" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3807" s="1">
+        <v>43553.767361111109</v>
+      </c>
+      <c r="D3807">
+        <v>1</v>
+      </c>
+      <c r="F3807">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3808" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3808" s="1">
+        <v>43553.772222222222</v>
+      </c>
+      <c r="D3808">
+        <v>0</v>
+      </c>
+      <c r="E3808">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3809" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3809" s="1">
+        <v>43553.782638888886</v>
+      </c>
+      <c r="D3809">
+        <v>0</v>
+      </c>
+      <c r="E3809">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3810" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3810" s="1">
+        <v>43553.783333333333</v>
+      </c>
+      <c r="D3810">
+        <v>1</v>
+      </c>
+      <c r="F3810">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3811" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3811" s="1">
+        <v>43553.793055555558</v>
+      </c>
+      <c r="D3811">
+        <v>0</v>
+      </c>
+      <c r="E3811">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3812" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3812" s="1">
+        <v>43553.803472222222</v>
+      </c>
+      <c r="D3812">
+        <v>0</v>
+      </c>
+      <c r="E3812">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3813" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3813" s="1">
+        <v>43553.811111111114</v>
+      </c>
+      <c r="D3813">
+        <v>1</v>
+      </c>
+      <c r="F3813">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3814" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3814" s="1">
+        <v>43553.813888888886</v>
+      </c>
+      <c r="D3814">
+        <v>0</v>
+      </c>
+      <c r="E3814">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3815" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3815" s="1">
+        <v>43553.824305555558</v>
+      </c>
+      <c r="D3815">
+        <v>0</v>
+      </c>
+      <c r="E3815">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3816" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3816" s="1">
+        <v>43553.834722222222</v>
+      </c>
+      <c r="D3816">
+        <v>0</v>
+      </c>
+      <c r="E3816">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3817" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3817" s="1">
+        <v>43553.836111111108</v>
+      </c>
+      <c r="D3817">
+        <v>1</v>
+      </c>
+      <c r="F3817">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3818" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3818" s="1">
+        <v>43553.845138888886</v>
+      </c>
+      <c r="D3818">
+        <v>0</v>
+      </c>
+      <c r="E3818">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3819" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3819" s="1">
+        <v>43553.850694444445</v>
+      </c>
+      <c r="D3819">
+        <v>1</v>
+      </c>
+      <c r="F3819">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3820" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3820" s="1">
+        <v>43553.856249999997</v>
+      </c>
+      <c r="D3820">
+        <v>0</v>
+      </c>
+      <c r="E3820">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3821" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3821" s="1">
+        <v>43553.856249999997</v>
+      </c>
+      <c r="D3821">
+        <v>1</v>
+      </c>
+      <c r="F3821">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3822" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3822" s="1">
+        <v>43553.866666666669</v>
+      </c>
+      <c r="D3822">
+        <v>0</v>
+      </c>
+      <c r="E3822">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3823" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3823" s="1">
+        <v>43553.87777777778</v>
+      </c>
+      <c r="D3823">
+        <v>0</v>
+      </c>
+      <c r="E3823">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3824" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3824" s="1">
+        <v>43553.879166666666</v>
+      </c>
+      <c r="D3824">
+        <v>1</v>
+      </c>
+      <c r="F3824">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3825" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3825" s="1">
+        <v>43553.888194444444</v>
+      </c>
+      <c r="D3825">
+        <v>0</v>
+      </c>
+      <c r="E3825">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3826" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3826" s="1">
+        <v>43553.898611111108</v>
+      </c>
+      <c r="D3826">
+        <v>0</v>
+      </c>
+      <c r="E3826">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3827" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3827" s="1">
+        <v>43553.90902777778</v>
+      </c>
+      <c r="D3827">
+        <v>0</v>
+      </c>
+      <c r="E3827">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3828" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3828" s="1">
+        <v>43553.921527777777</v>
+      </c>
+      <c r="D3828">
+        <v>0</v>
+      </c>
+      <c r="E3828">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3829" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3829" s="1">
+        <v>43553.925000000003</v>
+      </c>
+      <c r="D3829">
+        <v>1</v>
+      </c>
+      <c r="F3829">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3830" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3830" s="1">
+        <v>43553.931944444441</v>
+      </c>
+      <c r="D3830">
+        <v>0</v>
+      </c>
+      <c r="E3830">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3831" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3831" s="1">
+        <v>43553.942361111112</v>
+      </c>
+      <c r="D3831">
+        <v>0</v>
+      </c>
+      <c r="E3831">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3832" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3832" s="1">
+        <v>43553.952777777777</v>
+      </c>
+      <c r="D3832">
+        <v>0</v>
+      </c>
+      <c r="E3832">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3833" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3833" s="1">
+        <v>43553.963194444441</v>
+      </c>
+      <c r="D3833">
+        <v>0</v>
+      </c>
+      <c r="E3833">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3834" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3834" s="1">
+        <v>43553.973611111112</v>
+      </c>
+      <c r="D3834">
+        <v>0</v>
+      </c>
+      <c r="E3834">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3835" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3835" s="1">
+        <v>43553.984027777777</v>
+      </c>
+      <c r="D3835">
+        <v>0</v>
+      </c>
+      <c r="E3835">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3836" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3836" s="1">
+        <v>43553.994444444441</v>
+      </c>
+      <c r="D3836">
+        <v>0</v>
+      </c>
+      <c r="E3836">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3837" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3837" s="1">
+        <v>43554.004861111112</v>
+      </c>
+      <c r="D3837">
+        <v>0</v>
+      </c>
+      <c r="E3837">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3838" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3838" s="1">
+        <v>43554.015277777777</v>
+      </c>
+      <c r="D3838">
+        <v>0</v>
+      </c>
+      <c r="E3838">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3839" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3839" s="1">
+        <v>43554.025694444441</v>
+      </c>
+      <c r="D3839">
+        <v>0</v>
+      </c>
+      <c r="E3839">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3840" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3840" s="1">
+        <v>43554.036111111112</v>
+      </c>
+      <c r="D3840">
+        <v>0</v>
+      </c>
+      <c r="E3840">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3841" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3841" s="1">
+        <v>43554.046527777777</v>
+      </c>
+      <c r="D3841">
+        <v>0</v>
+      </c>
+      <c r="E3841">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3842" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3842" s="1">
+        <v>43554.056944444441</v>
+      </c>
+      <c r="D3842">
+        <v>0</v>
+      </c>
+      <c r="E3842">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3843" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3843" s="1">
+        <v>43554.067361111112</v>
+      </c>
+      <c r="D3843">
+        <v>0</v>
+      </c>
+      <c r="E3843">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3844" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3844" s="1">
+        <v>43554.077777777777</v>
+      </c>
+      <c r="D3844">
+        <v>0</v>
+      </c>
+      <c r="E3844">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3845" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3845" s="1">
+        <v>43554.088194444441</v>
+      </c>
+      <c r="D3845">
+        <v>0</v>
+      </c>
+      <c r="E3845">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3846" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3846" s="1">
+        <v>43554.098611111112</v>
+      </c>
+      <c r="D3846">
+        <v>0</v>
+      </c>
+      <c r="E3846">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3847" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3847" s="1">
+        <v>43554.109027777777</v>
+      </c>
+      <c r="D3847">
+        <v>0</v>
+      </c>
+      <c r="E3847">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3848" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3848" s="1">
+        <v>43554.119444444441</v>
+      </c>
+      <c r="D3848">
+        <v>0</v>
+      </c>
+      <c r="E3848">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3849" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3849" s="1">
+        <v>43554.129861111112</v>
+      </c>
+      <c r="D3849">
+        <v>0</v>
+      </c>
+      <c r="E3849">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3850" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3850" s="1">
+        <v>43554.140277777777</v>
+      </c>
+      <c r="D3850">
+        <v>0</v>
+      </c>
+      <c r="E3850">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3851" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3851" s="1">
+        <v>43554.150694444441</v>
+      </c>
+      <c r="D3851">
+        <v>0</v>
+      </c>
+      <c r="E3851">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3852" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3852" s="1">
+        <v>43554.161111111112</v>
+      </c>
+      <c r="D3852">
+        <v>0</v>
+      </c>
+      <c r="E3852">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3853" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3853" s="1">
+        <v>43554.171527777777</v>
+      </c>
+      <c r="D3853">
+        <v>0</v>
+      </c>
+      <c r="E3853">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3854" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3854" s="1">
+        <v>43554.181944444441</v>
+      </c>
+      <c r="D3854">
+        <v>0</v>
+      </c>
+      <c r="E3854">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3855" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3855" s="1">
+        <v>43554.192361111112</v>
+      </c>
+      <c r="D3855">
+        <v>0</v>
+      </c>
+      <c r="E3855">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3856" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3856" s="1">
+        <v>43554.202777777777</v>
+      </c>
+      <c r="D3856">
+        <v>0</v>
+      </c>
+      <c r="E3856">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3857" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3857" s="1">
+        <v>43554.213888888888</v>
+      </c>
+      <c r="D3857">
+        <v>0</v>
+      </c>
+      <c r="E3857">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3858" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3858" s="1">
+        <v>43554.214583333334</v>
+      </c>
+      <c r="D3858">
+        <v>1</v>
+      </c>
+      <c r="F3858">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3859" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3859" s="1">
+        <v>43554.222222222219</v>
+      </c>
+      <c r="D3859">
+        <v>1</v>
+      </c>
+      <c r="F3859">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3860" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3860" s="1">
+        <v>43554.224305555559</v>
+      </c>
+      <c r="D3860">
+        <v>0</v>
+      </c>
+      <c r="E3860">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3861" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3861" s="1">
+        <v>43554.234722222223</v>
+      </c>
+      <c r="D3861">
+        <v>0</v>
+      </c>
+      <c r="E3861">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3862" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3862" s="1">
+        <v>43554.245833333334</v>
+      </c>
+      <c r="D3862">
+        <v>1</v>
+      </c>
+      <c r="F3862">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3863" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3863" s="1">
+        <v>43554.253472222219</v>
+      </c>
+      <c r="D3863">
+        <v>1</v>
+      </c>
+      <c r="F3863">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3864" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3864" s="1">
+        <v>43554.255555555559</v>
+      </c>
+      <c r="D3864">
+        <v>0</v>
+      </c>
+      <c r="E3864">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3865" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3865" s="1">
+        <v>43554.265972222223</v>
+      </c>
+      <c r="D3865">
+        <v>0</v>
+      </c>
+      <c r="E3865">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3866" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3866" s="1">
+        <v>43554.276388888888</v>
+      </c>
+      <c r="D3866">
+        <v>0</v>
+      </c>
+      <c r="E3866">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3867" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3867" s="1">
+        <v>43554.277083333334</v>
+      </c>
+      <c r="D3867">
+        <v>1</v>
+      </c>
+      <c r="F3867">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3868" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3868" s="1">
+        <v>43554.286805555559</v>
+      </c>
+      <c r="D3868">
+        <v>0</v>
+      </c>
+      <c r="E3868">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3869" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3869" s="1">
+        <v>43554.303472222222</v>
+      </c>
+      <c r="D3869">
+        <v>1</v>
+      </c>
+      <c r="F3869">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3870" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3870" s="1">
+        <v>43554.405555555553</v>
+      </c>
+      <c r="D3870">
+        <v>0</v>
+      </c>
+      <c r="E3870">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3871" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3871" s="1">
+        <v>43554.415972222225</v>
+      </c>
+      <c r="D3871">
+        <v>0</v>
+      </c>
+      <c r="E3871">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3872" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3872" s="1">
+        <v>43554.426388888889</v>
+      </c>
+      <c r="D3872">
+        <v>0</v>
+      </c>
+      <c r="E3872">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3873" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3873" s="1">
+        <v>43554.436805555553</v>
+      </c>
+      <c r="D3873">
+        <v>0</v>
+      </c>
+      <c r="E3873">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3874" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3874" s="1">
+        <v>43554.447222222225</v>
+      </c>
+      <c r="D3874">
+        <v>0</v>
+      </c>
+      <c r="E3874">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3875" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3875" s="1">
+        <v>43554.457638888889</v>
+      </c>
+      <c r="D3875">
+        <v>0</v>
+      </c>
+      <c r="E3875">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3876" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3876" s="1">
+        <v>43554.468055555553</v>
+      </c>
+      <c r="D3876">
+        <v>0</v>
+      </c>
+      <c r="E3876">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3877" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3877" s="1">
+        <v>43554.478472222225</v>
+      </c>
+      <c r="D3877">
+        <v>0</v>
+      </c>
+      <c r="E3877">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3878" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3878" s="1">
+        <v>43554.488888888889</v>
+      </c>
+      <c r="D3878">
+        <v>0</v>
+      </c>
+      <c r="E3878">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3879" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3879" s="1">
+        <v>43554.499305555553</v>
+      </c>
+      <c r="D3879">
+        <v>0</v>
+      </c>
+      <c r="E3879">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3880" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3880" s="1">
+        <v>43554.509722222225</v>
+      </c>
+      <c r="D3880">
+        <v>0</v>
+      </c>
+      <c r="E3880">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3881" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3881" s="1">
+        <v>43554.520138888889</v>
+      </c>
+      <c r="D3881">
+        <v>0</v>
+      </c>
+      <c r="E3881">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3882" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3882" s="1">
+        <v>43554.530555555553</v>
+      </c>
+      <c r="D3882">
+        <v>0</v>
+      </c>
+      <c r="E3882">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3883" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3883" s="1">
+        <v>43554.540972222225</v>
+      </c>
+      <c r="D3883">
+        <v>0</v>
+      </c>
+      <c r="E3883">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3884" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3884" s="1">
+        <v>43554.551388888889</v>
+      </c>
+      <c r="D3884">
+        <v>0</v>
+      </c>
+      <c r="E3884">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3885" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3885" s="1">
+        <v>43554.561805555553</v>
+      </c>
+      <c r="D3885">
+        <v>0</v>
+      </c>
+      <c r="E3885">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3886" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3886" s="1">
+        <v>43554.572222222225</v>
+      </c>
+      <c r="D3886">
+        <v>0</v>
+      </c>
+      <c r="E3886">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3887" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3887" s="1">
+        <v>43554.582638888889</v>
+      </c>
+      <c r="D3887">
+        <v>0</v>
+      </c>
+      <c r="E3887">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3888" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3888" s="1">
+        <v>43554.593055555553</v>
+      </c>
+      <c r="D3888">
+        <v>0</v>
+      </c>
+      <c r="E3888">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3889" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3889" s="1">
+        <v>43554.603472222225</v>
+      </c>
+      <c r="D3889">
+        <v>0</v>
+      </c>
+      <c r="E3889">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3890" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3890" s="1">
+        <v>43554.613888888889</v>
+      </c>
+      <c r="D3890">
+        <v>0</v>
+      </c>
+      <c r="E3890">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3891" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3891" s="1">
+        <v>43554.624305555553</v>
+      </c>
+      <c r="D3891">
+        <v>0</v>
+      </c>
+      <c r="E3891">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3892" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3892" s="1">
+        <v>43554.634722222225</v>
+      </c>
+      <c r="D3892">
+        <v>0</v>
+      </c>
+      <c r="E3892">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3893" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3893" s="1">
+        <v>43554.645138888889</v>
+      </c>
+      <c r="D3893">
+        <v>0</v>
+      </c>
+      <c r="E3893">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3894" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3894" s="1">
+        <v>43554.655555555553</v>
+      </c>
+      <c r="D3894">
+        <v>0</v>
+      </c>
+      <c r="E3894">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3895" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3895" s="1">
+        <v>43554.665972222225</v>
+      </c>
+      <c r="D3895">
+        <v>0</v>
+      </c>
+      <c r="E3895">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3896" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3896" s="1">
+        <v>43554.676388888889</v>
+      </c>
+      <c r="D3896">
+        <v>0</v>
+      </c>
+      <c r="E3896">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3897" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3897" s="1">
+        <v>43554.686805555553</v>
+      </c>
+      <c r="D3897">
+        <v>0</v>
+      </c>
+      <c r="E3897">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3898" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3898" s="1">
+        <v>43554.697222222225</v>
+      </c>
+      <c r="D3898">
+        <v>0</v>
+      </c>
+      <c r="E3898">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3899" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3899" s="1">
+        <v>43554.707638888889</v>
+      </c>
+      <c r="D3899">
+        <v>0</v>
+      </c>
+      <c r="E3899">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3900" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3900" s="1">
+        <v>43554.718055555553</v>
+      </c>
+      <c r="D3900">
+        <v>0</v>
+      </c>
+      <c r="E3900">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3901" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3901" s="1">
+        <v>43554.728472222225</v>
+      </c>
+      <c r="D3901">
+        <v>0</v>
+      </c>
+      <c r="E3901">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3902" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3902" s="1">
+        <v>43554.738888888889</v>
+      </c>
+      <c r="D3902">
+        <v>1</v>
+      </c>
+      <c r="F3902">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3903" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3903" s="1">
+        <v>43554.740277777775</v>
+      </c>
+      <c r="D3903">
+        <v>0</v>
+      </c>
+      <c r="E3903">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3904" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3904" s="1">
+        <v>43554.743055555555</v>
+      </c>
+      <c r="D3904">
+        <v>1</v>
+      </c>
+      <c r="F3904">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3905" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3905" s="1">
+        <v>43554.750694444447</v>
+      </c>
+      <c r="D3905">
+        <v>0</v>
+      </c>
+      <c r="E3905">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3906" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3906" s="1">
+        <v>43554.761111111111</v>
+      </c>
+      <c r="D3906">
+        <v>0</v>
+      </c>
+      <c r="E3906">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3907" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3907" s="1">
+        <v>43554.771527777775</v>
+      </c>
+      <c r="D3907">
+        <v>0</v>
+      </c>
+      <c r="E3907">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3908" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3908" s="1">
+        <v>43554.781944444447</v>
+      </c>
+      <c r="D3908">
+        <v>0</v>
+      </c>
+      <c r="E3908">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3909" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3909" s="1">
+        <v>43554.792361111111</v>
+      </c>
+      <c r="D3909">
+        <v>0</v>
+      </c>
+      <c r="E3909">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3910" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3910" s="1">
+        <v>43554.802777777775</v>
+      </c>
+      <c r="D3910">
+        <v>0</v>
+      </c>
+      <c r="E3910">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3911" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3911" s="1">
+        <v>43554.813194444447</v>
+      </c>
+      <c r="D3911">
+        <v>0</v>
+      </c>
+      <c r="E3911">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3912" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3912" s="1">
+        <v>43554.815972222219</v>
+      </c>
+      <c r="D3912">
+        <v>1</v>
+      </c>
+      <c r="F3912">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3913" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3913" s="1">
+        <v>43554.823611111111</v>
+      </c>
+      <c r="D3913">
+        <v>0</v>
+      </c>
+      <c r="E3913">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3914" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3914" s="1">
+        <v>43554.834722222222</v>
+      </c>
+      <c r="D3914">
+        <v>0</v>
+      </c>
+      <c r="E3914">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3915" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3915" s="1">
+        <v>43554.84375</v>
+      </c>
+      <c r="D3915">
+        <v>1</v>
+      </c>
+      <c r="F3915">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3916" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3916" s="1">
+        <v>43554.845138888886</v>
+      </c>
+      <c r="D3916">
+        <v>0</v>
+      </c>
+      <c r="E3916">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3917" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3917" s="1">
+        <v>43554.855555555558</v>
+      </c>
+      <c r="D3917">
+        <v>0</v>
+      </c>
+      <c r="E3917">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3918" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3918" s="1">
+        <v>43554.865972222222</v>
+      </c>
+      <c r="D3918">
+        <v>0</v>
+      </c>
+      <c r="E3918">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3919" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3919" s="1">
+        <v>43554.876388888886</v>
+      </c>
+      <c r="D3919">
+        <v>0</v>
+      </c>
+      <c r="E3919">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3920" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3920" s="1">
+        <v>43554.886805555558</v>
+      </c>
+      <c r="D3920">
+        <v>0</v>
+      </c>
+      <c r="E3920">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3921" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3921" s="1">
+        <v>43554.897222222222</v>
+      </c>
+      <c r="D3921">
+        <v>0</v>
+      </c>
+      <c r="E3921">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3922" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3922" s="1">
+        <v>43554.910416666666</v>
+      </c>
+      <c r="D3922">
+        <v>0</v>
+      </c>
+      <c r="E3922">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3923" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3923" s="1">
+        <v>43554.915277777778</v>
+      </c>
+      <c r="D3923">
+        <v>1</v>
+      </c>
+      <c r="F3923">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3924" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3924" s="1">
+        <v>43554.92083333333</v>
+      </c>
+      <c r="D3924">
+        <v>0</v>
+      </c>
+      <c r="E3924">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3925" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3925" s="1">
+        <v>43554.931250000001</v>
+      </c>
+      <c r="D3925">
+        <v>0</v>
+      </c>
+      <c r="E3925">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3926" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3926" s="1">
+        <v>43554.941666666666</v>
+      </c>
+      <c r="D3926">
+        <v>0</v>
+      </c>
+      <c r="E3926">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3927" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3927" s="1">
+        <v>43554.95208333333</v>
+      </c>
+      <c r="D3927">
+        <v>0</v>
+      </c>
+      <c r="E3927">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3928" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3928" s="1">
+        <v>43554.962500000001</v>
+      </c>
+      <c r="D3928">
+        <v>0</v>
+      </c>
+      <c r="E3928">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3929" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3929" s="1">
+        <v>43554.972916666666</v>
+      </c>
+      <c r="D3929">
+        <v>0</v>
+      </c>
+      <c r="E3929">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3930" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3930" s="1">
+        <v>43554.98333333333</v>
+      </c>
+      <c r="D3930">
+        <v>0</v>
+      </c>
+      <c r="E3930">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3931" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3931" s="1">
+        <v>43554.993750000001</v>
+      </c>
+      <c r="D3931">
+        <v>0</v>
+      </c>
+      <c r="E3931">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3932" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3932" s="1">
+        <v>43555.004166666666</v>
+      </c>
+      <c r="D3932">
+        <v>0</v>
+      </c>
+      <c r="E3932">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3933" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3933" s="1">
+        <v>43555.01458333333</v>
+      </c>
+      <c r="D3933">
+        <v>0</v>
+      </c>
+      <c r="E3933">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3934" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3934" s="1">
+        <v>43555.025000000001</v>
+      </c>
+      <c r="D3934">
+        <v>0</v>
+      </c>
+      <c r="E3934">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3935" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3935" s="1">
+        <v>43555.035416666666</v>
+      </c>
+      <c r="D3935">
+        <v>0</v>
+      </c>
+      <c r="E3935">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3936" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3936" s="1">
+        <v>43555.04583333333</v>
+      </c>
+      <c r="D3936">
+        <v>0</v>
+      </c>
+      <c r="E3936">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3937" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3937" s="1">
+        <v>43555.056250000001</v>
+      </c>
+      <c r="D3937">
+        <v>0</v>
+      </c>
+      <c r="E3937">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3938" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3938" s="1">
+        <v>43555.066666666666</v>
+      </c>
+      <c r="D3938">
+        <v>0</v>
+      </c>
+      <c r="E3938">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3939" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3939" s="1">
+        <v>43555.07708333333</v>
+      </c>
+      <c r="D3939">
+        <v>0</v>
+      </c>
+      <c r="E3939">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3940" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3940" s="1">
+        <v>43555.087500000001</v>
+      </c>
+      <c r="D3940">
+        <v>0</v>
+      </c>
+      <c r="E3940">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3941" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3941" s="1">
+        <v>43555.097916666666</v>
+      </c>
+      <c r="D3941">
+        <v>0</v>
+      </c>
+      <c r="E3941">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3942" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3942" s="1">
+        <v>43555.10833333333</v>
+      </c>
+      <c r="D3942">
+        <v>0</v>
+      </c>
+      <c r="E3942">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3943" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3943" s="1">
+        <v>43555.118750000001</v>
+      </c>
+      <c r="D3943">
+        <v>0</v>
+      </c>
+      <c r="E3943">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3944" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3944" s="1">
+        <v>43555.129166666666</v>
+      </c>
+      <c r="D3944">
+        <v>0</v>
+      </c>
+      <c r="E3944">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3945" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3945" s="1">
+        <v>43555.13958333333</v>
+      </c>
+      <c r="D3945">
+        <v>0</v>
+      </c>
+      <c r="E3945">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3946" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3946" s="1">
+        <v>43555.15</v>
+      </c>
+      <c r="D3946">
+        <v>0</v>
+      </c>
+      <c r="E3946">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3947" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3947" s="1">
+        <v>43555.160416666666</v>
+      </c>
+      <c r="D3947">
+        <v>0</v>
+      </c>
+      <c r="E3947">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3948" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3948" s="1">
+        <v>43555.171527777777</v>
+      </c>
+      <c r="D3948">
+        <v>0</v>
+      </c>
+      <c r="E3948">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3949" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3949" s="1">
+        <v>43555.177083333336</v>
+      </c>
+      <c r="D3949">
+        <v>1</v>
+      </c>
+      <c r="F3949">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3950" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3950" s="1">
+        <v>43555.181944444441</v>
+      </c>
+      <c r="D3950">
+        <v>0</v>
+      </c>
+      <c r="E3950">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3951" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3951" s="1">
+        <v>43555.192361111112</v>
+      </c>
+      <c r="D3951">
+        <v>0</v>
+      </c>
+      <c r="E3951">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3952" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3952" s="1">
+        <v>43555.202777777777</v>
+      </c>
+      <c r="D3952">
+        <v>0</v>
+      </c>
+      <c r="E3952">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3953" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3953" s="1">
+        <v>43555.213194444441</v>
+      </c>
+      <c r="D3953">
+        <v>0</v>
+      </c>
+      <c r="E3953">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3954" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3954" s="1">
+        <v>43555.223611111112</v>
+      </c>
+      <c r="D3954">
+        <v>0</v>
+      </c>
+      <c r="E3954">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3955" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3955" s="1">
+        <v>43555.234027777777</v>
+      </c>
+      <c r="D3955">
+        <v>0</v>
+      </c>
+      <c r="E3955">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3956" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3956" s="1">
+        <v>43555.244444444441</v>
+      </c>
+      <c r="D3956">
+        <v>0</v>
+      </c>
+      <c r="E3956">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3957" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3957" s="1">
+        <v>43555.254861111112</v>
+      </c>
+      <c r="D3957">
+        <v>0</v>
+      </c>
+      <c r="E3957">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3958" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3958" s="1">
+        <v>43555.265277777777</v>
+      </c>
+      <c r="D3958">
+        <v>0</v>
+      </c>
+      <c r="E3958">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3959" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3959" s="1">
+        <v>43555.275694444441</v>
+      </c>
+      <c r="D3959">
+        <v>0</v>
+      </c>
+      <c r="E3959">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3960" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3960" s="1">
+        <v>43555.286111111112</v>
+      </c>
+      <c r="D3960">
+        <v>0</v>
+      </c>
+      <c r="E3960">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3961" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3961" s="1">
+        <v>43555.290972222225</v>
+      </c>
+      <c r="D3961">
+        <v>1</v>
+      </c>
+      <c r="F3961">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3962" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3962" s="1">
+        <v>43555.297222222223</v>
+      </c>
+      <c r="D3962">
+        <v>0</v>
+      </c>
+      <c r="E3962">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3963" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3963" s="1">
+        <v>43555.304861111108</v>
+      </c>
+      <c r="D3963">
+        <v>1</v>
+      </c>
+      <c r="F3963">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3964" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3964" s="1">
+        <v>43555.308333333334</v>
+      </c>
+      <c r="D3964">
+        <v>1</v>
+      </c>
+      <c r="F3964">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/librelink/Librelink.xlsx
+++ b/librelink/Librelink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc6084b92ffa451/Sprague 2019/Health 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{1DF15EB1-8D61-6642-9AC4-0A049F576367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3A491F5F-A3B3-644E-8D42-249D0332B2F0}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{1DF15EB1-8D61-6642-9AC4-0A049F576367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{55C9846D-999F-2240-A4EF-0F4E8FA43194}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="1700" windowWidth="17400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="1180" windowWidth="17400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Librelink" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="66">
   <si>
     <t>Meter</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baguette </t>
+  </si>
+  <si>
+    <t>Burger</t>
   </si>
 </sst>
 </file>
@@ -785,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF602BB5-9469-1B45-BB1A-DFBEABAFCD1B}" name="Table1" displayName="Table1" ref="A1:S3964" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:S3964" xr:uid="{A8E95FAB-7D33-F24D-8350-CC174D759A60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF602BB5-9469-1B45-BB1A-DFBEABAFCD1B}" name="Table1" displayName="Table1" ref="A1:S4083" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:S4083" xr:uid="{A8E95FAB-7D33-F24D-8350-CC174D759A60}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{374D21D6-0283-C44B-8028-4060CB201675}" name="Meter"/>
     <tableColumn id="2" xr3:uid="{48610F22-94E8-1142-AF15-100D6756BE81}" name="Serial Number"/>
@@ -1109,12 +1115,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3964"/>
+  <dimension ref="A1:S4083"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3836" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4001" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3864" sqref="C3864:H3964"/>
+      <selection pane="bottomLeft" activeCell="C4018" sqref="C4018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46360,6 +46366,1315 @@
         <v>87</v>
       </c>
     </row>
+    <row r="3965" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3965" s="1">
+        <v>43555.318055555559</v>
+      </c>
+      <c r="D3965">
+        <v>0</v>
+      </c>
+      <c r="E3965">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3966" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3966" s="1">
+        <v>43555.328472222223</v>
+      </c>
+      <c r="D3966">
+        <v>0</v>
+      </c>
+      <c r="E3966">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3967" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3967" s="1">
+        <v>43555.331944444442</v>
+      </c>
+      <c r="D3967">
+        <v>1</v>
+      </c>
+      <c r="F3967">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3968" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3968" s="1">
+        <v>43555.338888888888</v>
+      </c>
+      <c r="D3968">
+        <v>0</v>
+      </c>
+      <c r="E3968">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3969" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3969" s="1">
+        <v>43555.349305555559</v>
+      </c>
+      <c r="D3969">
+        <v>0</v>
+      </c>
+      <c r="E3969">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3970" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3970" s="1">
+        <v>43555.354861111111</v>
+      </c>
+      <c r="D3970">
+        <v>1</v>
+      </c>
+      <c r="F3970">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3971" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3971" s="1">
+        <v>43555.36041666667</v>
+      </c>
+      <c r="D3971">
+        <v>0</v>
+      </c>
+      <c r="E3971">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3972" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3972" s="1">
+        <v>43555.368750000001</v>
+      </c>
+      <c r="D3972">
+        <v>1</v>
+      </c>
+      <c r="F3972">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3973" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3973" s="1">
+        <v>43555.370833333334</v>
+      </c>
+      <c r="D3973">
+        <v>0</v>
+      </c>
+      <c r="E3973">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3974" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3974" s="1">
+        <v>43555.381249999999</v>
+      </c>
+      <c r="D3974">
+        <v>0</v>
+      </c>
+      <c r="E3974">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3975" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3975" s="1">
+        <v>43555.39166666667</v>
+      </c>
+      <c r="D3975">
+        <v>0</v>
+      </c>
+      <c r="E3975">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3976" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3976" s="1">
+        <v>43555.402083333334</v>
+      </c>
+      <c r="D3976">
+        <v>0</v>
+      </c>
+      <c r="E3976">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3977" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3977" s="1">
+        <v>43555.412499999999</v>
+      </c>
+      <c r="D3977">
+        <v>0</v>
+      </c>
+      <c r="E3977">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3978" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3978" s="1">
+        <v>43555.423611111109</v>
+      </c>
+      <c r="D3978">
+        <v>0</v>
+      </c>
+      <c r="E3978">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3979" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3979" s="1">
+        <v>43555.423611111109</v>
+      </c>
+      <c r="D3979">
+        <v>1</v>
+      </c>
+      <c r="F3979">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3980" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3980" s="1">
+        <v>43555.434027777781</v>
+      </c>
+      <c r="D3980">
+        <v>0</v>
+      </c>
+      <c r="E3980">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3981" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3981" s="1">
+        <v>43555.444444444445</v>
+      </c>
+      <c r="D3981">
+        <v>0</v>
+      </c>
+      <c r="E3981">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3982" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3982" s="1">
+        <v>43555.454861111109</v>
+      </c>
+      <c r="D3982">
+        <v>0</v>
+      </c>
+      <c r="E3982">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3983" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3983" s="1">
+        <v>43555.456250000003</v>
+      </c>
+      <c r="D3983">
+        <v>1</v>
+      </c>
+      <c r="F3983">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3984" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3984" s="1">
+        <v>43555.456250000003</v>
+      </c>
+      <c r="D3984">
+        <v>6</v>
+      </c>
+      <c r="N3984" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3985" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3985" s="1">
+        <v>43555.465277777781</v>
+      </c>
+      <c r="D3985">
+        <v>0</v>
+      </c>
+      <c r="E3985">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3986" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3986" s="1">
+        <v>43555.46875</v>
+      </c>
+      <c r="D3986">
+        <v>1</v>
+      </c>
+      <c r="F3986">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3987" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3987" s="1">
+        <v>43555.469444444447</v>
+      </c>
+      <c r="D3987">
+        <v>1</v>
+      </c>
+      <c r="F3987">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3988" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3988" s="1">
+        <v>43555.475694444445</v>
+      </c>
+      <c r="D3988">
+        <v>0</v>
+      </c>
+      <c r="E3988">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3989" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3989" s="1">
+        <v>43555.486111111109</v>
+      </c>
+      <c r="D3989">
+        <v>0</v>
+      </c>
+      <c r="E3989">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3990" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3990" s="1">
+        <v>43555.486805555556</v>
+      </c>
+      <c r="D3990">
+        <v>1</v>
+      </c>
+      <c r="F3990">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3991" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3991" s="1">
+        <v>43555.489583333336</v>
+      </c>
+      <c r="D3991">
+        <v>1</v>
+      </c>
+      <c r="F3991">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3992" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3992" s="1">
+        <v>43555.493055555555</v>
+      </c>
+      <c r="D3992">
+        <v>1</v>
+      </c>
+      <c r="F3992">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3993" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3993" s="1">
+        <v>43555.496527777781</v>
+      </c>
+      <c r="D3993">
+        <v>0</v>
+      </c>
+      <c r="E3993">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3994" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3994" s="1">
+        <v>43555.498611111114</v>
+      </c>
+      <c r="D3994">
+        <v>1</v>
+      </c>
+      <c r="F3994">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3995" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3995" s="1">
+        <v>43555.5</v>
+      </c>
+      <c r="D3995">
+        <v>1</v>
+      </c>
+      <c r="F3995">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3996" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3996" s="1">
+        <v>43555.503472222219</v>
+      </c>
+      <c r="D3996">
+        <v>1</v>
+      </c>
+      <c r="F3996">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3997" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3997" s="1">
+        <v>43555.506944444445</v>
+      </c>
+      <c r="D3997">
+        <v>1</v>
+      </c>
+      <c r="F3997">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3998" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3998" s="1">
+        <v>43555.506944444445</v>
+      </c>
+      <c r="D3998">
+        <v>6</v>
+      </c>
+      <c r="N3998" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3999" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3999" s="1">
+        <v>43555.507638888892</v>
+      </c>
+      <c r="D3999">
+        <v>0</v>
+      </c>
+      <c r="E3999">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4000" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C4000" s="1">
+        <v>43555.510416666664</v>
+      </c>
+      <c r="D4000">
+        <v>1</v>
+      </c>
+      <c r="F4000">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4001" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4001" s="1">
+        <v>43555.513888888891</v>
+      </c>
+      <c r="D4001">
+        <v>1</v>
+      </c>
+      <c r="F4001">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4002" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4002" s="1">
+        <v>43555.518055555556</v>
+      </c>
+      <c r="D4002">
+        <v>0</v>
+      </c>
+      <c r="E4002">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4003" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4003" s="1">
+        <v>43555.52847222222</v>
+      </c>
+      <c r="D4003">
+        <v>0</v>
+      </c>
+      <c r="E4003">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4004" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4004" s="1">
+        <v>43555.538888888892</v>
+      </c>
+      <c r="D4004">
+        <v>0</v>
+      </c>
+      <c r="E4004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4005" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4005" s="1">
+        <v>43555.549305555556</v>
+      </c>
+      <c r="D4005">
+        <v>0</v>
+      </c>
+      <c r="E4005">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4006" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4006" s="1">
+        <v>43555.55972222222</v>
+      </c>
+      <c r="D4006">
+        <v>0</v>
+      </c>
+      <c r="E4006">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4007" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4007" s="1">
+        <v>43555.570138888892</v>
+      </c>
+      <c r="D4007">
+        <v>0</v>
+      </c>
+      <c r="E4007">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4008" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4008" s="1">
+        <v>43555.581250000003</v>
+      </c>
+      <c r="D4008">
+        <v>0</v>
+      </c>
+      <c r="E4008">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4009" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4009" s="1">
+        <v>43555.586805555555</v>
+      </c>
+      <c r="D4009">
+        <v>1</v>
+      </c>
+      <c r="F4009">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4010" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4010" s="1">
+        <v>43555.591666666667</v>
+      </c>
+      <c r="D4010">
+        <v>0</v>
+      </c>
+      <c r="E4010">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4011" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4011" s="1">
+        <v>43555.602083333331</v>
+      </c>
+      <c r="D4011">
+        <v>0</v>
+      </c>
+      <c r="E4011">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4012" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4012" s="1">
+        <v>43555.60833333333</v>
+      </c>
+      <c r="D4012">
+        <v>1</v>
+      </c>
+      <c r="F4012">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4013" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4013" s="1">
+        <v>43555.612500000003</v>
+      </c>
+      <c r="D4013">
+        <v>0</v>
+      </c>
+      <c r="E4013">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4014" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4014" s="1">
+        <v>43555.622916666667</v>
+      </c>
+      <c r="D4014">
+        <v>0</v>
+      </c>
+      <c r="E4014">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4015" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4015" s="1">
+        <v>43555.633333333331</v>
+      </c>
+      <c r="D4015">
+        <v>0</v>
+      </c>
+      <c r="E4015">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4016" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4016" s="1">
+        <v>43555.643750000003</v>
+      </c>
+      <c r="D4016">
+        <v>0</v>
+      </c>
+      <c r="E4016">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4017" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4017" s="1">
+        <v>43555.654166666667</v>
+      </c>
+      <c r="D4017">
+        <v>0</v>
+      </c>
+      <c r="E4017">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4018" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4018" s="1">
+        <v>43555.665277777778</v>
+      </c>
+      <c r="D4018">
+        <v>0</v>
+      </c>
+      <c r="E4018">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4019" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4019" s="1">
+        <v>43555.67291666667</v>
+      </c>
+      <c r="D4019">
+        <v>1</v>
+      </c>
+      <c r="F4019">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4020" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4020" s="1">
+        <v>43555.675694444442</v>
+      </c>
+      <c r="D4020">
+        <v>0</v>
+      </c>
+      <c r="E4020">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4021" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4021" s="1">
+        <v>43555.686111111114</v>
+      </c>
+      <c r="D4021">
+        <v>0</v>
+      </c>
+      <c r="E4021">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4022" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4022" s="1">
+        <v>43555.696527777778</v>
+      </c>
+      <c r="D4022">
+        <v>0</v>
+      </c>
+      <c r="E4022">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4023" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4023" s="1">
+        <v>43555.706944444442</v>
+      </c>
+      <c r="D4023">
+        <v>0</v>
+      </c>
+      <c r="E4023">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4024" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4024" s="1">
+        <v>43555.717361111114</v>
+      </c>
+      <c r="D4024">
+        <v>0</v>
+      </c>
+      <c r="E4024">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4025" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4025" s="1">
+        <v>43555.73541666667</v>
+      </c>
+      <c r="D4025">
+        <v>1</v>
+      </c>
+      <c r="F4025">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4026" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4026" s="1">
+        <v>43555.738888888889</v>
+      </c>
+      <c r="D4026">
+        <v>0</v>
+      </c>
+      <c r="E4026">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4027" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4027" s="1">
+        <v>43555.749305555553</v>
+      </c>
+      <c r="D4027">
+        <v>0</v>
+      </c>
+      <c r="E4027">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4028" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4028" s="1">
+        <v>43555.759722222225</v>
+      </c>
+      <c r="D4028">
+        <v>0</v>
+      </c>
+      <c r="E4028">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4029" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4029" s="1">
+        <v>43555.770138888889</v>
+      </c>
+      <c r="D4029">
+        <v>0</v>
+      </c>
+      <c r="E4029">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4030" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4030" s="1">
+        <v>43555.780555555553</v>
+      </c>
+      <c r="D4030">
+        <v>0</v>
+      </c>
+      <c r="E4030">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4031" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4031" s="1">
+        <v>43555.790972222225</v>
+      </c>
+      <c r="D4031">
+        <v>0</v>
+      </c>
+      <c r="E4031">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4032" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4032" s="1">
+        <v>43555.791666666664</v>
+      </c>
+      <c r="D4032">
+        <v>1</v>
+      </c>
+      <c r="F4032">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4033" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4033" s="1">
+        <v>43555.801388888889</v>
+      </c>
+      <c r="D4033">
+        <v>0</v>
+      </c>
+      <c r="E4033">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4034" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4034" s="1">
+        <v>43555.806944444441</v>
+      </c>
+      <c r="D4034">
+        <v>1</v>
+      </c>
+      <c r="F4034">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4035" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4035" s="1">
+        <v>43555.8125</v>
+      </c>
+      <c r="D4035">
+        <v>0</v>
+      </c>
+      <c r="E4035">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4036" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4036" s="1">
+        <v>43555.816666666666</v>
+      </c>
+      <c r="D4036">
+        <v>1</v>
+      </c>
+      <c r="F4036">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4037" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4037" s="1">
+        <v>43555.822916666664</v>
+      </c>
+      <c r="D4037">
+        <v>0</v>
+      </c>
+      <c r="E4037">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4038" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4038" s="1">
+        <v>43555.833333333336</v>
+      </c>
+      <c r="D4038">
+        <v>0</v>
+      </c>
+      <c r="E4038">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4039" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4039" s="1">
+        <v>43555.84375</v>
+      </c>
+      <c r="D4039">
+        <v>0</v>
+      </c>
+      <c r="E4039">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4040" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4040" s="1">
+        <v>43555.854166666664</v>
+      </c>
+      <c r="D4040">
+        <v>0</v>
+      </c>
+      <c r="E4040">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4041" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4041" s="1">
+        <v>43555.864583333336</v>
+      </c>
+      <c r="D4041">
+        <v>0</v>
+      </c>
+      <c r="E4041">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4042" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4042" s="1">
+        <v>43555.875</v>
+      </c>
+      <c r="D4042">
+        <v>0</v>
+      </c>
+      <c r="E4042">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4043" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4043" s="1">
+        <v>43555.885416666664</v>
+      </c>
+      <c r="D4043">
+        <v>0</v>
+      </c>
+      <c r="E4043">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4044" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4044" s="1">
+        <v>43555.89166666667</v>
+      </c>
+      <c r="D4044">
+        <v>1</v>
+      </c>
+      <c r="F4044">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4045" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4045" s="1">
+        <v>43555.895833333336</v>
+      </c>
+      <c r="D4045">
+        <v>0</v>
+      </c>
+      <c r="E4045">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4046" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4046" s="1">
+        <v>43555.90902777778</v>
+      </c>
+      <c r="D4046">
+        <v>1</v>
+      </c>
+      <c r="F4046">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4047" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4047" s="1">
+        <v>43555.931250000001</v>
+      </c>
+      <c r="D4047">
+        <v>0</v>
+      </c>
+      <c r="E4047">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4048" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4048" s="1">
+        <v>43555.941666666666</v>
+      </c>
+      <c r="D4048">
+        <v>0</v>
+      </c>
+      <c r="E4048">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4049" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4049" s="1">
+        <v>43555.95208333333</v>
+      </c>
+      <c r="D4049">
+        <v>0</v>
+      </c>
+      <c r="E4049">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4050" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4050" s="1">
+        <v>43555.962500000001</v>
+      </c>
+      <c r="D4050">
+        <v>0</v>
+      </c>
+      <c r="E4050">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4051" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4051" s="1">
+        <v>43555.972916666666</v>
+      </c>
+      <c r="D4051">
+        <v>0</v>
+      </c>
+      <c r="E4051">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4052" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4052" s="1">
+        <v>43555.98333333333</v>
+      </c>
+      <c r="D4052">
+        <v>0</v>
+      </c>
+      <c r="E4052">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4053" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4053" s="1">
+        <v>43555.993750000001</v>
+      </c>
+      <c r="D4053">
+        <v>0</v>
+      </c>
+      <c r="E4053">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4054" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4054" s="1">
+        <v>43556.004166666666</v>
+      </c>
+      <c r="D4054">
+        <v>0</v>
+      </c>
+      <c r="E4054">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4055" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4055" s="1">
+        <v>43556.01458333333</v>
+      </c>
+      <c r="D4055">
+        <v>0</v>
+      </c>
+      <c r="E4055">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4056" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4056" s="1">
+        <v>43556.025000000001</v>
+      </c>
+      <c r="D4056">
+        <v>0</v>
+      </c>
+      <c r="E4056">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4057" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4057" s="1">
+        <v>43556.035416666666</v>
+      </c>
+      <c r="D4057">
+        <v>0</v>
+      </c>
+      <c r="E4057">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4058" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4058" s="1">
+        <v>43556.04583333333</v>
+      </c>
+      <c r="D4058">
+        <v>0</v>
+      </c>
+      <c r="E4058">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4059" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4059" s="1">
+        <v>43556.056250000001</v>
+      </c>
+      <c r="D4059">
+        <v>0</v>
+      </c>
+      <c r="E4059">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4060" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4060" s="1">
+        <v>43556.066666666666</v>
+      </c>
+      <c r="D4060">
+        <v>0</v>
+      </c>
+      <c r="E4060">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4061" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4061" s="1">
+        <v>43556.07708333333</v>
+      </c>
+      <c r="D4061">
+        <v>0</v>
+      </c>
+      <c r="E4061">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4062" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4062" s="1">
+        <v>43556.087500000001</v>
+      </c>
+      <c r="D4062">
+        <v>0</v>
+      </c>
+      <c r="E4062">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4063" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4063" s="1">
+        <v>43556.097916666666</v>
+      </c>
+      <c r="D4063">
+        <v>0</v>
+      </c>
+      <c r="E4063">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4064" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4064" s="1">
+        <v>43556.10833333333</v>
+      </c>
+      <c r="D4064">
+        <v>0</v>
+      </c>
+      <c r="E4064">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4065" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4065" s="1">
+        <v>43556.118750000001</v>
+      </c>
+      <c r="D4065">
+        <v>0</v>
+      </c>
+      <c r="E4065">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4066" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4066" s="1">
+        <v>43556.129166666666</v>
+      </c>
+      <c r="D4066">
+        <v>0</v>
+      </c>
+      <c r="E4066">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4067" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4067" s="1">
+        <v>43556.13958333333</v>
+      </c>
+      <c r="D4067">
+        <v>0</v>
+      </c>
+      <c r="E4067">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4068" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4068" s="1">
+        <v>43556.15</v>
+      </c>
+      <c r="D4068">
+        <v>0</v>
+      </c>
+      <c r="E4068">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4069" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4069" s="1">
+        <v>43556.160416666666</v>
+      </c>
+      <c r="D4069">
+        <v>0</v>
+      </c>
+      <c r="E4069">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4070" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4070" s="1">
+        <v>43556.17083333333</v>
+      </c>
+      <c r="D4070">
+        <v>0</v>
+      </c>
+      <c r="E4070">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4071" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4071" s="1">
+        <v>43556.181250000001</v>
+      </c>
+      <c r="D4071">
+        <v>0</v>
+      </c>
+      <c r="E4071">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4072" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4072" s="1">
+        <v>43556.191666666666</v>
+      </c>
+      <c r="D4072">
+        <v>0</v>
+      </c>
+      <c r="E4072">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4073" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4073" s="1">
+        <v>43556.20208333333</v>
+      </c>
+      <c r="D4073">
+        <v>0</v>
+      </c>
+      <c r="E4073">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4074" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4074" s="1">
+        <v>43556.212500000001</v>
+      </c>
+      <c r="D4074">
+        <v>0</v>
+      </c>
+      <c r="E4074">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4075" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4075" s="1">
+        <v>43556.222916666666</v>
+      </c>
+      <c r="D4075">
+        <v>0</v>
+      </c>
+      <c r="E4075">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4076" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4076" s="1">
+        <v>43556.23333333333</v>
+      </c>
+      <c r="D4076">
+        <v>0</v>
+      </c>
+      <c r="E4076">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4077" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4077" s="1">
+        <v>43556.243750000001</v>
+      </c>
+      <c r="D4077">
+        <v>0</v>
+      </c>
+      <c r="E4077">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4078" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4078" s="1">
+        <v>43556.254166666666</v>
+      </c>
+      <c r="D4078">
+        <v>0</v>
+      </c>
+      <c r="E4078">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4079" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4079" s="1">
+        <v>43556.261111111111</v>
+      </c>
+      <c r="D4079">
+        <v>1</v>
+      </c>
+      <c r="F4079">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4080" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4080" s="1">
+        <v>43556.26458333333</v>
+      </c>
+      <c r="D4080">
+        <v>0</v>
+      </c>
+      <c r="E4080">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4081" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4081" s="1">
+        <v>43556.275000000001</v>
+      </c>
+      <c r="D4081">
+        <v>0</v>
+      </c>
+      <c r="E4081">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4082" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4082" s="1">
+        <v>43556.283333333333</v>
+      </c>
+      <c r="D4082">
+        <v>1</v>
+      </c>
+      <c r="F4082">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4083" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4083" s="1">
+        <v>43556.287499999999</v>
+      </c>
+      <c r="D4083">
+        <v>1</v>
+      </c>
+      <c r="F4083">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
